--- a/Arbeitsdokumente/Projektplan GANTT.xlsx
+++ b/Arbeitsdokumente/Projektplan GANTT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan Samardzic\Documents\GitHub\PS_InfoEng\Arbeitsdokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F46D2ED9-A9D1-45C1-9ABE-1F15B003A046}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E5FDEDC6-58D4-4B8B-A70E-17748CEDF7BF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="30">
   <si>
     <t>Projektbeginn:</t>
   </si>
@@ -110,6 +110,12 @@
   <si>
     <t>PHASE 1</t>
   </si>
+  <si>
+    <t>Nächste Schritte bis "Testphase einleiten"</t>
+  </si>
+  <si>
+    <t>Nächste Schritte bis "Analysestrategie evaluieren"</t>
+  </si>
 </sst>
 </file>
 
@@ -163,7 +169,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -387,19 +393,6 @@
       <right style="thin">
         <color theme="0" tint="-0.24994659260841701"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
       <top style="thin">
         <color theme="0" tint="-0.24994659260841701"/>
       </top>
@@ -412,7 +405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -458,12 +451,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="41">
     <dxf>
       <fill>
         <patternFill>
@@ -479,35 +471,144 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC00000"/>
+          <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
-      <border>
-        <left style="thin">
-          <color theme="7"/>
-        </left>
-        <right style="thin">
-          <color theme="7"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -972,13 +1073,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:EG36"/>
+  <dimension ref="A1:EG37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="EH21" sqref="EH21"/>
+      <selection pane="bottomRight" activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4853,14 +4954,14 @@
       <c r="EG28" s="12"/>
     </row>
     <row r="29" spans="1:137" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
-        <v>17</v>
+      <c r="A29" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="B29" s="10">
-        <v>43425</v>
-      </c>
-      <c r="C29" s="8">
-        <v>43425</v>
+        <v>43424</v>
+      </c>
+      <c r="C29" s="10">
+        <v>43424</v>
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
@@ -4997,155 +5098,161 @@
       <c r="EF29" s="12"/>
       <c r="EG29" s="12"/>
     </row>
-    <row r="30" spans="1:137" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="20" t="s">
+    <row r="30" spans="1:137" x14ac:dyDescent="0.25">
+      <c r="A30" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="10">
+        <v>43425</v>
+      </c>
+      <c r="C30" s="8">
+        <v>43425</v>
+      </c>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="12"/>
+      <c r="AA30" s="12"/>
+      <c r="AB30" s="12"/>
+      <c r="AC30" s="12"/>
+      <c r="AD30" s="12"/>
+      <c r="AE30" s="12"/>
+      <c r="AF30" s="12"/>
+      <c r="AG30" s="12"/>
+      <c r="AH30" s="12"/>
+      <c r="AI30" s="12"/>
+      <c r="AJ30" s="12"/>
+      <c r="AK30" s="12"/>
+      <c r="AL30" s="12"/>
+      <c r="AM30" s="12"/>
+      <c r="AN30" s="12"/>
+      <c r="AO30" s="12"/>
+      <c r="AP30" s="12"/>
+      <c r="AQ30" s="12"/>
+      <c r="AR30" s="12"/>
+      <c r="AS30" s="12"/>
+      <c r="AT30" s="12"/>
+      <c r="AU30" s="12"/>
+      <c r="AV30" s="12"/>
+      <c r="AW30" s="12"/>
+      <c r="AX30" s="12"/>
+      <c r="AY30" s="12"/>
+      <c r="AZ30" s="12"/>
+      <c r="BA30" s="12"/>
+      <c r="BB30" s="12"/>
+      <c r="BC30" s="12"/>
+      <c r="BD30" s="12"/>
+      <c r="BE30" s="12"/>
+      <c r="BF30" s="12"/>
+      <c r="BG30" s="12"/>
+      <c r="BH30" s="12"/>
+      <c r="BI30" s="12"/>
+      <c r="BJ30" s="12"/>
+      <c r="BK30" s="12"/>
+      <c r="BL30" s="12"/>
+      <c r="BM30" s="12"/>
+      <c r="BN30" s="12"/>
+      <c r="BO30" s="12"/>
+      <c r="BP30" s="12"/>
+      <c r="BQ30" s="12"/>
+      <c r="BR30" s="12"/>
+      <c r="BS30" s="12"/>
+      <c r="BT30" s="12"/>
+      <c r="BU30" s="12"/>
+      <c r="BV30" s="12"/>
+      <c r="BW30" s="12"/>
+      <c r="BX30" s="12"/>
+      <c r="BY30" s="12"/>
+      <c r="BZ30" s="12"/>
+      <c r="CA30" s="12"/>
+      <c r="CB30" s="12"/>
+      <c r="CC30" s="12"/>
+      <c r="CD30" s="12"/>
+      <c r="CE30" s="12"/>
+      <c r="CF30" s="12"/>
+      <c r="CG30" s="12"/>
+      <c r="CH30" s="12"/>
+      <c r="CI30" s="12"/>
+      <c r="CJ30" s="12"/>
+      <c r="CK30" s="12"/>
+      <c r="CL30" s="12"/>
+      <c r="CM30" s="12"/>
+      <c r="CN30" s="12"/>
+      <c r="CO30" s="12"/>
+      <c r="CP30" s="12"/>
+      <c r="CQ30" s="12"/>
+      <c r="CR30" s="12"/>
+      <c r="CS30" s="12"/>
+      <c r="CT30" s="12"/>
+      <c r="CU30" s="12"/>
+      <c r="CV30" s="12"/>
+      <c r="CW30" s="12"/>
+      <c r="CX30" s="12"/>
+      <c r="CY30" s="12"/>
+      <c r="CZ30" s="12"/>
+      <c r="DA30" s="12"/>
+      <c r="DB30" s="12"/>
+      <c r="DC30" s="12"/>
+      <c r="DD30" s="12"/>
+      <c r="DE30" s="12"/>
+      <c r="DF30" s="12"/>
+      <c r="DG30" s="12"/>
+      <c r="DH30" s="12"/>
+      <c r="DI30" s="12"/>
+      <c r="DJ30" s="12"/>
+      <c r="DK30" s="12"/>
+      <c r="DL30" s="12"/>
+      <c r="DM30" s="12"/>
+      <c r="DN30" s="12"/>
+      <c r="DO30" s="12"/>
+      <c r="DP30" s="12"/>
+      <c r="DQ30" s="12"/>
+      <c r="DR30" s="12"/>
+      <c r="DS30" s="12"/>
+      <c r="DT30" s="12"/>
+      <c r="DU30" s="12"/>
+      <c r="DV30" s="12"/>
+      <c r="DW30" s="12"/>
+      <c r="DX30" s="12"/>
+      <c r="DY30" s="12"/>
+      <c r="DZ30" s="12"/>
+      <c r="EA30" s="12"/>
+      <c r="EB30" s="12"/>
+      <c r="EC30" s="12"/>
+      <c r="ED30" s="12"/>
+      <c r="EE30" s="12"/>
+      <c r="EF30" s="12"/>
+      <c r="EG30" s="12"/>
+    </row>
+    <row r="31" spans="1:137" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="22">
+      <c r="B31" s="22">
         <v>43425</v>
       </c>
-      <c r="C30" s="22">
-        <v>43465</v>
-      </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="27"/>
-      <c r="S30" s="27"/>
-      <c r="T30" s="27"/>
-      <c r="U30" s="27"/>
-      <c r="V30" s="27"/>
-      <c r="W30" s="27"/>
-      <c r="X30" s="27"/>
-      <c r="Y30" s="27"/>
-      <c r="Z30" s="27"/>
-      <c r="AA30" s="27"/>
-      <c r="AB30" s="27"/>
-      <c r="AC30" s="27"/>
-      <c r="AD30" s="27"/>
-      <c r="AE30" s="27"/>
-      <c r="AF30" s="27"/>
-      <c r="AG30" s="27"/>
-      <c r="AH30" s="27"/>
-      <c r="AI30" s="27"/>
-      <c r="AJ30" s="27"/>
-      <c r="AK30" s="27"/>
-      <c r="AL30" s="27"/>
-      <c r="AM30" s="27"/>
-      <c r="AN30" s="27"/>
-      <c r="AO30" s="27"/>
-      <c r="AP30" s="27"/>
-      <c r="AQ30" s="27"/>
-      <c r="AR30" s="27"/>
-      <c r="AS30" s="27"/>
-      <c r="AT30" s="27"/>
-      <c r="AU30" s="27"/>
-      <c r="AV30" s="27"/>
-      <c r="AW30" s="27"/>
-      <c r="AX30" s="27"/>
-      <c r="AY30" s="27"/>
-      <c r="AZ30" s="27"/>
-      <c r="BA30" s="27"/>
-      <c r="BB30" s="27"/>
-      <c r="BC30" s="27"/>
-      <c r="BD30" s="27"/>
-      <c r="BE30" s="27"/>
-      <c r="BF30" s="27"/>
-      <c r="BG30" s="27"/>
-      <c r="BH30" s="27"/>
-      <c r="BI30" s="27"/>
-      <c r="BJ30" s="27"/>
-      <c r="BK30" s="27"/>
-      <c r="BL30" s="27"/>
-      <c r="BM30" s="27"/>
-      <c r="BN30" s="27"/>
-      <c r="BO30" s="27"/>
-      <c r="BP30" s="27"/>
-      <c r="BQ30" s="27"/>
-      <c r="BR30" s="27"/>
-      <c r="BS30" s="27"/>
-      <c r="BT30" s="27"/>
-      <c r="BU30" s="27"/>
-      <c r="BV30" s="27"/>
-      <c r="BW30" s="27"/>
-      <c r="BX30" s="27"/>
-      <c r="BY30" s="27"/>
-      <c r="BZ30" s="27"/>
-      <c r="CA30" s="27"/>
-      <c r="CB30" s="27"/>
-      <c r="CC30" s="27"/>
-      <c r="CD30" s="27"/>
-      <c r="CE30" s="27"/>
-      <c r="CF30" s="27"/>
-      <c r="CG30" s="27"/>
-      <c r="CH30" s="27"/>
-      <c r="CI30" s="27"/>
-      <c r="CJ30" s="27"/>
-      <c r="CK30" s="27"/>
-      <c r="CL30" s="27"/>
-      <c r="CM30" s="27"/>
-      <c r="CN30" s="27"/>
-      <c r="CO30" s="27"/>
-      <c r="CP30" s="27"/>
-      <c r="CQ30" s="27"/>
-      <c r="CR30" s="27"/>
-      <c r="CS30" s="27"/>
-      <c r="CT30" s="27"/>
-      <c r="CU30" s="27"/>
-      <c r="CV30" s="27"/>
-      <c r="CW30" s="27"/>
-      <c r="CX30" s="27"/>
-      <c r="CY30" s="27"/>
-      <c r="CZ30" s="27"/>
-      <c r="DA30" s="27"/>
-      <c r="DB30" s="27"/>
-      <c r="DC30" s="27"/>
-      <c r="DD30" s="27"/>
-      <c r="DE30" s="27"/>
-      <c r="DF30" s="27"/>
-      <c r="DG30" s="27"/>
-      <c r="DH30" s="27"/>
-      <c r="DI30" s="27"/>
-      <c r="DJ30" s="27"/>
-      <c r="DK30" s="27"/>
-      <c r="DL30" s="27"/>
-      <c r="DM30" s="27"/>
-      <c r="DN30" s="27"/>
-      <c r="DO30" s="27"/>
-      <c r="DP30" s="27"/>
-      <c r="DQ30" s="27"/>
-      <c r="DR30" s="27"/>
-      <c r="DS30" s="27"/>
-      <c r="DT30" s="27"/>
-      <c r="DU30" s="27"/>
-      <c r="DV30" s="27"/>
-      <c r="DW30" s="27"/>
-      <c r="DX30" s="27"/>
-      <c r="DY30" s="27"/>
-      <c r="DZ30" s="27"/>
-      <c r="EA30" s="27"/>
-      <c r="EB30" s="27"/>
-      <c r="EC30" s="27"/>
-      <c r="ED30" s="27"/>
-      <c r="EE30" s="27"/>
-      <c r="EF30" s="27"/>
-      <c r="EG30" s="27"/>
-    </row>
-    <row r="31" spans="1:137" x14ac:dyDescent="0.25">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
+      <c r="C31" s="22">
+        <v>43481</v>
+      </c>
       <c r="D31" s="26"/>
       <c r="E31" s="26"/>
       <c r="F31" s="26"/>
@@ -5282,8 +5389,12 @@
       <c r="EG31" s="26"/>
     </row>
     <row r="32" spans="1:137" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
+      <c r="A32" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="21">
+        <v>43426</v>
+      </c>
       <c r="C32" s="10"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
@@ -5421,8 +5532,12 @@
       <c r="EG32" s="12"/>
     </row>
     <row r="33" spans="1:137" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
+      <c r="A33" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="10">
+        <v>43456</v>
+      </c>
       <c r="C33" s="10"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
@@ -5976,116 +6091,347 @@
       <c r="EF36" s="12"/>
       <c r="EG36" s="12"/>
     </row>
+    <row r="37" spans="1:137" x14ac:dyDescent="0.25">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="12"/>
+      <c r="W37" s="12"/>
+      <c r="X37" s="12"/>
+      <c r="Y37" s="12"/>
+      <c r="Z37" s="12"/>
+      <c r="AA37" s="12"/>
+      <c r="AB37" s="12"/>
+      <c r="AC37" s="12"/>
+      <c r="AD37" s="12"/>
+      <c r="AE37" s="12"/>
+      <c r="AF37" s="12"/>
+      <c r="AG37" s="12"/>
+      <c r="AH37" s="12"/>
+      <c r="AI37" s="12"/>
+      <c r="AJ37" s="12"/>
+      <c r="AK37" s="12"/>
+      <c r="AL37" s="12"/>
+      <c r="AM37" s="12"/>
+      <c r="AN37" s="12"/>
+      <c r="AO37" s="12"/>
+      <c r="AP37" s="12"/>
+      <c r="AQ37" s="12"/>
+      <c r="AR37" s="12"/>
+      <c r="AS37" s="12"/>
+      <c r="AT37" s="12"/>
+      <c r="AU37" s="12"/>
+      <c r="AV37" s="12"/>
+      <c r="AW37" s="12"/>
+      <c r="AX37" s="12"/>
+      <c r="AY37" s="12"/>
+      <c r="AZ37" s="12"/>
+      <c r="BA37" s="12"/>
+      <c r="BB37" s="12"/>
+      <c r="BC37" s="12"/>
+      <c r="BD37" s="12"/>
+      <c r="BE37" s="12"/>
+      <c r="BF37" s="12"/>
+      <c r="BG37" s="12"/>
+      <c r="BH37" s="12"/>
+      <c r="BI37" s="12"/>
+      <c r="BJ37" s="12"/>
+      <c r="BK37" s="12"/>
+      <c r="BL37" s="12"/>
+      <c r="BM37" s="12"/>
+      <c r="BN37" s="12"/>
+      <c r="BO37" s="12"/>
+      <c r="BP37" s="12"/>
+      <c r="BQ37" s="12"/>
+      <c r="BR37" s="12"/>
+      <c r="BS37" s="12"/>
+      <c r="BT37" s="12"/>
+      <c r="BU37" s="12"/>
+      <c r="BV37" s="12"/>
+      <c r="BW37" s="12"/>
+      <c r="BX37" s="12"/>
+      <c r="BY37" s="12"/>
+      <c r="BZ37" s="12"/>
+      <c r="CA37" s="12"/>
+      <c r="CB37" s="12"/>
+      <c r="CC37" s="12"/>
+      <c r="CD37" s="12"/>
+      <c r="CE37" s="12"/>
+      <c r="CF37" s="12"/>
+      <c r="CG37" s="12"/>
+      <c r="CH37" s="12"/>
+      <c r="CI37" s="12"/>
+      <c r="CJ37" s="12"/>
+      <c r="CK37" s="12"/>
+      <c r="CL37" s="12"/>
+      <c r="CM37" s="12"/>
+      <c r="CN37" s="12"/>
+      <c r="CO37" s="12"/>
+      <c r="CP37" s="12"/>
+      <c r="CQ37" s="12"/>
+      <c r="CR37" s="12"/>
+      <c r="CS37" s="12"/>
+      <c r="CT37" s="12"/>
+      <c r="CU37" s="12"/>
+      <c r="CV37" s="12"/>
+      <c r="CW37" s="12"/>
+      <c r="CX37" s="12"/>
+      <c r="CY37" s="12"/>
+      <c r="CZ37" s="12"/>
+      <c r="DA37" s="12"/>
+      <c r="DB37" s="12"/>
+      <c r="DC37" s="12"/>
+      <c r="DD37" s="12"/>
+      <c r="DE37" s="12"/>
+      <c r="DF37" s="12"/>
+      <c r="DG37" s="12"/>
+      <c r="DH37" s="12"/>
+      <c r="DI37" s="12"/>
+      <c r="DJ37" s="12"/>
+      <c r="DK37" s="12"/>
+      <c r="DL37" s="12"/>
+      <c r="DM37" s="12"/>
+      <c r="DN37" s="12"/>
+      <c r="DO37" s="12"/>
+      <c r="DP37" s="12"/>
+      <c r="DQ37" s="12"/>
+      <c r="DR37" s="12"/>
+      <c r="DS37" s="12"/>
+      <c r="DT37" s="12"/>
+      <c r="DU37" s="12"/>
+      <c r="DV37" s="12"/>
+      <c r="DW37" s="12"/>
+      <c r="DX37" s="12"/>
+      <c r="DY37" s="12"/>
+      <c r="DZ37" s="12"/>
+      <c r="EA37" s="12"/>
+      <c r="EB37" s="12"/>
+      <c r="EC37" s="12"/>
+      <c r="ED37" s="12"/>
+      <c r="EE37" s="12"/>
+      <c r="EF37" s="12"/>
+      <c r="EG37" s="12"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D30:EG36 D26:CI29 CQ26:EG29 D5:EG25">
-    <cfRule type="expression" dxfId="22" priority="31">
+  <conditionalFormatting sqref="D5:EG37">
+    <cfRule type="expression" dxfId="40" priority="40">
       <formula>D$5=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="32">
+    <cfRule type="expression" dxfId="39" priority="41">
       <formula>D$5=$C$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:AH4">
-    <cfRule type="expression" dxfId="20" priority="30">
+    <cfRule type="expression" dxfId="38" priority="39">
       <formula>D$5=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24:CL25 CP24:EG25 D7:EG23 D26:EG36">
-    <cfRule type="expression" dxfId="19" priority="38">
+  <conditionalFormatting sqref="D24:CL25 CP24:EG25 D7:EG23 D26:EG31">
+    <cfRule type="expression" dxfId="37" priority="47">
       <formula>AND(D$5&gt;=$B7,D$5&lt;=$C7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:AY6">
-    <cfRule type="expression" dxfId="18" priority="24">
+    <cfRule type="expression" dxfId="36" priority="33">
       <formula>AND(D$5&gt;=$B6,D$5&lt;=$C6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA6:EG6">
-    <cfRule type="expression" dxfId="17" priority="23">
+    <cfRule type="expression" dxfId="35" priority="32">
       <formula>AND(BA$5&gt;=$B6,BA$5&lt;=$C6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30:EG36 D29:CI29 CQ29:EG29">
-    <cfRule type="expression" dxfId="16" priority="41">
+  <conditionalFormatting sqref="D31:EG37 D30:CI30 CQ30:EG30">
+    <cfRule type="expression" dxfId="34" priority="50">
       <formula>AND(D$5&gt;=#REF!,D$5&lt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21:EG23 BA26:CI29 CQ26:EG29 D24:CL24 BA20:EG25">
-    <cfRule type="expression" dxfId="15" priority="45">
+  <conditionalFormatting sqref="D21:EG23 D24:CL24 BA20:EG25 BA26:CI30 CQ26:EG30">
+    <cfRule type="expression" dxfId="33" priority="54">
       <formula>AND(D$5&gt;=#REF!,D$5&lt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:EG36">
-    <cfRule type="expression" dxfId="14" priority="66">
-      <formula>AND(D$5&gt;=$B32,D$5&lt;=$C32)</formula>
+  <conditionalFormatting sqref="CM22:CO22">
+    <cfRule type="expression" dxfId="32" priority="108">
+      <formula>AND(CM$5&gt;=$B28,CM$5&lt;=$C28)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32:EG36">
-    <cfRule type="expression" dxfId="13" priority="67">
-      <formula>AND(D$5&gt;=$B37,D$5&lt;=$C37)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25:CL25 CP25:EG25 CM22:CO23">
-    <cfRule type="expression" dxfId="12" priority="99">
-      <formula>AND(D$5&gt;=$B28,D$5&lt;=$C28)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32:EG32">
-    <cfRule type="expression" dxfId="11" priority="117">
-      <formula>AND(D$5&gt;=$B31,D$5&lt;=$C31)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33:EG33">
-    <cfRule type="expression" dxfId="10" priority="119">
+  <conditionalFormatting sqref="D34:EG34">
+    <cfRule type="expression" dxfId="31" priority="128">
       <formula>AND(D$5&gt;=#REF!,D$5&lt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:CI27 CQ27:EG27">
-    <cfRule type="expression" dxfId="9" priority="121">
+    <cfRule type="expression" dxfId="30" priority="130">
       <formula>AND(D$5&gt;=#REF!,D$5&lt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30:EG31 D28:CI29 CQ28:EG29">
-    <cfRule type="expression" dxfId="8" priority="123">
-      <formula>AND(D$5&gt;=$B32,D$5&lt;=$C32)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D26:CI26 CQ26:EG26 CM25:CO25">
-    <cfRule type="expression" dxfId="7" priority="125">
+    <cfRule type="expression" dxfId="29" priority="134">
       <formula>AND(D$5&gt;=#REF!,D$5&lt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CM24:CO25 CJ28:CP29">
-    <cfRule type="expression" dxfId="6" priority="166">
-      <formula>AND(CJ$5&gt;=$B31,CJ$5&lt;=$C31)</formula>
+  <conditionalFormatting sqref="CM23:CO23">
+    <cfRule type="expression" dxfId="28" priority="175">
+      <formula>AND(CM$5&gt;=$B30,CM$5&lt;=$C30)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CJ26:CP26">
-    <cfRule type="expression" dxfId="5" priority="170">
-      <formula>AND(CJ$5&gt;=$B36,CJ$5&lt;=$C36)</formula>
+  <conditionalFormatting sqref="D20:EG20">
+    <cfRule type="expression" dxfId="27" priority="179">
+      <formula>AND(D$5&gt;=$B30,D$5&lt;=$C30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CM24:CO25">
-    <cfRule type="expression" dxfId="4" priority="176">
+    <cfRule type="expression" dxfId="26" priority="185">
       <formula>AND(CM$5&gt;=$B25,CM$5&lt;=$C25)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CJ26:CP29">
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>CJ$5=TODAY()</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>CJ$5=$C$3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CJ26:CP29">
-    <cfRule type="expression" dxfId="1" priority="4">
+  <conditionalFormatting sqref="CJ26:CP30">
+    <cfRule type="expression" dxfId="25" priority="13">
       <formula>AND(CJ$5&gt;=#REF!,CJ$5&lt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20:EG20">
-    <cfRule type="expression" dxfId="0" priority="222">
-      <formula>AND(D$5&gt;=$B29,D$5&lt;=$C29)</formula>
+  <conditionalFormatting sqref="D32:EG34 D35:CL35 BA36:CL36 CM35:EG36 BA37:CI37 CQ37:EG37">
+    <cfRule type="expression" dxfId="24" priority="3">
+      <formula>AND(D$5&gt;=#REF!,D$5&lt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37:CI37 CQ37:EG37 CM36:CO36">
+    <cfRule type="expression" dxfId="23" priority="5">
+      <formula>AND(D$5&gt;=#REF!,D$5&lt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CJ37:CP37">
+    <cfRule type="expression" dxfId="22" priority="2">
+      <formula>AND(CJ$5&gt;=#REF!,CJ$5&lt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32:EG37">
+    <cfRule type="expression" dxfId="21" priority="1">
+      <formula>AND(D$5&gt;=#REF!,D$5&lt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33:EG33">
+    <cfRule type="expression" dxfId="20" priority="263">
+      <formula>AND(D$5&gt;=$B33,D$5&lt;=$C32)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32:EG32">
+    <cfRule type="expression" dxfId="19" priority="264">
+      <formula>AND(D$5&gt;=$B32,D$5&lt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35:EG35">
+    <cfRule type="expression" dxfId="18" priority="266">
+      <formula>AND(D$5&gt;=$B33,D$5&lt;=$C32)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28:CI28 CQ28:EG28">
+    <cfRule type="expression" dxfId="17" priority="267">
+      <formula>AND(D$5&gt;=$B33,D$5&lt;=$C32)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33:EG33">
+    <cfRule type="expression" dxfId="16" priority="270">
+      <formula>AND(D$5&gt;=$B32,D$5&lt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:CL25 CP25:EG25">
+    <cfRule type="expression" dxfId="15" priority="274">
+      <formula>AND(D$5&gt;=$B32,D$5&lt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CM24:CO24">
+    <cfRule type="expression" dxfId="14" priority="277">
+      <formula>AND(CM$5&gt;=$B32,CM$5&lt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CM25:CO25">
+    <cfRule type="expression" dxfId="13" priority="278">
+      <formula>AND(CM$5&gt;=$B33,CM$5&lt;=$C32)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35:EG37">
+    <cfRule type="expression" dxfId="12" priority="287">
+      <formula>AND(D$5&gt;=$B35,D$5&lt;=$C33)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34:EG34">
+    <cfRule type="expression" dxfId="11" priority="288">
+      <formula>AND(D$5&gt;=$B34,D$5&lt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37:EG37">
+    <cfRule type="expression" dxfId="10" priority="291">
+      <formula>AND(D$5&gt;=$B35,D$5&lt;=$C33)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36:EG36">
+    <cfRule type="expression" dxfId="9" priority="292">
+      <formula>AND(D$5&gt;=$B34,D$5&lt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29:CI29 CQ29:EG29">
+    <cfRule type="expression" dxfId="8" priority="295">
+      <formula>AND(D$5&gt;=$B34,D$5&lt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32:EG37">
+    <cfRule type="expression" dxfId="7" priority="298">
+      <formula>AND(D$5&gt;=$B37,D$5&lt;=$C35)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31:EG32">
+    <cfRule type="expression" dxfId="6" priority="299">
+      <formula>AND(D$5&gt;=$B35,D$5&lt;=$C33)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30:CI30 CQ30:EG30">
+    <cfRule type="expression" dxfId="5" priority="300">
+      <formula>AND(D$5&gt;=$B34,D$5&lt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CJ30:CP30 D36:CL36 CP36:EG36 CM34:CO34">
+    <cfRule type="expression" dxfId="4" priority="302">
+      <formula>AND(D$5&gt;=$B37,D$5&lt;=$C35)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CJ28:CP29 CM35:CO36">
+    <cfRule type="expression" dxfId="3" priority="307">
+      <formula>AND(CJ$5&gt;=$B36,CJ$5&lt;=$C34)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CJ26:CP26 CJ37:CP37">
+    <cfRule type="expression" dxfId="2" priority="309">
+      <formula>AND(CJ$5&gt;=$B37,CJ$5&lt;=$C35)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CM33:CO33">
+    <cfRule type="expression" dxfId="1" priority="311">
+      <formula>AND(CM$5&gt;=$B39,CM$5&lt;=$C37)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CM35:CO36">
+    <cfRule type="expression" dxfId="0" priority="312">
+      <formula>AND(CM$5&gt;=$B36,CM$5&lt;=$C34)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Arbeitsdokumente/Projektplan GANTT.xlsx
+++ b/Arbeitsdokumente/Projektplan GANTT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan Samardzic\Documents\GitHub\PS_InfoEng\Arbeitsdokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E5FDEDC6-58D4-4B8B-A70E-17748CEDF7BF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3A7E3F5A-DA28-489C-88EB-FDF9FF6D2763}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="37">
   <si>
     <t>Projektbeginn:</t>
   </si>
@@ -111,10 +111,31 @@
     <t>PHASE 1</t>
   </si>
   <si>
-    <t>Nächste Schritte bis "Testphase einleiten"</t>
+    <t>Abstimmung mit Projektpartner (Neue Vorgabe)</t>
   </si>
   <si>
-    <t>Nächste Schritte bis "Analysestrategie evaluieren"</t>
+    <t>Vorbereitung &amp; Durchführung des Interviews am SE-Institut</t>
+  </si>
+  <si>
+    <t>Einarbeiten der neuen Vorgabe/Umstrukturierung</t>
+  </si>
+  <si>
+    <t>Gruppen-Meeting &amp; Erkenntnisse vorstellen</t>
+  </si>
+  <si>
+    <t>Durchführen Fragebogen bei reqPOOL Mitarbeiter</t>
+  </si>
+  <si>
+    <t>Durchführen Fragebogen bei Freunde/Familie</t>
+  </si>
+  <si>
+    <t>Einarbeiten des Feedbacks (von reqPOOL &amp; Freunde/Familie)</t>
+  </si>
+  <si>
+    <t>Seminarbeit kontinuierlich verschriftlichen</t>
+  </si>
+  <si>
+    <t>Abstimmung mit Projektpartner inkl. Finales Feedback</t>
   </si>
 </sst>
 </file>
@@ -169,7 +190,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -355,15 +376,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -386,26 +398,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -439,29 +436,129 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="44">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+        <right style="thin">
+          <color theme="7"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+        <right style="thin">
+          <color theme="7"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -534,67 +631,35 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF0070C0"/>
+          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF0070C0"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+        <right style="thin">
+          <color theme="7"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1073,18 +1138,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:EG37"/>
+  <dimension ref="A1:EG70"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="CV36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G38" sqref="G38"/>
+      <selection pane="bottomRight" activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.140625" customWidth="1"/>
+    <col min="1" max="1" width="45.85546875" customWidth="1"/>
     <col min="2" max="3" width="11.42578125" style="2"/>
     <col min="4" max="34" width="5.5703125" customWidth="1"/>
   </cols>
@@ -3214,7 +3279,7 @@
       <c r="EG16" s="12"/>
     </row>
     <row r="17" spans="1:137" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="23" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="10">
@@ -3507,10 +3572,10 @@
       <c r="A19" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B19" s="21">
         <v>43397</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="22">
         <v>43425</v>
       </c>
       <c r="D19" s="14"/>
@@ -3649,7 +3714,7 @@
       <c r="EG19" s="15"/>
     </row>
     <row r="20" spans="1:137" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="24" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="10">
@@ -5099,7 +5164,7 @@
       <c r="EG29" s="12"/>
     </row>
     <row r="30" spans="1:137" x14ac:dyDescent="0.25">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="23" t="s">
         <v>17</v>
       </c>
       <c r="B30" s="10">
@@ -5247,155 +5312,157 @@
       <c r="A31" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="22">
+      <c r="B31" s="21">
         <v>43425</v>
       </c>
       <c r="C31" s="22">
         <v>43481</v>
       </c>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="26"/>
-      <c r="P31" s="26"/>
-      <c r="Q31" s="26"/>
-      <c r="R31" s="26"/>
-      <c r="S31" s="26"/>
-      <c r="T31" s="26"/>
-      <c r="U31" s="26"/>
-      <c r="V31" s="26"/>
-      <c r="W31" s="26"/>
-      <c r="X31" s="26"/>
-      <c r="Y31" s="26"/>
-      <c r="Z31" s="26"/>
-      <c r="AA31" s="26"/>
-      <c r="AB31" s="26"/>
-      <c r="AC31" s="26"/>
-      <c r="AD31" s="26"/>
-      <c r="AE31" s="26"/>
-      <c r="AF31" s="26"/>
-      <c r="AG31" s="26"/>
-      <c r="AH31" s="26"/>
-      <c r="AI31" s="26"/>
-      <c r="AJ31" s="26"/>
-      <c r="AK31" s="26"/>
-      <c r="AL31" s="26"/>
-      <c r="AM31" s="26"/>
-      <c r="AN31" s="26"/>
-      <c r="AO31" s="26"/>
-      <c r="AP31" s="26"/>
-      <c r="AQ31" s="26"/>
-      <c r="AR31" s="26"/>
-      <c r="AS31" s="26"/>
-      <c r="AT31" s="26"/>
-      <c r="AU31" s="26"/>
-      <c r="AV31" s="26"/>
-      <c r="AW31" s="26"/>
-      <c r="AX31" s="26"/>
-      <c r="AY31" s="26"/>
-      <c r="AZ31" s="26"/>
-      <c r="BA31" s="26"/>
-      <c r="BB31" s="26"/>
-      <c r="BC31" s="26"/>
-      <c r="BD31" s="26"/>
-      <c r="BE31" s="26"/>
-      <c r="BF31" s="26"/>
-      <c r="BG31" s="26"/>
-      <c r="BH31" s="26"/>
-      <c r="BI31" s="26"/>
-      <c r="BJ31" s="26"/>
-      <c r="BK31" s="26"/>
-      <c r="BL31" s="26"/>
-      <c r="BM31" s="26"/>
-      <c r="BN31" s="26"/>
-      <c r="BO31" s="26"/>
-      <c r="BP31" s="26"/>
-      <c r="BQ31" s="26"/>
-      <c r="BR31" s="26"/>
-      <c r="BS31" s="26"/>
-      <c r="BT31" s="26"/>
-      <c r="BU31" s="26"/>
-      <c r="BV31" s="26"/>
-      <c r="BW31" s="26"/>
-      <c r="BX31" s="26"/>
-      <c r="BY31" s="26"/>
-      <c r="BZ31" s="26"/>
-      <c r="CA31" s="26"/>
-      <c r="CB31" s="26"/>
-      <c r="CC31" s="26"/>
-      <c r="CD31" s="26"/>
-      <c r="CE31" s="26"/>
-      <c r="CF31" s="26"/>
-      <c r="CG31" s="26"/>
-      <c r="CH31" s="26"/>
-      <c r="CI31" s="26"/>
-      <c r="CJ31" s="26"/>
-      <c r="CK31" s="26"/>
-      <c r="CL31" s="26"/>
-      <c r="CM31" s="26"/>
-      <c r="CN31" s="26"/>
-      <c r="CO31" s="26"/>
-      <c r="CP31" s="26"/>
-      <c r="CQ31" s="26"/>
-      <c r="CR31" s="26"/>
-      <c r="CS31" s="26"/>
-      <c r="CT31" s="26"/>
-      <c r="CU31" s="26"/>
-      <c r="CV31" s="26"/>
-      <c r="CW31" s="26"/>
-      <c r="CX31" s="26"/>
-      <c r="CY31" s="26"/>
-      <c r="CZ31" s="26"/>
-      <c r="DA31" s="26"/>
-      <c r="DB31" s="26"/>
-      <c r="DC31" s="26"/>
-      <c r="DD31" s="26"/>
-      <c r="DE31" s="26"/>
-      <c r="DF31" s="26"/>
-      <c r="DG31" s="26"/>
-      <c r="DH31" s="26"/>
-      <c r="DI31" s="26"/>
-      <c r="DJ31" s="26"/>
-      <c r="DK31" s="26"/>
-      <c r="DL31" s="26"/>
-      <c r="DM31" s="26"/>
-      <c r="DN31" s="26"/>
-      <c r="DO31" s="26"/>
-      <c r="DP31" s="26"/>
-      <c r="DQ31" s="26"/>
-      <c r="DR31" s="26"/>
-      <c r="DS31" s="26"/>
-      <c r="DT31" s="26"/>
-      <c r="DU31" s="26"/>
-      <c r="DV31" s="26"/>
-      <c r="DW31" s="26"/>
-      <c r="DX31" s="26"/>
-      <c r="DY31" s="26"/>
-      <c r="DZ31" s="26"/>
-      <c r="EA31" s="26"/>
-      <c r="EB31" s="26"/>
-      <c r="EC31" s="26"/>
-      <c r="ED31" s="26"/>
-      <c r="EE31" s="26"/>
-      <c r="EF31" s="26"/>
-      <c r="EG31" s="26"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="15"/>
+      <c r="X31" s="15"/>
+      <c r="Y31" s="15"/>
+      <c r="Z31" s="15"/>
+      <c r="AA31" s="15"/>
+      <c r="AB31" s="15"/>
+      <c r="AC31" s="15"/>
+      <c r="AD31" s="15"/>
+      <c r="AE31" s="15"/>
+      <c r="AF31" s="15"/>
+      <c r="AG31" s="15"/>
+      <c r="AH31" s="15"/>
+      <c r="AI31" s="15"/>
+      <c r="AJ31" s="15"/>
+      <c r="AK31" s="15"/>
+      <c r="AL31" s="15"/>
+      <c r="AM31" s="15"/>
+      <c r="AN31" s="15"/>
+      <c r="AO31" s="15"/>
+      <c r="AP31" s="15"/>
+      <c r="AQ31" s="15"/>
+      <c r="AR31" s="15"/>
+      <c r="AS31" s="15"/>
+      <c r="AT31" s="15"/>
+      <c r="AU31" s="15"/>
+      <c r="AV31" s="15"/>
+      <c r="AW31" s="15"/>
+      <c r="AX31" s="15"/>
+      <c r="AY31" s="15"/>
+      <c r="AZ31" s="16"/>
+      <c r="BA31" s="15"/>
+      <c r="BB31" s="15"/>
+      <c r="BC31" s="15"/>
+      <c r="BD31" s="15"/>
+      <c r="BE31" s="15"/>
+      <c r="BF31" s="15"/>
+      <c r="BG31" s="15"/>
+      <c r="BH31" s="15"/>
+      <c r="BI31" s="15"/>
+      <c r="BJ31" s="15"/>
+      <c r="BK31" s="15"/>
+      <c r="BL31" s="15"/>
+      <c r="BM31" s="15"/>
+      <c r="BN31" s="15"/>
+      <c r="BO31" s="15"/>
+      <c r="BP31" s="15"/>
+      <c r="BQ31" s="15"/>
+      <c r="BR31" s="15"/>
+      <c r="BS31" s="15"/>
+      <c r="BT31" s="15"/>
+      <c r="BU31" s="15"/>
+      <c r="BV31" s="15"/>
+      <c r="BW31" s="15"/>
+      <c r="BX31" s="15"/>
+      <c r="BY31" s="15"/>
+      <c r="BZ31" s="15"/>
+      <c r="CA31" s="15"/>
+      <c r="CB31" s="15"/>
+      <c r="CC31" s="15"/>
+      <c r="CD31" s="15"/>
+      <c r="CE31" s="15"/>
+      <c r="CF31" s="15"/>
+      <c r="CG31" s="15"/>
+      <c r="CH31" s="15"/>
+      <c r="CI31" s="15"/>
+      <c r="CJ31" s="15"/>
+      <c r="CK31" s="15"/>
+      <c r="CL31" s="15"/>
+      <c r="CM31" s="15"/>
+      <c r="CN31" s="15"/>
+      <c r="CO31" s="15"/>
+      <c r="CP31" s="15"/>
+      <c r="CQ31" s="15"/>
+      <c r="CR31" s="15"/>
+      <c r="CS31" s="15"/>
+      <c r="CT31" s="15"/>
+      <c r="CU31" s="15"/>
+      <c r="CV31" s="15"/>
+      <c r="CW31" s="15"/>
+      <c r="CX31" s="15"/>
+      <c r="CY31" s="15"/>
+      <c r="CZ31" s="15"/>
+      <c r="DA31" s="15"/>
+      <c r="DB31" s="15"/>
+      <c r="DC31" s="15"/>
+      <c r="DD31" s="15"/>
+      <c r="DE31" s="15"/>
+      <c r="DF31" s="15"/>
+      <c r="DG31" s="15"/>
+      <c r="DH31" s="15"/>
+      <c r="DI31" s="15"/>
+      <c r="DJ31" s="15"/>
+      <c r="DK31" s="15"/>
+      <c r="DL31" s="15"/>
+      <c r="DM31" s="15"/>
+      <c r="DN31" s="15"/>
+      <c r="DO31" s="15"/>
+      <c r="DP31" s="15"/>
+      <c r="DQ31" s="15"/>
+      <c r="DR31" s="15"/>
+      <c r="DS31" s="15"/>
+      <c r="DT31" s="15"/>
+      <c r="DU31" s="15"/>
+      <c r="DV31" s="15"/>
+      <c r="DW31" s="15"/>
+      <c r="DX31" s="15"/>
+      <c r="DY31" s="15"/>
+      <c r="DZ31" s="15"/>
+      <c r="EA31" s="15"/>
+      <c r="EB31" s="15"/>
+      <c r="EC31" s="15"/>
+      <c r="ED31" s="15"/>
+      <c r="EE31" s="15"/>
+      <c r="EF31" s="15"/>
+      <c r="EG31" s="15"/>
     </row>
     <row r="32" spans="1:137" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="21">
-        <v>43426</v>
-      </c>
-      <c r="C32" s="10"/>
+      <c r="A32" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="10">
+        <v>43431</v>
+      </c>
+      <c r="C32" s="10">
+        <v>43431</v>
+      </c>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
@@ -5532,13 +5599,15 @@
       <c r="EG32" s="12"/>
     </row>
     <row r="33" spans="1:137" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="10">
-        <v>43456</v>
-      </c>
-      <c r="C33" s="10"/>
+      <c r="A33" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="3">
+        <v>43426</v>
+      </c>
+      <c r="C33" s="3">
+        <v>43454</v>
+      </c>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
@@ -5675,9 +5744,15 @@
       <c r="EG33" s="12"/>
     </row>
     <row r="34" spans="1:137" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
+      <c r="A34" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="10">
+        <v>43438</v>
+      </c>
+      <c r="C34" s="10">
+        <v>43438</v>
+      </c>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
@@ -5814,9 +5889,15 @@
       <c r="EG34" s="12"/>
     </row>
     <row r="35" spans="1:137" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
+      <c r="A35" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="10">
+        <v>43438</v>
+      </c>
+      <c r="C35" s="10">
+        <v>43438</v>
+      </c>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
@@ -5953,9 +6034,15 @@
       <c r="EG35" s="12"/>
     </row>
     <row r="36" spans="1:137" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
+      <c r="A36" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="10">
+        <v>43439</v>
+      </c>
+      <c r="C36" s="10">
+        <v>43447</v>
+      </c>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
@@ -6092,9 +6179,15 @@
       <c r="EG36" s="12"/>
     </row>
     <row r="37" spans="1:137" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
+      <c r="A37" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="10">
+        <v>43439</v>
+      </c>
+      <c r="C37" s="10">
+        <v>43448</v>
+      </c>
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
@@ -6230,208 +6323,4826 @@
       <c r="EF37" s="12"/>
       <c r="EG37" s="12"/>
     </row>
+    <row r="38" spans="1:137" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="10">
+        <v>43439</v>
+      </c>
+      <c r="C38" s="10">
+        <v>43439</v>
+      </c>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="12"/>
+      <c r="X38" s="12"/>
+      <c r="Y38" s="12"/>
+      <c r="Z38" s="12"/>
+      <c r="AA38" s="12"/>
+      <c r="AB38" s="12"/>
+      <c r="AC38" s="12"/>
+      <c r="AD38" s="12"/>
+      <c r="AE38" s="12"/>
+      <c r="AF38" s="12"/>
+      <c r="AG38" s="12"/>
+      <c r="AH38" s="12"/>
+      <c r="AI38" s="12"/>
+      <c r="AJ38" s="12"/>
+      <c r="AK38" s="12"/>
+      <c r="AL38" s="12"/>
+      <c r="AM38" s="12"/>
+      <c r="AN38" s="12"/>
+      <c r="AO38" s="12"/>
+      <c r="AP38" s="12"/>
+      <c r="AQ38" s="12"/>
+      <c r="AR38" s="12"/>
+      <c r="AS38" s="12"/>
+      <c r="AT38" s="12"/>
+      <c r="AU38" s="12"/>
+      <c r="AV38" s="12"/>
+      <c r="AW38" s="12"/>
+      <c r="AX38" s="12"/>
+      <c r="AY38" s="12"/>
+      <c r="AZ38" s="12"/>
+      <c r="BA38" s="12"/>
+      <c r="BB38" s="12"/>
+      <c r="BC38" s="12"/>
+      <c r="BD38" s="12"/>
+      <c r="BE38" s="12"/>
+      <c r="BF38" s="12"/>
+      <c r="BG38" s="12"/>
+      <c r="BH38" s="12"/>
+      <c r="BI38" s="12"/>
+      <c r="BJ38" s="12"/>
+      <c r="BK38" s="12"/>
+      <c r="BL38" s="12"/>
+      <c r="BM38" s="12"/>
+      <c r="BN38" s="12"/>
+      <c r="BO38" s="12"/>
+      <c r="BP38" s="12"/>
+      <c r="BQ38" s="12"/>
+      <c r="BR38" s="12"/>
+      <c r="BS38" s="12"/>
+      <c r="BT38" s="12"/>
+      <c r="BU38" s="12"/>
+      <c r="BV38" s="12"/>
+      <c r="BW38" s="12"/>
+      <c r="BX38" s="12"/>
+      <c r="BY38" s="12"/>
+      <c r="BZ38" s="12"/>
+      <c r="CA38" s="12"/>
+      <c r="CB38" s="12"/>
+      <c r="CC38" s="12"/>
+      <c r="CD38" s="12"/>
+      <c r="CE38" s="12"/>
+      <c r="CF38" s="12"/>
+      <c r="CG38" s="12"/>
+      <c r="CH38" s="12"/>
+      <c r="CI38" s="12"/>
+      <c r="CJ38" s="12"/>
+      <c r="CK38" s="12"/>
+      <c r="CL38" s="12"/>
+      <c r="CM38" s="12"/>
+      <c r="CN38" s="12"/>
+      <c r="CO38" s="12"/>
+      <c r="CP38" s="12"/>
+      <c r="CQ38" s="12"/>
+      <c r="CR38" s="12"/>
+      <c r="CS38" s="12"/>
+      <c r="CT38" s="12"/>
+      <c r="CU38" s="12"/>
+      <c r="CV38" s="12"/>
+      <c r="CW38" s="12"/>
+      <c r="CX38" s="12"/>
+      <c r="CY38" s="12"/>
+      <c r="CZ38" s="12"/>
+      <c r="DA38" s="12"/>
+      <c r="DB38" s="12"/>
+      <c r="DC38" s="12"/>
+      <c r="DD38" s="12"/>
+      <c r="DE38" s="12"/>
+      <c r="DF38" s="12"/>
+      <c r="DG38" s="12"/>
+      <c r="DH38" s="12"/>
+      <c r="DI38" s="12"/>
+      <c r="DJ38" s="12"/>
+      <c r="DK38" s="12"/>
+      <c r="DL38" s="12"/>
+      <c r="DM38" s="12"/>
+      <c r="DN38" s="12"/>
+      <c r="DO38" s="12"/>
+      <c r="DP38" s="12"/>
+      <c r="DQ38" s="12"/>
+      <c r="DR38" s="12"/>
+      <c r="DS38" s="12"/>
+      <c r="DT38" s="12"/>
+      <c r="DU38" s="12"/>
+      <c r="DV38" s="12"/>
+      <c r="DW38" s="12"/>
+      <c r="DX38" s="12"/>
+      <c r="DY38" s="12"/>
+      <c r="DZ38" s="12"/>
+      <c r="EA38" s="12"/>
+      <c r="EB38" s="12"/>
+      <c r="EC38" s="12"/>
+      <c r="ED38" s="12"/>
+      <c r="EE38" s="12"/>
+      <c r="EF38" s="12"/>
+      <c r="EG38" s="12"/>
+    </row>
+    <row r="39" spans="1:137" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="10">
+        <v>43445</v>
+      </c>
+      <c r="C39" s="10">
+        <v>43445</v>
+      </c>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="12"/>
+      <c r="W39" s="12"/>
+      <c r="X39" s="12"/>
+      <c r="Y39" s="12"/>
+      <c r="Z39" s="12"/>
+      <c r="AA39" s="12"/>
+      <c r="AB39" s="12"/>
+      <c r="AC39" s="12"/>
+      <c r="AD39" s="12"/>
+      <c r="AE39" s="12"/>
+      <c r="AF39" s="12"/>
+      <c r="AG39" s="12"/>
+      <c r="AH39" s="12"/>
+      <c r="AI39" s="12"/>
+      <c r="AJ39" s="12"/>
+      <c r="AK39" s="12"/>
+      <c r="AL39" s="12"/>
+      <c r="AM39" s="12"/>
+      <c r="AN39" s="12"/>
+      <c r="AO39" s="12"/>
+      <c r="AP39" s="12"/>
+      <c r="AQ39" s="12"/>
+      <c r="AR39" s="12"/>
+      <c r="AS39" s="12"/>
+      <c r="AT39" s="12"/>
+      <c r="AU39" s="12"/>
+      <c r="AV39" s="12"/>
+      <c r="AW39" s="12"/>
+      <c r="AX39" s="12"/>
+      <c r="AY39" s="12"/>
+      <c r="AZ39" s="12"/>
+      <c r="BA39" s="12"/>
+      <c r="BB39" s="12"/>
+      <c r="BC39" s="12"/>
+      <c r="BD39" s="12"/>
+      <c r="BE39" s="12"/>
+      <c r="BF39" s="12"/>
+      <c r="BG39" s="12"/>
+      <c r="BH39" s="12"/>
+      <c r="BI39" s="12"/>
+      <c r="BJ39" s="12"/>
+      <c r="BK39" s="12"/>
+      <c r="BL39" s="12"/>
+      <c r="BM39" s="12"/>
+      <c r="BN39" s="12"/>
+      <c r="BO39" s="12"/>
+      <c r="BP39" s="12"/>
+      <c r="BQ39" s="12"/>
+      <c r="BR39" s="12"/>
+      <c r="BS39" s="12"/>
+      <c r="BT39" s="12"/>
+      <c r="BU39" s="12"/>
+      <c r="BV39" s="12"/>
+      <c r="BW39" s="12"/>
+      <c r="BX39" s="12"/>
+      <c r="BY39" s="12"/>
+      <c r="BZ39" s="12"/>
+      <c r="CA39" s="12"/>
+      <c r="CB39" s="12"/>
+      <c r="CC39" s="12"/>
+      <c r="CD39" s="12"/>
+      <c r="CE39" s="12"/>
+      <c r="CF39" s="12"/>
+      <c r="CG39" s="12"/>
+      <c r="CH39" s="12"/>
+      <c r="CI39" s="12"/>
+      <c r="CJ39" s="12"/>
+      <c r="CK39" s="12"/>
+      <c r="CL39" s="12"/>
+      <c r="CM39" s="12"/>
+      <c r="CN39" s="12"/>
+      <c r="CO39" s="12"/>
+      <c r="CP39" s="12"/>
+      <c r="CQ39" s="12"/>
+      <c r="CR39" s="12"/>
+      <c r="CS39" s="12"/>
+      <c r="CT39" s="12"/>
+      <c r="CU39" s="12"/>
+      <c r="CV39" s="12"/>
+      <c r="CW39" s="12"/>
+      <c r="CX39" s="12"/>
+      <c r="CY39" s="12"/>
+      <c r="CZ39" s="12"/>
+      <c r="DA39" s="12"/>
+      <c r="DB39" s="12"/>
+      <c r="DC39" s="12"/>
+      <c r="DD39" s="12"/>
+      <c r="DE39" s="12"/>
+      <c r="DF39" s="12"/>
+      <c r="DG39" s="12"/>
+      <c r="DH39" s="12"/>
+      <c r="DI39" s="12"/>
+      <c r="DJ39" s="12"/>
+      <c r="DK39" s="12"/>
+      <c r="DL39" s="12"/>
+      <c r="DM39" s="12"/>
+      <c r="DN39" s="12"/>
+      <c r="DO39" s="12"/>
+      <c r="DP39" s="12"/>
+      <c r="DQ39" s="12"/>
+      <c r="DR39" s="12"/>
+      <c r="DS39" s="12"/>
+      <c r="DT39" s="12"/>
+      <c r="DU39" s="12"/>
+      <c r="DV39" s="12"/>
+      <c r="DW39" s="12"/>
+      <c r="DX39" s="12"/>
+      <c r="DY39" s="12"/>
+      <c r="DZ39" s="12"/>
+      <c r="EA39" s="12"/>
+      <c r="EB39" s="12"/>
+      <c r="EC39" s="12"/>
+      <c r="ED39" s="12"/>
+      <c r="EE39" s="12"/>
+      <c r="EF39" s="12"/>
+      <c r="EG39" s="12"/>
+    </row>
+    <row r="40" spans="1:137" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="10">
+        <v>43446</v>
+      </c>
+      <c r="C40" s="10">
+        <v>43446</v>
+      </c>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="12"/>
+      <c r="X40" s="12"/>
+      <c r="Y40" s="12"/>
+      <c r="Z40" s="12"/>
+      <c r="AA40" s="12"/>
+      <c r="AB40" s="12"/>
+      <c r="AC40" s="12"/>
+      <c r="AD40" s="12"/>
+      <c r="AE40" s="12"/>
+      <c r="AF40" s="12"/>
+      <c r="AG40" s="12"/>
+      <c r="AH40" s="12"/>
+      <c r="AI40" s="12"/>
+      <c r="AJ40" s="12"/>
+      <c r="AK40" s="12"/>
+      <c r="AL40" s="12"/>
+      <c r="AM40" s="12"/>
+      <c r="AN40" s="12"/>
+      <c r="AO40" s="12"/>
+      <c r="AP40" s="12"/>
+      <c r="AQ40" s="12"/>
+      <c r="AR40" s="12"/>
+      <c r="AS40" s="12"/>
+      <c r="AT40" s="12"/>
+      <c r="AU40" s="12"/>
+      <c r="AV40" s="12"/>
+      <c r="AW40" s="12"/>
+      <c r="AX40" s="12"/>
+      <c r="AY40" s="12"/>
+      <c r="AZ40" s="12"/>
+      <c r="BA40" s="12"/>
+      <c r="BB40" s="12"/>
+      <c r="BC40" s="12"/>
+      <c r="BD40" s="12"/>
+      <c r="BE40" s="12"/>
+      <c r="BF40" s="12"/>
+      <c r="BG40" s="12"/>
+      <c r="BH40" s="12"/>
+      <c r="BI40" s="12"/>
+      <c r="BJ40" s="12"/>
+      <c r="BK40" s="12"/>
+      <c r="BL40" s="12"/>
+      <c r="BM40" s="12"/>
+      <c r="BN40" s="12"/>
+      <c r="BO40" s="12"/>
+      <c r="BP40" s="12"/>
+      <c r="BQ40" s="12"/>
+      <c r="BR40" s="12"/>
+      <c r="BS40" s="12"/>
+      <c r="BT40" s="12"/>
+      <c r="BU40" s="12"/>
+      <c r="BV40" s="12"/>
+      <c r="BW40" s="12"/>
+      <c r="BX40" s="12"/>
+      <c r="BY40" s="12"/>
+      <c r="BZ40" s="12"/>
+      <c r="CA40" s="12"/>
+      <c r="CB40" s="12"/>
+      <c r="CC40" s="12"/>
+      <c r="CD40" s="12"/>
+      <c r="CE40" s="12"/>
+      <c r="CF40" s="12"/>
+      <c r="CG40" s="12"/>
+      <c r="CH40" s="12"/>
+      <c r="CI40" s="12"/>
+      <c r="CJ40" s="12"/>
+      <c r="CK40" s="12"/>
+      <c r="CL40" s="12"/>
+      <c r="CM40" s="12"/>
+      <c r="CN40" s="12"/>
+      <c r="CO40" s="12"/>
+      <c r="CP40" s="12"/>
+      <c r="CQ40" s="12"/>
+      <c r="CR40" s="12"/>
+      <c r="CS40" s="12"/>
+      <c r="CT40" s="12"/>
+      <c r="CU40" s="12"/>
+      <c r="CV40" s="12"/>
+      <c r="CW40" s="12"/>
+      <c r="CX40" s="12"/>
+      <c r="CY40" s="12"/>
+      <c r="CZ40" s="12"/>
+      <c r="DA40" s="12"/>
+      <c r="DB40" s="12"/>
+      <c r="DC40" s="12"/>
+      <c r="DD40" s="12"/>
+      <c r="DE40" s="12"/>
+      <c r="DF40" s="12"/>
+      <c r="DG40" s="12"/>
+      <c r="DH40" s="12"/>
+      <c r="DI40" s="12"/>
+      <c r="DJ40" s="12"/>
+      <c r="DK40" s="12"/>
+      <c r="DL40" s="12"/>
+      <c r="DM40" s="12"/>
+      <c r="DN40" s="12"/>
+      <c r="DO40" s="12"/>
+      <c r="DP40" s="12"/>
+      <c r="DQ40" s="12"/>
+      <c r="DR40" s="12"/>
+      <c r="DS40" s="12"/>
+      <c r="DT40" s="12"/>
+      <c r="DU40" s="12"/>
+      <c r="DV40" s="12"/>
+      <c r="DW40" s="12"/>
+      <c r="DX40" s="12"/>
+      <c r="DY40" s="12"/>
+      <c r="DZ40" s="12"/>
+      <c r="EA40" s="12"/>
+      <c r="EB40" s="12"/>
+      <c r="EC40" s="12"/>
+      <c r="ED40" s="12"/>
+      <c r="EE40" s="12"/>
+      <c r="EF40" s="12"/>
+      <c r="EG40" s="12"/>
+    </row>
+    <row r="41" spans="1:137" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="10">
+        <v>43447</v>
+      </c>
+      <c r="C41" s="10">
+        <v>43453</v>
+      </c>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="12"/>
+      <c r="W41" s="12"/>
+      <c r="X41" s="12"/>
+      <c r="Y41" s="12"/>
+      <c r="Z41" s="12"/>
+      <c r="AA41" s="12"/>
+      <c r="AB41" s="12"/>
+      <c r="AC41" s="12"/>
+      <c r="AD41" s="12"/>
+      <c r="AE41" s="12"/>
+      <c r="AF41" s="12"/>
+      <c r="AG41" s="12"/>
+      <c r="AH41" s="12"/>
+      <c r="AI41" s="12"/>
+      <c r="AJ41" s="12"/>
+      <c r="AK41" s="12"/>
+      <c r="AL41" s="12"/>
+      <c r="AM41" s="12"/>
+      <c r="AN41" s="12"/>
+      <c r="AO41" s="12"/>
+      <c r="AP41" s="12"/>
+      <c r="AQ41" s="12"/>
+      <c r="AR41" s="12"/>
+      <c r="AS41" s="12"/>
+      <c r="AT41" s="12"/>
+      <c r="AU41" s="12"/>
+      <c r="AV41" s="12"/>
+      <c r="AW41" s="12"/>
+      <c r="AX41" s="12"/>
+      <c r="AY41" s="12"/>
+      <c r="AZ41" s="12"/>
+      <c r="BA41" s="12"/>
+      <c r="BB41" s="12"/>
+      <c r="BC41" s="12"/>
+      <c r="BD41" s="12"/>
+      <c r="BE41" s="12"/>
+      <c r="BF41" s="12"/>
+      <c r="BG41" s="12"/>
+      <c r="BH41" s="12"/>
+      <c r="BI41" s="12"/>
+      <c r="BJ41" s="12"/>
+      <c r="BK41" s="12"/>
+      <c r="BL41" s="12"/>
+      <c r="BM41" s="12"/>
+      <c r="BN41" s="12"/>
+      <c r="BO41" s="12"/>
+      <c r="BP41" s="12"/>
+      <c r="BQ41" s="12"/>
+      <c r="BR41" s="12"/>
+      <c r="BS41" s="12"/>
+      <c r="BT41" s="12"/>
+      <c r="BU41" s="12"/>
+      <c r="BV41" s="12"/>
+      <c r="BW41" s="12"/>
+      <c r="BX41" s="12"/>
+      <c r="BY41" s="12"/>
+      <c r="BZ41" s="12"/>
+      <c r="CA41" s="12"/>
+      <c r="CB41" s="12"/>
+      <c r="CC41" s="12"/>
+      <c r="CD41" s="12"/>
+      <c r="CE41" s="12"/>
+      <c r="CF41" s="12"/>
+      <c r="CG41" s="12"/>
+      <c r="CH41" s="12"/>
+      <c r="CI41" s="12"/>
+      <c r="CJ41" s="12"/>
+      <c r="CK41" s="12"/>
+      <c r="CL41" s="12"/>
+      <c r="CP41" s="12"/>
+      <c r="CQ41" s="12"/>
+      <c r="CR41" s="12"/>
+      <c r="CS41" s="12"/>
+      <c r="CT41" s="12"/>
+      <c r="CU41" s="12"/>
+      <c r="CV41" s="12"/>
+      <c r="CW41" s="12"/>
+      <c r="CX41" s="12"/>
+      <c r="CY41" s="12"/>
+      <c r="CZ41" s="12"/>
+      <c r="DA41" s="12"/>
+      <c r="DB41" s="12"/>
+      <c r="DC41" s="12"/>
+      <c r="DD41" s="12"/>
+      <c r="DE41" s="12"/>
+      <c r="DF41" s="12"/>
+      <c r="DG41" s="12"/>
+      <c r="DH41" s="12"/>
+      <c r="DI41" s="12"/>
+      <c r="DJ41" s="12"/>
+      <c r="DK41" s="12"/>
+      <c r="DL41" s="12"/>
+      <c r="DM41" s="12"/>
+      <c r="DN41" s="12"/>
+      <c r="DO41" s="12"/>
+      <c r="DP41" s="12"/>
+      <c r="DQ41" s="12"/>
+      <c r="DR41" s="12"/>
+      <c r="DS41" s="12"/>
+      <c r="DT41" s="12"/>
+      <c r="DU41" s="12"/>
+      <c r="DV41" s="12"/>
+      <c r="DW41" s="12"/>
+      <c r="DX41" s="12"/>
+      <c r="DY41" s="12"/>
+      <c r="DZ41" s="12"/>
+      <c r="EA41" s="12"/>
+      <c r="EB41" s="12"/>
+      <c r="EC41" s="12"/>
+      <c r="ED41" s="12"/>
+      <c r="EE41" s="12"/>
+      <c r="EF41" s="12"/>
+      <c r="EG41" s="12"/>
+    </row>
+    <row r="42" spans="1:137" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="10">
+        <v>43453</v>
+      </c>
+      <c r="C42" s="10">
+        <v>43465</v>
+      </c>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="12"/>
+      <c r="W42" s="12"/>
+      <c r="X42" s="12"/>
+      <c r="Y42" s="12"/>
+      <c r="Z42" s="12"/>
+      <c r="AA42" s="12"/>
+      <c r="AB42" s="12"/>
+      <c r="AC42" s="12"/>
+      <c r="AD42" s="12"/>
+      <c r="AE42" s="12"/>
+      <c r="AF42" s="12"/>
+      <c r="AG42" s="12"/>
+      <c r="AH42" s="12"/>
+      <c r="AI42" s="12"/>
+      <c r="AJ42" s="12"/>
+      <c r="AK42" s="12"/>
+      <c r="AL42" s="12"/>
+      <c r="AM42" s="12"/>
+      <c r="AN42" s="12"/>
+      <c r="AO42" s="12"/>
+      <c r="AP42" s="12"/>
+      <c r="AQ42" s="12"/>
+      <c r="AR42" s="12"/>
+      <c r="AS42" s="12"/>
+      <c r="AT42" s="12"/>
+      <c r="AU42" s="12"/>
+      <c r="AV42" s="12"/>
+      <c r="AW42" s="12"/>
+      <c r="AX42" s="12"/>
+      <c r="AY42" s="12"/>
+      <c r="AZ42" s="12"/>
+      <c r="BA42" s="12"/>
+      <c r="BB42" s="12"/>
+      <c r="BC42" s="12"/>
+      <c r="BD42" s="12"/>
+      <c r="BE42" s="12"/>
+      <c r="BF42" s="12"/>
+      <c r="BG42" s="12"/>
+      <c r="BH42" s="12"/>
+      <c r="BI42" s="12"/>
+      <c r="BJ42" s="12"/>
+      <c r="BK42" s="12"/>
+      <c r="BL42" s="12"/>
+      <c r="BM42" s="12"/>
+      <c r="BN42" s="12"/>
+      <c r="BO42" s="12"/>
+      <c r="BP42" s="12"/>
+      <c r="BQ42" s="12"/>
+      <c r="BR42" s="12"/>
+      <c r="BS42" s="12"/>
+      <c r="BT42" s="12"/>
+      <c r="BU42" s="12"/>
+      <c r="BV42" s="12"/>
+      <c r="BW42" s="12"/>
+      <c r="BX42" s="12"/>
+      <c r="BY42" s="12"/>
+      <c r="BZ42" s="12"/>
+      <c r="CA42" s="12"/>
+      <c r="CB42" s="12"/>
+      <c r="CC42" s="12"/>
+      <c r="CD42" s="12"/>
+      <c r="CE42" s="12"/>
+      <c r="CF42" s="12"/>
+      <c r="CG42" s="12"/>
+      <c r="CH42" s="12"/>
+      <c r="CI42" s="12"/>
+      <c r="CJ42" s="12"/>
+      <c r="CK42" s="12"/>
+      <c r="CL42" s="12"/>
+      <c r="CM42" s="12"/>
+      <c r="CN42" s="12"/>
+      <c r="CO42" s="12"/>
+      <c r="CP42" s="12"/>
+      <c r="CQ42" s="12"/>
+      <c r="CR42" s="12"/>
+      <c r="CS42" s="12"/>
+      <c r="CT42" s="12"/>
+      <c r="CU42" s="12"/>
+      <c r="CV42" s="12"/>
+      <c r="CW42" s="12"/>
+      <c r="CX42" s="12"/>
+      <c r="CY42" s="12"/>
+      <c r="CZ42" s="12"/>
+      <c r="DA42" s="12"/>
+      <c r="DB42" s="12"/>
+      <c r="DC42" s="12"/>
+      <c r="DD42" s="12"/>
+      <c r="DE42" s="12"/>
+      <c r="DF42" s="12"/>
+      <c r="DG42" s="12"/>
+      <c r="DH42" s="12"/>
+      <c r="DI42" s="12"/>
+      <c r="DJ42" s="12"/>
+      <c r="DK42" s="12"/>
+      <c r="DL42" s="12"/>
+      <c r="DM42" s="12"/>
+      <c r="DN42" s="12"/>
+      <c r="DO42" s="12"/>
+      <c r="DP42" s="12"/>
+      <c r="DQ42" s="12"/>
+      <c r="DR42" s="12"/>
+      <c r="DS42" s="12"/>
+      <c r="DT42" s="12"/>
+      <c r="DU42" s="12"/>
+      <c r="DV42" s="12"/>
+      <c r="DW42" s="12"/>
+      <c r="DX42" s="12"/>
+      <c r="DY42" s="12"/>
+      <c r="DZ42" s="12"/>
+      <c r="EA42" s="12"/>
+      <c r="EB42" s="12"/>
+      <c r="EC42" s="12"/>
+      <c r="ED42" s="12"/>
+      <c r="EE42" s="12"/>
+      <c r="EF42" s="12"/>
+      <c r="EG42" s="12"/>
+    </row>
+    <row r="43" spans="1:137" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="10">
+        <v>43454</v>
+      </c>
+      <c r="C43" s="10">
+        <v>43472</v>
+      </c>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
+      <c r="V43" s="12"/>
+      <c r="W43" s="12"/>
+      <c r="X43" s="12"/>
+      <c r="Y43" s="12"/>
+      <c r="Z43" s="12"/>
+      <c r="AA43" s="12"/>
+      <c r="AB43" s="12"/>
+      <c r="AC43" s="12"/>
+      <c r="AD43" s="12"/>
+      <c r="AE43" s="12"/>
+      <c r="AF43" s="12"/>
+      <c r="AG43" s="12"/>
+      <c r="AH43" s="12"/>
+      <c r="AI43" s="12"/>
+      <c r="AJ43" s="12"/>
+      <c r="AK43" s="12"/>
+      <c r="AL43" s="12"/>
+      <c r="AM43" s="12"/>
+      <c r="AN43" s="12"/>
+      <c r="AO43" s="12"/>
+      <c r="AP43" s="12"/>
+      <c r="AQ43" s="12"/>
+      <c r="AR43" s="12"/>
+      <c r="AS43" s="12"/>
+      <c r="AT43" s="12"/>
+      <c r="AU43" s="12"/>
+      <c r="AV43" s="12"/>
+      <c r="AW43" s="12"/>
+      <c r="AX43" s="12"/>
+      <c r="AY43" s="12"/>
+      <c r="AZ43" s="12"/>
+      <c r="BA43" s="12"/>
+      <c r="BB43" s="12"/>
+      <c r="BC43" s="12"/>
+      <c r="BD43" s="12"/>
+      <c r="BE43" s="12"/>
+      <c r="BF43" s="12"/>
+      <c r="BG43" s="12"/>
+      <c r="BH43" s="12"/>
+      <c r="BI43" s="12"/>
+      <c r="BJ43" s="12"/>
+      <c r="BK43" s="12"/>
+      <c r="BL43" s="12"/>
+      <c r="BM43" s="12"/>
+      <c r="BN43" s="12"/>
+      <c r="BO43" s="12"/>
+      <c r="BP43" s="12"/>
+      <c r="BQ43" s="12"/>
+      <c r="BR43" s="12"/>
+      <c r="BS43" s="12"/>
+      <c r="BT43" s="12"/>
+      <c r="BU43" s="12"/>
+      <c r="BV43" s="12"/>
+      <c r="BW43" s="12"/>
+      <c r="BX43" s="12"/>
+      <c r="BY43" s="12"/>
+      <c r="BZ43" s="12"/>
+      <c r="CA43" s="12"/>
+      <c r="CB43" s="12"/>
+      <c r="CC43" s="12"/>
+      <c r="CD43" s="12"/>
+      <c r="CE43" s="12"/>
+      <c r="CF43" s="12"/>
+      <c r="CG43" s="12"/>
+      <c r="CH43" s="12"/>
+      <c r="CI43" s="12"/>
+      <c r="CJ43" s="12"/>
+      <c r="CK43" s="12"/>
+      <c r="CL43" s="12"/>
+      <c r="CM43" s="12"/>
+      <c r="CN43" s="12"/>
+      <c r="CO43" s="12"/>
+      <c r="CP43" s="12"/>
+      <c r="CQ43" s="12"/>
+      <c r="CR43" s="12"/>
+      <c r="CS43" s="12"/>
+      <c r="CT43" s="12"/>
+      <c r="CU43" s="12"/>
+      <c r="CV43" s="12"/>
+      <c r="CW43" s="12"/>
+      <c r="CX43" s="12"/>
+      <c r="CY43" s="12"/>
+      <c r="CZ43" s="12"/>
+      <c r="DA43" s="12"/>
+      <c r="DB43" s="12"/>
+      <c r="DC43" s="12"/>
+      <c r="DD43" s="12"/>
+      <c r="DE43" s="12"/>
+      <c r="DF43" s="12"/>
+      <c r="DG43" s="12"/>
+      <c r="DH43" s="12"/>
+      <c r="DI43" s="12"/>
+      <c r="DJ43" s="12"/>
+      <c r="DK43" s="12"/>
+      <c r="DL43" s="12"/>
+      <c r="DM43" s="12"/>
+      <c r="DN43" s="12"/>
+      <c r="DO43" s="12"/>
+      <c r="DP43" s="12"/>
+      <c r="DQ43" s="12"/>
+      <c r="DR43" s="12"/>
+      <c r="DS43" s="12"/>
+      <c r="DT43" s="12"/>
+      <c r="DU43" s="12"/>
+      <c r="DV43" s="12"/>
+      <c r="DW43" s="12"/>
+      <c r="DX43" s="12"/>
+      <c r="DY43" s="12"/>
+      <c r="DZ43" s="12"/>
+      <c r="EA43" s="12"/>
+      <c r="EB43" s="12"/>
+      <c r="EC43" s="12"/>
+      <c r="ED43" s="12"/>
+      <c r="EE43" s="12"/>
+      <c r="EF43" s="12"/>
+      <c r="EG43" s="12"/>
+    </row>
+    <row r="44" spans="1:137" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" s="10">
+        <v>43429</v>
+      </c>
+      <c r="C44" s="10">
+        <v>43466</v>
+      </c>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="12"/>
+      <c r="V44" s="12"/>
+      <c r="W44" s="12"/>
+      <c r="X44" s="12"/>
+      <c r="Y44" s="12"/>
+      <c r="Z44" s="12"/>
+      <c r="AA44" s="12"/>
+      <c r="AB44" s="12"/>
+      <c r="AC44" s="12"/>
+      <c r="AD44" s="12"/>
+      <c r="AE44" s="12"/>
+      <c r="AF44" s="12"/>
+      <c r="AG44" s="12"/>
+      <c r="AH44" s="12"/>
+      <c r="AI44" s="12"/>
+      <c r="AJ44" s="12"/>
+      <c r="AK44" s="12"/>
+      <c r="AL44" s="12"/>
+      <c r="AM44" s="12"/>
+      <c r="AN44" s="12"/>
+      <c r="AO44" s="12"/>
+      <c r="AP44" s="12"/>
+      <c r="AQ44" s="12"/>
+      <c r="AR44" s="12"/>
+      <c r="AS44" s="12"/>
+      <c r="AT44" s="12"/>
+      <c r="AU44" s="12"/>
+      <c r="AV44" s="12"/>
+      <c r="AW44" s="12"/>
+      <c r="AX44" s="12"/>
+      <c r="AY44" s="12"/>
+      <c r="AZ44" s="12"/>
+      <c r="BA44" s="12"/>
+      <c r="BB44" s="12"/>
+      <c r="BC44" s="12"/>
+      <c r="BD44" s="12"/>
+      <c r="BE44" s="12"/>
+      <c r="BF44" s="12"/>
+      <c r="BG44" s="12"/>
+      <c r="BH44" s="12"/>
+      <c r="BI44" s="12"/>
+      <c r="BJ44" s="12"/>
+      <c r="BK44" s="12"/>
+      <c r="BL44" s="12"/>
+      <c r="BM44" s="12"/>
+      <c r="BN44" s="12"/>
+      <c r="BO44" s="12"/>
+      <c r="BP44" s="12"/>
+      <c r="BQ44" s="12"/>
+      <c r="BR44" s="12"/>
+      <c r="BS44" s="12"/>
+      <c r="BT44" s="12"/>
+      <c r="BU44" s="12"/>
+      <c r="BV44" s="12"/>
+      <c r="BW44" s="12"/>
+      <c r="BX44" s="12"/>
+      <c r="BY44" s="12"/>
+      <c r="BZ44" s="12"/>
+      <c r="CA44" s="12"/>
+      <c r="CB44" s="12"/>
+      <c r="CC44" s="12"/>
+      <c r="CD44" s="12"/>
+      <c r="CE44" s="12"/>
+      <c r="CF44" s="12"/>
+      <c r="CG44" s="12"/>
+      <c r="CH44" s="12"/>
+      <c r="CI44" s="12"/>
+      <c r="CJ44" s="12"/>
+      <c r="CK44" s="12"/>
+      <c r="CL44" s="12"/>
+      <c r="CM44" s="12"/>
+      <c r="CN44" s="12"/>
+      <c r="CO44" s="12"/>
+      <c r="CP44" s="12"/>
+      <c r="CQ44" s="12"/>
+      <c r="CR44" s="12"/>
+      <c r="CS44" s="12"/>
+      <c r="CT44" s="12"/>
+      <c r="CU44" s="12"/>
+      <c r="CV44" s="12"/>
+      <c r="CW44" s="12"/>
+      <c r="CX44" s="12"/>
+      <c r="CY44" s="12"/>
+      <c r="CZ44" s="12"/>
+      <c r="DA44" s="12"/>
+      <c r="DB44" s="12"/>
+      <c r="DC44" s="12"/>
+      <c r="DD44" s="12"/>
+      <c r="DE44" s="12"/>
+      <c r="DF44" s="12"/>
+      <c r="DG44" s="12"/>
+      <c r="DH44" s="12"/>
+      <c r="DI44" s="12"/>
+      <c r="DJ44" s="12"/>
+      <c r="DK44" s="12"/>
+      <c r="DL44" s="12"/>
+      <c r="DM44" s="12"/>
+      <c r="DN44" s="12"/>
+      <c r="DO44" s="12"/>
+      <c r="DP44" s="12"/>
+      <c r="DQ44" s="12"/>
+      <c r="DR44" s="12"/>
+      <c r="DS44" s="12"/>
+      <c r="DT44" s="12"/>
+      <c r="DU44" s="12"/>
+      <c r="DV44" s="12"/>
+      <c r="DW44" s="12"/>
+      <c r="DX44" s="12"/>
+      <c r="DY44" s="12"/>
+      <c r="DZ44" s="12"/>
+      <c r="EA44" s="12"/>
+      <c r="EB44" s="12"/>
+      <c r="EC44" s="12"/>
+      <c r="ED44" s="12"/>
+      <c r="EE44" s="12"/>
+      <c r="EF44" s="12"/>
+      <c r="EG44" s="12"/>
+    </row>
+    <row r="45" spans="1:137" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" s="10">
+        <v>43472</v>
+      </c>
+      <c r="C45" s="10">
+        <v>43478</v>
+      </c>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="12"/>
+      <c r="V45" s="12"/>
+      <c r="W45" s="12"/>
+      <c r="X45" s="12"/>
+      <c r="Y45" s="12"/>
+      <c r="Z45" s="12"/>
+      <c r="AA45" s="12"/>
+      <c r="AB45" s="12"/>
+      <c r="AC45" s="12"/>
+      <c r="AD45" s="12"/>
+      <c r="AE45" s="12"/>
+      <c r="AF45" s="12"/>
+      <c r="AG45" s="12"/>
+      <c r="AH45" s="12"/>
+      <c r="AI45" s="12"/>
+      <c r="AJ45" s="12"/>
+      <c r="AK45" s="12"/>
+      <c r="AL45" s="12"/>
+      <c r="AM45" s="12"/>
+      <c r="AN45" s="12"/>
+      <c r="AO45" s="12"/>
+      <c r="AP45" s="12"/>
+      <c r="AQ45" s="12"/>
+      <c r="AR45" s="12"/>
+      <c r="AS45" s="12"/>
+      <c r="AT45" s="12"/>
+      <c r="AU45" s="12"/>
+      <c r="AV45" s="12"/>
+      <c r="AW45" s="12"/>
+      <c r="AX45" s="12"/>
+      <c r="AY45" s="12"/>
+      <c r="AZ45" s="12"/>
+      <c r="BA45" s="12"/>
+      <c r="BB45" s="12"/>
+      <c r="BC45" s="12"/>
+      <c r="BD45" s="12"/>
+      <c r="BE45" s="12"/>
+      <c r="BF45" s="12"/>
+      <c r="BG45" s="12"/>
+      <c r="BH45" s="12"/>
+      <c r="BI45" s="12"/>
+      <c r="BJ45" s="12"/>
+      <c r="BK45" s="12"/>
+      <c r="BL45" s="12"/>
+      <c r="BM45" s="12"/>
+      <c r="BN45" s="12"/>
+      <c r="BO45" s="12"/>
+      <c r="BP45" s="12"/>
+      <c r="BQ45" s="12"/>
+      <c r="BR45" s="12"/>
+      <c r="BS45" s="12"/>
+      <c r="BT45" s="12"/>
+      <c r="BU45" s="12"/>
+      <c r="BV45" s="12"/>
+      <c r="BW45" s="12"/>
+      <c r="BX45" s="12"/>
+      <c r="BY45" s="12"/>
+      <c r="BZ45" s="12"/>
+      <c r="CA45" s="12"/>
+      <c r="CB45" s="12"/>
+      <c r="CC45" s="12"/>
+      <c r="CD45" s="12"/>
+      <c r="CE45" s="12"/>
+      <c r="CF45" s="12"/>
+      <c r="CG45" s="12"/>
+      <c r="CH45" s="12"/>
+      <c r="CI45" s="12"/>
+      <c r="CJ45" s="12"/>
+      <c r="CK45" s="12"/>
+      <c r="CL45" s="12"/>
+      <c r="CM45" s="12"/>
+      <c r="CN45" s="12"/>
+      <c r="CO45" s="12"/>
+      <c r="CP45" s="12"/>
+      <c r="CQ45" s="12"/>
+      <c r="CR45" s="12"/>
+      <c r="CS45" s="12"/>
+      <c r="CT45" s="12"/>
+      <c r="CU45" s="12"/>
+      <c r="CV45" s="12"/>
+      <c r="CW45" s="12"/>
+      <c r="CX45" s="12"/>
+      <c r="CY45" s="12"/>
+      <c r="CZ45" s="12"/>
+      <c r="DA45" s="12"/>
+      <c r="DB45" s="12"/>
+      <c r="DC45" s="12"/>
+      <c r="DD45" s="12"/>
+      <c r="DE45" s="12"/>
+      <c r="DF45" s="12"/>
+      <c r="DG45" s="12"/>
+      <c r="DH45" s="12"/>
+      <c r="DI45" s="12"/>
+      <c r="DJ45" s="12"/>
+      <c r="DK45" s="12"/>
+      <c r="DL45" s="12"/>
+      <c r="DM45" s="12"/>
+      <c r="DN45" s="12"/>
+      <c r="DO45" s="12"/>
+      <c r="DP45" s="12"/>
+      <c r="DQ45" s="12"/>
+      <c r="DR45" s="12"/>
+      <c r="DS45" s="12"/>
+      <c r="DT45" s="12"/>
+      <c r="DU45" s="12"/>
+      <c r="DV45" s="12"/>
+      <c r="DW45" s="12"/>
+      <c r="DX45" s="12"/>
+      <c r="DY45" s="12"/>
+      <c r="DZ45" s="12"/>
+      <c r="EA45" s="12"/>
+      <c r="EB45" s="12"/>
+      <c r="EC45" s="12"/>
+      <c r="ED45" s="12"/>
+      <c r="EE45" s="12"/>
+      <c r="EF45" s="12"/>
+      <c r="EG45" s="12"/>
+    </row>
+    <row r="46" spans="1:137" x14ac:dyDescent="0.25">
+      <c r="A46" s="9"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="12"/>
+      <c r="S46" s="12"/>
+      <c r="T46" s="12"/>
+      <c r="U46" s="12"/>
+      <c r="V46" s="12"/>
+      <c r="W46" s="12"/>
+      <c r="X46" s="12"/>
+      <c r="Y46" s="12"/>
+      <c r="Z46" s="12"/>
+      <c r="AA46" s="12"/>
+      <c r="AB46" s="12"/>
+      <c r="AC46" s="12"/>
+      <c r="AD46" s="12"/>
+      <c r="AE46" s="12"/>
+      <c r="AF46" s="12"/>
+      <c r="AG46" s="12"/>
+      <c r="AH46" s="12"/>
+      <c r="AI46" s="12"/>
+      <c r="AJ46" s="12"/>
+      <c r="AK46" s="12"/>
+      <c r="AL46" s="12"/>
+      <c r="AM46" s="12"/>
+      <c r="AN46" s="12"/>
+      <c r="AO46" s="12"/>
+      <c r="AP46" s="12"/>
+      <c r="AQ46" s="12"/>
+      <c r="AR46" s="12"/>
+      <c r="AS46" s="12"/>
+      <c r="AT46" s="12"/>
+      <c r="AU46" s="12"/>
+      <c r="AV46" s="12"/>
+      <c r="AW46" s="12"/>
+      <c r="AX46" s="12"/>
+      <c r="AY46" s="12"/>
+      <c r="AZ46" s="12"/>
+      <c r="BA46" s="12"/>
+      <c r="BB46" s="12"/>
+      <c r="BC46" s="12"/>
+      <c r="BD46" s="12"/>
+      <c r="BE46" s="12"/>
+      <c r="BF46" s="12"/>
+      <c r="BG46" s="12"/>
+      <c r="BH46" s="12"/>
+      <c r="BI46" s="12"/>
+      <c r="BJ46" s="12"/>
+      <c r="BK46" s="12"/>
+      <c r="BL46" s="12"/>
+      <c r="BM46" s="12"/>
+      <c r="BN46" s="12"/>
+      <c r="BO46" s="12"/>
+      <c r="BP46" s="12"/>
+      <c r="BQ46" s="12"/>
+      <c r="BR46" s="12"/>
+      <c r="BS46" s="12"/>
+      <c r="BT46" s="12"/>
+      <c r="BU46" s="12"/>
+      <c r="BV46" s="12"/>
+      <c r="BW46" s="12"/>
+      <c r="BX46" s="12"/>
+      <c r="BY46" s="12"/>
+      <c r="BZ46" s="12"/>
+      <c r="CA46" s="12"/>
+      <c r="CB46" s="12"/>
+      <c r="CC46" s="12"/>
+      <c r="CD46" s="12"/>
+      <c r="CE46" s="12"/>
+      <c r="CF46" s="12"/>
+      <c r="CG46" s="12"/>
+      <c r="CH46" s="12"/>
+      <c r="CI46" s="12"/>
+      <c r="CJ46" s="12"/>
+      <c r="CK46" s="12"/>
+      <c r="CL46" s="12"/>
+      <c r="CM46" s="12"/>
+      <c r="CN46" s="12"/>
+      <c r="CO46" s="12"/>
+      <c r="CP46" s="12"/>
+      <c r="CQ46" s="12"/>
+      <c r="CR46" s="12"/>
+      <c r="CS46" s="12"/>
+      <c r="CT46" s="12"/>
+      <c r="CU46" s="12"/>
+      <c r="CV46" s="12"/>
+      <c r="CW46" s="12"/>
+      <c r="CX46" s="12"/>
+      <c r="CY46" s="12"/>
+      <c r="CZ46" s="12"/>
+      <c r="DA46" s="12"/>
+      <c r="DB46" s="12"/>
+      <c r="DC46" s="12"/>
+      <c r="DD46" s="12"/>
+      <c r="DE46" s="12"/>
+      <c r="DF46" s="12"/>
+      <c r="DG46" s="12"/>
+      <c r="DH46" s="12"/>
+      <c r="DI46" s="12"/>
+      <c r="DJ46" s="12"/>
+      <c r="DK46" s="12"/>
+      <c r="DL46" s="12"/>
+      <c r="DM46" s="12"/>
+      <c r="DN46" s="12"/>
+      <c r="DO46" s="12"/>
+      <c r="DP46" s="12"/>
+      <c r="DQ46" s="12"/>
+      <c r="DR46" s="12"/>
+      <c r="DS46" s="12"/>
+      <c r="DT46" s="12"/>
+      <c r="DU46" s="12"/>
+      <c r="DV46" s="12"/>
+      <c r="DW46" s="12"/>
+      <c r="DX46" s="12"/>
+      <c r="DY46" s="12"/>
+      <c r="DZ46" s="12"/>
+      <c r="EA46" s="12"/>
+      <c r="EB46" s="12"/>
+      <c r="EC46" s="12"/>
+      <c r="ED46" s="12"/>
+      <c r="EE46" s="12"/>
+      <c r="EF46" s="12"/>
+      <c r="EG46" s="12"/>
+    </row>
+    <row r="47" spans="1:137" x14ac:dyDescent="0.25">
+      <c r="A47" s="9"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="12"/>
+      <c r="U47" s="12"/>
+      <c r="V47" s="12"/>
+      <c r="W47" s="12"/>
+      <c r="X47" s="12"/>
+      <c r="Y47" s="12"/>
+      <c r="Z47" s="12"/>
+      <c r="AA47" s="12"/>
+      <c r="AB47" s="12"/>
+      <c r="AC47" s="12"/>
+      <c r="AD47" s="12"/>
+      <c r="AE47" s="12"/>
+      <c r="AF47" s="12"/>
+      <c r="AG47" s="12"/>
+      <c r="AH47" s="12"/>
+      <c r="AI47" s="12"/>
+      <c r="AJ47" s="12"/>
+      <c r="AK47" s="12"/>
+      <c r="AL47" s="12"/>
+      <c r="AM47" s="12"/>
+      <c r="AN47" s="12"/>
+      <c r="AO47" s="12"/>
+      <c r="AP47" s="12"/>
+      <c r="AQ47" s="12"/>
+      <c r="AR47" s="12"/>
+      <c r="AS47" s="12"/>
+      <c r="AT47" s="12"/>
+      <c r="AU47" s="12"/>
+      <c r="AV47" s="12"/>
+      <c r="AW47" s="12"/>
+      <c r="AX47" s="12"/>
+      <c r="AY47" s="12"/>
+      <c r="AZ47" s="12"/>
+      <c r="BA47" s="12"/>
+      <c r="BB47" s="12"/>
+      <c r="BC47" s="12"/>
+      <c r="BD47" s="12"/>
+      <c r="BE47" s="12"/>
+      <c r="BF47" s="12"/>
+      <c r="BG47" s="12"/>
+      <c r="BH47" s="12"/>
+      <c r="BI47" s="12"/>
+      <c r="BJ47" s="12"/>
+      <c r="BK47" s="12"/>
+      <c r="BL47" s="12"/>
+      <c r="BM47" s="12"/>
+      <c r="BN47" s="12"/>
+      <c r="BO47" s="12"/>
+      <c r="BP47" s="12"/>
+      <c r="BQ47" s="12"/>
+      <c r="BR47" s="12"/>
+      <c r="BS47" s="12"/>
+      <c r="BT47" s="12"/>
+      <c r="BU47" s="12"/>
+      <c r="BV47" s="12"/>
+      <c r="BW47" s="12"/>
+      <c r="BX47" s="12"/>
+      <c r="BY47" s="12"/>
+      <c r="BZ47" s="12"/>
+      <c r="CA47" s="12"/>
+      <c r="CB47" s="12"/>
+      <c r="CC47" s="12"/>
+      <c r="CD47" s="12"/>
+      <c r="CE47" s="12"/>
+      <c r="CF47" s="12"/>
+      <c r="CG47" s="12"/>
+      <c r="CH47" s="12"/>
+      <c r="CI47" s="12"/>
+      <c r="CJ47" s="12"/>
+      <c r="CK47" s="12"/>
+      <c r="CL47" s="12"/>
+      <c r="CM47" s="12"/>
+      <c r="CN47" s="12"/>
+      <c r="CO47" s="12"/>
+      <c r="CP47" s="12"/>
+      <c r="CQ47" s="12"/>
+      <c r="CR47" s="12"/>
+      <c r="CS47" s="12"/>
+      <c r="CT47" s="12"/>
+      <c r="CU47" s="12"/>
+      <c r="CV47" s="12"/>
+      <c r="CW47" s="12"/>
+      <c r="CX47" s="12"/>
+      <c r="CY47" s="12"/>
+      <c r="CZ47" s="12"/>
+      <c r="DA47" s="12"/>
+      <c r="DB47" s="12"/>
+      <c r="DC47" s="12"/>
+      <c r="DD47" s="12"/>
+      <c r="DE47" s="12"/>
+      <c r="DF47" s="12"/>
+      <c r="DG47" s="12"/>
+      <c r="DH47" s="12"/>
+      <c r="DI47" s="12"/>
+      <c r="DJ47" s="12"/>
+      <c r="DK47" s="12"/>
+      <c r="DL47" s="12"/>
+      <c r="DM47" s="12"/>
+      <c r="DN47" s="12"/>
+      <c r="DO47" s="12"/>
+      <c r="DP47" s="12"/>
+      <c r="DQ47" s="12"/>
+      <c r="DR47" s="12"/>
+      <c r="DS47" s="12"/>
+      <c r="DT47" s="12"/>
+      <c r="DU47" s="12"/>
+      <c r="DV47" s="12"/>
+      <c r="DW47" s="12"/>
+      <c r="DX47" s="12"/>
+      <c r="DY47" s="12"/>
+      <c r="DZ47" s="12"/>
+      <c r="EA47" s="12"/>
+      <c r="EB47" s="12"/>
+      <c r="EC47" s="12"/>
+      <c r="ED47" s="12"/>
+      <c r="EE47" s="12"/>
+      <c r="EF47" s="12"/>
+      <c r="EG47" s="12"/>
+    </row>
+    <row r="48" spans="1:137" x14ac:dyDescent="0.25">
+      <c r="A48" s="9"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="12"/>
+      <c r="P48" s="12"/>
+      <c r="Q48" s="12"/>
+      <c r="R48" s="12"/>
+      <c r="S48" s="12"/>
+      <c r="T48" s="12"/>
+      <c r="U48" s="12"/>
+      <c r="V48" s="12"/>
+      <c r="W48" s="12"/>
+      <c r="X48" s="12"/>
+      <c r="Y48" s="12"/>
+      <c r="Z48" s="12"/>
+      <c r="AA48" s="12"/>
+      <c r="AB48" s="12"/>
+      <c r="AC48" s="12"/>
+      <c r="AD48" s="12"/>
+      <c r="AE48" s="12"/>
+      <c r="AF48" s="12"/>
+      <c r="AG48" s="12"/>
+      <c r="AH48" s="12"/>
+      <c r="AI48" s="12"/>
+      <c r="AJ48" s="12"/>
+      <c r="AK48" s="12"/>
+      <c r="AL48" s="12"/>
+      <c r="AM48" s="12"/>
+      <c r="AN48" s="12"/>
+      <c r="AO48" s="12"/>
+      <c r="AP48" s="12"/>
+      <c r="AQ48" s="12"/>
+      <c r="AR48" s="12"/>
+      <c r="AS48" s="12"/>
+      <c r="AT48" s="12"/>
+      <c r="AU48" s="12"/>
+      <c r="AV48" s="12"/>
+      <c r="AW48" s="12"/>
+      <c r="AX48" s="12"/>
+      <c r="AY48" s="12"/>
+      <c r="AZ48" s="12"/>
+      <c r="BA48" s="12"/>
+      <c r="BB48" s="12"/>
+      <c r="BC48" s="12"/>
+      <c r="BD48" s="12"/>
+      <c r="BE48" s="12"/>
+      <c r="BF48" s="12"/>
+      <c r="BG48" s="12"/>
+      <c r="BH48" s="12"/>
+      <c r="BI48" s="12"/>
+      <c r="BJ48" s="12"/>
+      <c r="BK48" s="12"/>
+      <c r="BL48" s="12"/>
+      <c r="BM48" s="12"/>
+      <c r="BN48" s="12"/>
+      <c r="BO48" s="12"/>
+      <c r="BP48" s="12"/>
+      <c r="BQ48" s="12"/>
+      <c r="BR48" s="12"/>
+      <c r="BS48" s="12"/>
+      <c r="BT48" s="12"/>
+      <c r="BU48" s="12"/>
+      <c r="BV48" s="12"/>
+      <c r="BW48" s="12"/>
+      <c r="BX48" s="12"/>
+      <c r="BY48" s="12"/>
+      <c r="BZ48" s="12"/>
+      <c r="CA48" s="12"/>
+      <c r="CB48" s="12"/>
+      <c r="CC48" s="12"/>
+      <c r="CD48" s="12"/>
+      <c r="CE48" s="12"/>
+      <c r="CF48" s="12"/>
+      <c r="CG48" s="12"/>
+      <c r="CH48" s="12"/>
+      <c r="CI48" s="12"/>
+      <c r="CJ48" s="12"/>
+      <c r="CK48" s="12"/>
+      <c r="CL48" s="12"/>
+      <c r="CM48" s="12"/>
+      <c r="CN48" s="12"/>
+      <c r="CO48" s="12"/>
+      <c r="CP48" s="12"/>
+      <c r="CQ48" s="12"/>
+      <c r="CR48" s="12"/>
+      <c r="CS48" s="12"/>
+      <c r="CT48" s="12"/>
+      <c r="CU48" s="12"/>
+      <c r="CV48" s="12"/>
+      <c r="CW48" s="12"/>
+      <c r="CX48" s="12"/>
+      <c r="CY48" s="12"/>
+      <c r="CZ48" s="12"/>
+      <c r="DA48" s="12"/>
+      <c r="DB48" s="12"/>
+      <c r="DC48" s="12"/>
+      <c r="DD48" s="12"/>
+      <c r="DE48" s="12"/>
+      <c r="DF48" s="12"/>
+      <c r="DG48" s="12"/>
+      <c r="DH48" s="12"/>
+      <c r="DI48" s="12"/>
+      <c r="DJ48" s="12"/>
+      <c r="DK48" s="12"/>
+      <c r="DL48" s="12"/>
+      <c r="DM48" s="12"/>
+      <c r="DN48" s="12"/>
+      <c r="DO48" s="12"/>
+      <c r="DP48" s="12"/>
+      <c r="DQ48" s="12"/>
+      <c r="DR48" s="12"/>
+      <c r="DS48" s="12"/>
+      <c r="DT48" s="12"/>
+      <c r="DU48" s="12"/>
+      <c r="DV48" s="12"/>
+      <c r="DW48" s="12"/>
+      <c r="DX48" s="12"/>
+      <c r="DY48" s="12"/>
+      <c r="DZ48" s="12"/>
+      <c r="EA48" s="12"/>
+      <c r="EB48" s="12"/>
+      <c r="EC48" s="12"/>
+      <c r="ED48" s="12"/>
+      <c r="EE48" s="12"/>
+      <c r="EF48" s="12"/>
+      <c r="EG48" s="12"/>
+    </row>
+    <row r="49" spans="1:137" x14ac:dyDescent="0.25">
+      <c r="A49" s="9"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="12"/>
+      <c r="S49" s="12"/>
+      <c r="T49" s="12"/>
+      <c r="U49" s="12"/>
+      <c r="V49" s="12"/>
+      <c r="W49" s="12"/>
+      <c r="X49" s="12"/>
+      <c r="Y49" s="12"/>
+      <c r="Z49" s="12"/>
+      <c r="AA49" s="12"/>
+      <c r="AB49" s="12"/>
+      <c r="AC49" s="12"/>
+      <c r="AD49" s="12"/>
+      <c r="AE49" s="12"/>
+      <c r="AF49" s="12"/>
+      <c r="AG49" s="12"/>
+      <c r="AH49" s="12"/>
+      <c r="AI49" s="12"/>
+      <c r="AJ49" s="12"/>
+      <c r="AK49" s="12"/>
+      <c r="AL49" s="12"/>
+      <c r="AM49" s="12"/>
+      <c r="AN49" s="12"/>
+      <c r="AO49" s="12"/>
+      <c r="AP49" s="12"/>
+      <c r="AQ49" s="12"/>
+      <c r="AR49" s="12"/>
+      <c r="AS49" s="12"/>
+      <c r="AT49" s="12"/>
+      <c r="AU49" s="12"/>
+      <c r="AV49" s="12"/>
+      <c r="AW49" s="12"/>
+      <c r="AX49" s="12"/>
+      <c r="AY49" s="12"/>
+      <c r="AZ49" s="12"/>
+      <c r="BA49" s="12"/>
+      <c r="BB49" s="12"/>
+      <c r="BC49" s="12"/>
+      <c r="BD49" s="12"/>
+      <c r="BE49" s="12"/>
+      <c r="BF49" s="12"/>
+      <c r="BG49" s="12"/>
+      <c r="BH49" s="12"/>
+      <c r="BI49" s="12"/>
+      <c r="BJ49" s="12"/>
+      <c r="BK49" s="12"/>
+      <c r="BL49" s="12"/>
+      <c r="BM49" s="12"/>
+      <c r="BN49" s="12"/>
+      <c r="BO49" s="12"/>
+      <c r="BP49" s="12"/>
+      <c r="BQ49" s="12"/>
+      <c r="BR49" s="12"/>
+      <c r="BS49" s="12"/>
+      <c r="BT49" s="12"/>
+      <c r="BU49" s="12"/>
+      <c r="BV49" s="12"/>
+      <c r="BW49" s="12"/>
+      <c r="BX49" s="12"/>
+      <c r="BY49" s="12"/>
+      <c r="BZ49" s="12"/>
+      <c r="CA49" s="12"/>
+      <c r="CB49" s="12"/>
+      <c r="CC49" s="12"/>
+      <c r="CD49" s="12"/>
+      <c r="CE49" s="12"/>
+      <c r="CF49" s="12"/>
+      <c r="CG49" s="12"/>
+      <c r="CH49" s="12"/>
+      <c r="CI49" s="12"/>
+      <c r="CJ49" s="12"/>
+      <c r="CK49" s="12"/>
+      <c r="CL49" s="12"/>
+      <c r="CM49" s="12"/>
+      <c r="CN49" s="12"/>
+      <c r="CO49" s="12"/>
+      <c r="CP49" s="12"/>
+      <c r="CQ49" s="12"/>
+      <c r="CR49" s="12"/>
+      <c r="CS49" s="12"/>
+      <c r="CT49" s="12"/>
+      <c r="CU49" s="12"/>
+      <c r="CV49" s="12"/>
+      <c r="CW49" s="12"/>
+      <c r="CX49" s="12"/>
+      <c r="CY49" s="12"/>
+      <c r="CZ49" s="12"/>
+      <c r="DA49" s="12"/>
+      <c r="DB49" s="12"/>
+      <c r="DC49" s="12"/>
+      <c r="DD49" s="12"/>
+      <c r="DE49" s="12"/>
+      <c r="DF49" s="12"/>
+      <c r="DG49" s="12"/>
+      <c r="DH49" s="12"/>
+      <c r="DI49" s="12"/>
+      <c r="DJ49" s="12"/>
+      <c r="DK49" s="12"/>
+      <c r="DL49" s="12"/>
+      <c r="DM49" s="12"/>
+      <c r="DN49" s="12"/>
+      <c r="DO49" s="12"/>
+      <c r="DP49" s="12"/>
+      <c r="DQ49" s="12"/>
+      <c r="DR49" s="12"/>
+      <c r="DS49" s="12"/>
+      <c r="DT49" s="12"/>
+      <c r="DU49" s="12"/>
+      <c r="DV49" s="12"/>
+      <c r="DW49" s="12"/>
+      <c r="DX49" s="12"/>
+      <c r="DY49" s="12"/>
+      <c r="DZ49" s="12"/>
+      <c r="EA49" s="12"/>
+      <c r="EB49" s="12"/>
+      <c r="EC49" s="12"/>
+      <c r="ED49" s="12"/>
+      <c r="EE49" s="12"/>
+      <c r="EF49" s="12"/>
+      <c r="EG49" s="12"/>
+    </row>
+    <row r="50" spans="1:137" x14ac:dyDescent="0.25">
+      <c r="A50" s="9"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="12"/>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="12"/>
+      <c r="S50" s="12"/>
+      <c r="T50" s="12"/>
+      <c r="U50" s="12"/>
+      <c r="V50" s="12"/>
+      <c r="W50" s="12"/>
+      <c r="X50" s="12"/>
+      <c r="Y50" s="12"/>
+      <c r="Z50" s="12"/>
+      <c r="AA50" s="12"/>
+      <c r="AB50" s="12"/>
+      <c r="AC50" s="12"/>
+      <c r="AD50" s="12"/>
+      <c r="AE50" s="12"/>
+      <c r="AF50" s="12"/>
+      <c r="AG50" s="12"/>
+      <c r="AH50" s="12"/>
+      <c r="AI50" s="12"/>
+      <c r="AJ50" s="12"/>
+      <c r="AK50" s="12"/>
+      <c r="AL50" s="12"/>
+      <c r="AM50" s="12"/>
+      <c r="AN50" s="12"/>
+      <c r="AO50" s="12"/>
+      <c r="AP50" s="12"/>
+      <c r="AQ50" s="12"/>
+      <c r="AR50" s="12"/>
+      <c r="AS50" s="12"/>
+      <c r="AT50" s="12"/>
+      <c r="AU50" s="12"/>
+      <c r="AV50" s="12"/>
+      <c r="AW50" s="12"/>
+      <c r="AX50" s="12"/>
+      <c r="AY50" s="12"/>
+      <c r="AZ50" s="12"/>
+      <c r="BA50" s="12"/>
+      <c r="BB50" s="12"/>
+      <c r="BC50" s="12"/>
+      <c r="BD50" s="12"/>
+      <c r="BE50" s="12"/>
+      <c r="BF50" s="12"/>
+      <c r="BG50" s="12"/>
+      <c r="BH50" s="12"/>
+      <c r="BI50" s="12"/>
+      <c r="BJ50" s="12"/>
+      <c r="BK50" s="12"/>
+      <c r="BL50" s="12"/>
+      <c r="BM50" s="12"/>
+      <c r="BN50" s="12"/>
+      <c r="BO50" s="12"/>
+      <c r="BP50" s="12"/>
+      <c r="BQ50" s="12"/>
+      <c r="BR50" s="12"/>
+      <c r="BS50" s="12"/>
+      <c r="BT50" s="12"/>
+      <c r="BU50" s="12"/>
+      <c r="BV50" s="12"/>
+      <c r="BW50" s="12"/>
+      <c r="BX50" s="12"/>
+      <c r="BY50" s="12"/>
+      <c r="BZ50" s="12"/>
+      <c r="CA50" s="12"/>
+      <c r="CB50" s="12"/>
+      <c r="CC50" s="12"/>
+      <c r="CD50" s="12"/>
+      <c r="CE50" s="12"/>
+      <c r="CF50" s="12"/>
+      <c r="CG50" s="12"/>
+      <c r="CH50" s="12"/>
+      <c r="CI50" s="12"/>
+      <c r="CJ50" s="12"/>
+      <c r="CK50" s="12"/>
+      <c r="CL50" s="12"/>
+      <c r="CM50" s="12"/>
+      <c r="CN50" s="12"/>
+      <c r="CO50" s="12"/>
+      <c r="CP50" s="12"/>
+      <c r="CQ50" s="12"/>
+      <c r="CR50" s="12"/>
+      <c r="CS50" s="12"/>
+      <c r="CT50" s="12"/>
+      <c r="CU50" s="12"/>
+      <c r="CV50" s="12"/>
+      <c r="CW50" s="12"/>
+      <c r="CX50" s="12"/>
+      <c r="CY50" s="12"/>
+      <c r="CZ50" s="12"/>
+      <c r="DA50" s="12"/>
+      <c r="DB50" s="12"/>
+      <c r="DC50" s="12"/>
+      <c r="DD50" s="12"/>
+      <c r="DE50" s="12"/>
+      <c r="DF50" s="12"/>
+      <c r="DG50" s="12"/>
+      <c r="DH50" s="12"/>
+      <c r="DI50" s="12"/>
+      <c r="DJ50" s="12"/>
+      <c r="DK50" s="12"/>
+      <c r="DL50" s="12"/>
+      <c r="DM50" s="12"/>
+      <c r="DN50" s="12"/>
+      <c r="DO50" s="12"/>
+      <c r="DP50" s="12"/>
+      <c r="DQ50" s="12"/>
+      <c r="DR50" s="12"/>
+      <c r="DS50" s="12"/>
+      <c r="DT50" s="12"/>
+      <c r="DU50" s="12"/>
+      <c r="DV50" s="12"/>
+      <c r="DW50" s="12"/>
+      <c r="DX50" s="12"/>
+      <c r="DY50" s="12"/>
+      <c r="DZ50" s="12"/>
+      <c r="EA50" s="12"/>
+      <c r="EB50" s="12"/>
+      <c r="EC50" s="12"/>
+      <c r="ED50" s="12"/>
+      <c r="EE50" s="12"/>
+      <c r="EF50" s="12"/>
+      <c r="EG50" s="12"/>
+    </row>
+    <row r="51" spans="1:137" x14ac:dyDescent="0.25">
+      <c r="A51" s="9"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="12"/>
+      <c r="P51" s="12"/>
+      <c r="Q51" s="12"/>
+      <c r="R51" s="12"/>
+      <c r="S51" s="12"/>
+      <c r="T51" s="12"/>
+      <c r="U51" s="12"/>
+      <c r="V51" s="12"/>
+      <c r="W51" s="12"/>
+      <c r="X51" s="12"/>
+      <c r="Y51" s="12"/>
+      <c r="Z51" s="12"/>
+      <c r="AA51" s="12"/>
+      <c r="AB51" s="12"/>
+      <c r="AC51" s="12"/>
+      <c r="AD51" s="12"/>
+      <c r="AE51" s="12"/>
+      <c r="AF51" s="12"/>
+      <c r="AG51" s="12"/>
+      <c r="AH51" s="12"/>
+      <c r="AI51" s="12"/>
+      <c r="AJ51" s="12"/>
+      <c r="AK51" s="12"/>
+      <c r="AL51" s="12"/>
+      <c r="AM51" s="12"/>
+      <c r="AN51" s="12"/>
+      <c r="AO51" s="12"/>
+      <c r="AP51" s="12"/>
+      <c r="AQ51" s="12"/>
+      <c r="AR51" s="12"/>
+      <c r="AS51" s="12"/>
+      <c r="AT51" s="12"/>
+      <c r="AU51" s="12"/>
+      <c r="AV51" s="12"/>
+      <c r="AW51" s="12"/>
+      <c r="AX51" s="12"/>
+      <c r="AY51" s="12"/>
+      <c r="AZ51" s="12"/>
+      <c r="BA51" s="12"/>
+      <c r="BB51" s="12"/>
+      <c r="BC51" s="12"/>
+      <c r="BD51" s="12"/>
+      <c r="BE51" s="12"/>
+      <c r="BF51" s="12"/>
+      <c r="BG51" s="12"/>
+      <c r="BH51" s="12"/>
+      <c r="BI51" s="12"/>
+      <c r="BJ51" s="12"/>
+      <c r="BK51" s="12"/>
+      <c r="BL51" s="12"/>
+      <c r="BM51" s="12"/>
+      <c r="BN51" s="12"/>
+      <c r="BO51" s="12"/>
+      <c r="BP51" s="12"/>
+      <c r="BQ51" s="12"/>
+      <c r="BR51" s="12"/>
+      <c r="BS51" s="12"/>
+      <c r="BT51" s="12"/>
+      <c r="BU51" s="12"/>
+      <c r="BV51" s="12"/>
+      <c r="BW51" s="12"/>
+      <c r="BX51" s="12"/>
+      <c r="BY51" s="12"/>
+      <c r="BZ51" s="12"/>
+      <c r="CA51" s="12"/>
+      <c r="CB51" s="12"/>
+      <c r="CC51" s="12"/>
+      <c r="CD51" s="12"/>
+      <c r="CE51" s="12"/>
+      <c r="CF51" s="12"/>
+      <c r="CG51" s="12"/>
+      <c r="CH51" s="12"/>
+      <c r="CI51" s="12"/>
+      <c r="CJ51" s="12"/>
+      <c r="CK51" s="12"/>
+      <c r="CL51" s="12"/>
+      <c r="CM51" s="12"/>
+      <c r="CN51" s="12"/>
+      <c r="CO51" s="12"/>
+      <c r="CP51" s="12"/>
+      <c r="CQ51" s="12"/>
+      <c r="CR51" s="12"/>
+      <c r="CS51" s="12"/>
+      <c r="CT51" s="12"/>
+      <c r="CU51" s="12"/>
+      <c r="CV51" s="12"/>
+      <c r="CW51" s="12"/>
+      <c r="CX51" s="12"/>
+      <c r="CY51" s="12"/>
+      <c r="CZ51" s="12"/>
+      <c r="DA51" s="12"/>
+      <c r="DB51" s="12"/>
+      <c r="DC51" s="12"/>
+      <c r="DD51" s="12"/>
+      <c r="DE51" s="12"/>
+      <c r="DF51" s="12"/>
+      <c r="DG51" s="12"/>
+      <c r="DH51" s="12"/>
+      <c r="DI51" s="12"/>
+      <c r="DJ51" s="12"/>
+      <c r="DK51" s="12"/>
+      <c r="DL51" s="12"/>
+      <c r="DM51" s="12"/>
+      <c r="DN51" s="12"/>
+      <c r="DO51" s="12"/>
+      <c r="DP51" s="12"/>
+      <c r="DQ51" s="12"/>
+      <c r="DR51" s="12"/>
+      <c r="DS51" s="12"/>
+      <c r="DT51" s="12"/>
+      <c r="DU51" s="12"/>
+      <c r="DV51" s="12"/>
+      <c r="DW51" s="12"/>
+      <c r="DX51" s="12"/>
+      <c r="DY51" s="12"/>
+      <c r="DZ51" s="12"/>
+      <c r="EA51" s="12"/>
+      <c r="EB51" s="12"/>
+      <c r="EC51" s="12"/>
+      <c r="ED51" s="12"/>
+      <c r="EE51" s="12"/>
+      <c r="EF51" s="12"/>
+      <c r="EG51" s="12"/>
+    </row>
+    <row r="52" spans="1:137" x14ac:dyDescent="0.25">
+      <c r="A52" s="9"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="12"/>
+      <c r="P52" s="12"/>
+      <c r="Q52" s="12"/>
+      <c r="R52" s="12"/>
+      <c r="S52" s="12"/>
+      <c r="T52" s="12"/>
+      <c r="U52" s="12"/>
+      <c r="V52" s="12"/>
+      <c r="W52" s="12"/>
+      <c r="X52" s="12"/>
+      <c r="Y52" s="12"/>
+      <c r="Z52" s="12"/>
+      <c r="AA52" s="12"/>
+      <c r="AB52" s="12"/>
+      <c r="AC52" s="12"/>
+      <c r="AD52" s="12"/>
+      <c r="AE52" s="12"/>
+      <c r="AF52" s="12"/>
+      <c r="AG52" s="12"/>
+      <c r="AH52" s="12"/>
+      <c r="AI52" s="12"/>
+      <c r="AJ52" s="12"/>
+      <c r="AK52" s="12"/>
+      <c r="AL52" s="12"/>
+      <c r="AM52" s="12"/>
+      <c r="AN52" s="12"/>
+      <c r="AO52" s="12"/>
+      <c r="AP52" s="12"/>
+      <c r="AQ52" s="12"/>
+      <c r="AR52" s="12"/>
+      <c r="AS52" s="12"/>
+      <c r="AT52" s="12"/>
+      <c r="AU52" s="12"/>
+      <c r="AV52" s="12"/>
+      <c r="AW52" s="12"/>
+      <c r="AX52" s="12"/>
+      <c r="AY52" s="12"/>
+      <c r="AZ52" s="12"/>
+      <c r="BA52" s="12"/>
+      <c r="BB52" s="12"/>
+      <c r="BC52" s="12"/>
+      <c r="BD52" s="12"/>
+      <c r="BE52" s="12"/>
+      <c r="BF52" s="12"/>
+      <c r="BG52" s="12"/>
+      <c r="BH52" s="12"/>
+      <c r="BI52" s="12"/>
+      <c r="BJ52" s="12"/>
+      <c r="BK52" s="12"/>
+      <c r="BL52" s="12"/>
+      <c r="BM52" s="12"/>
+      <c r="BN52" s="12"/>
+      <c r="BO52" s="12"/>
+      <c r="BP52" s="12"/>
+      <c r="BQ52" s="12"/>
+      <c r="BR52" s="12"/>
+      <c r="BS52" s="12"/>
+      <c r="BT52" s="12"/>
+      <c r="BU52" s="12"/>
+      <c r="BV52" s="12"/>
+      <c r="BW52" s="12"/>
+      <c r="BX52" s="12"/>
+      <c r="BY52" s="12"/>
+      <c r="BZ52" s="12"/>
+      <c r="CA52" s="12"/>
+      <c r="CB52" s="12"/>
+      <c r="CC52" s="12"/>
+      <c r="CD52" s="12"/>
+      <c r="CE52" s="12"/>
+      <c r="CF52" s="12"/>
+      <c r="CG52" s="12"/>
+      <c r="CH52" s="12"/>
+      <c r="CI52" s="12"/>
+      <c r="CJ52" s="12"/>
+      <c r="CK52" s="12"/>
+      <c r="CL52" s="12"/>
+      <c r="CM52" s="12"/>
+      <c r="CN52" s="12"/>
+      <c r="CO52" s="12"/>
+      <c r="CP52" s="12"/>
+      <c r="CQ52" s="12"/>
+      <c r="CR52" s="12"/>
+      <c r="CS52" s="12"/>
+      <c r="CT52" s="12"/>
+      <c r="CU52" s="12"/>
+      <c r="CV52" s="12"/>
+      <c r="CW52" s="12"/>
+      <c r="CX52" s="12"/>
+      <c r="CY52" s="12"/>
+      <c r="CZ52" s="12"/>
+      <c r="DA52" s="12"/>
+      <c r="DB52" s="12"/>
+      <c r="DC52" s="12"/>
+      <c r="DD52" s="12"/>
+      <c r="DE52" s="12"/>
+      <c r="DF52" s="12"/>
+      <c r="DG52" s="12"/>
+      <c r="DH52" s="12"/>
+      <c r="DI52" s="12"/>
+      <c r="DJ52" s="12"/>
+      <c r="DK52" s="12"/>
+      <c r="DL52" s="12"/>
+      <c r="DM52" s="12"/>
+      <c r="DN52" s="12"/>
+      <c r="DO52" s="12"/>
+      <c r="DP52" s="12"/>
+      <c r="DQ52" s="12"/>
+      <c r="DR52" s="12"/>
+      <c r="DS52" s="12"/>
+      <c r="DT52" s="12"/>
+      <c r="DU52" s="12"/>
+      <c r="DV52" s="12"/>
+      <c r="DW52" s="12"/>
+      <c r="DX52" s="12"/>
+      <c r="DY52" s="12"/>
+      <c r="DZ52" s="12"/>
+      <c r="EA52" s="12"/>
+      <c r="EB52" s="12"/>
+      <c r="EC52" s="12"/>
+      <c r="ED52" s="12"/>
+      <c r="EE52" s="12"/>
+      <c r="EF52" s="12"/>
+      <c r="EG52" s="12"/>
+    </row>
+    <row r="53" spans="1:137" x14ac:dyDescent="0.25">
+      <c r="A53" s="9"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="12"/>
+      <c r="P53" s="12"/>
+      <c r="Q53" s="12"/>
+      <c r="R53" s="12"/>
+      <c r="S53" s="12"/>
+      <c r="T53" s="12"/>
+      <c r="U53" s="12"/>
+      <c r="V53" s="12"/>
+      <c r="W53" s="12"/>
+      <c r="X53" s="12"/>
+      <c r="Y53" s="12"/>
+      <c r="Z53" s="12"/>
+      <c r="AA53" s="12"/>
+      <c r="AB53" s="12"/>
+      <c r="AC53" s="12"/>
+      <c r="AD53" s="12"/>
+      <c r="AE53" s="12"/>
+      <c r="AF53" s="12"/>
+      <c r="AG53" s="12"/>
+      <c r="AH53" s="12"/>
+      <c r="AI53" s="12"/>
+      <c r="AJ53" s="12"/>
+      <c r="AK53" s="12"/>
+      <c r="AL53" s="12"/>
+      <c r="AM53" s="12"/>
+      <c r="AN53" s="12"/>
+      <c r="AO53" s="12"/>
+      <c r="AP53" s="12"/>
+      <c r="AQ53" s="12"/>
+      <c r="AR53" s="12"/>
+      <c r="AS53" s="12"/>
+      <c r="AT53" s="12"/>
+      <c r="AU53" s="12"/>
+      <c r="AV53" s="12"/>
+      <c r="AW53" s="12"/>
+      <c r="AX53" s="12"/>
+      <c r="AY53" s="12"/>
+      <c r="AZ53" s="12"/>
+      <c r="BA53" s="12"/>
+      <c r="BB53" s="12"/>
+      <c r="BC53" s="12"/>
+      <c r="BD53" s="12"/>
+      <c r="BE53" s="12"/>
+      <c r="BF53" s="12"/>
+      <c r="BG53" s="12"/>
+      <c r="BH53" s="12"/>
+      <c r="BI53" s="12"/>
+      <c r="BJ53" s="12"/>
+      <c r="BK53" s="12"/>
+      <c r="BL53" s="12"/>
+      <c r="BM53" s="12"/>
+      <c r="BN53" s="12"/>
+      <c r="BO53" s="12"/>
+      <c r="BP53" s="12"/>
+      <c r="BQ53" s="12"/>
+      <c r="BR53" s="12"/>
+      <c r="BS53" s="12"/>
+      <c r="BT53" s="12"/>
+      <c r="BU53" s="12"/>
+      <c r="BV53" s="12"/>
+      <c r="BW53" s="12"/>
+      <c r="BX53" s="12"/>
+      <c r="BY53" s="12"/>
+      <c r="BZ53" s="12"/>
+      <c r="CA53" s="12"/>
+      <c r="CB53" s="12"/>
+      <c r="CC53" s="12"/>
+      <c r="CD53" s="12"/>
+      <c r="CE53" s="12"/>
+      <c r="CF53" s="12"/>
+      <c r="CG53" s="12"/>
+      <c r="CH53" s="12"/>
+      <c r="CI53" s="12"/>
+      <c r="CJ53" s="12"/>
+      <c r="CK53" s="12"/>
+      <c r="CL53" s="12"/>
+      <c r="CM53" s="12"/>
+      <c r="CN53" s="12"/>
+      <c r="CO53" s="12"/>
+      <c r="CP53" s="12"/>
+      <c r="CQ53" s="12"/>
+      <c r="CR53" s="12"/>
+      <c r="CS53" s="12"/>
+      <c r="CT53" s="12"/>
+      <c r="CU53" s="12"/>
+      <c r="CV53" s="12"/>
+      <c r="CW53" s="12"/>
+      <c r="CX53" s="12"/>
+      <c r="CY53" s="12"/>
+      <c r="CZ53" s="12"/>
+      <c r="DA53" s="12"/>
+      <c r="DB53" s="12"/>
+      <c r="DC53" s="12"/>
+      <c r="DD53" s="12"/>
+      <c r="DE53" s="12"/>
+      <c r="DF53" s="12"/>
+      <c r="DG53" s="12"/>
+      <c r="DH53" s="12"/>
+      <c r="DI53" s="12"/>
+      <c r="DJ53" s="12"/>
+      <c r="DK53" s="12"/>
+      <c r="DL53" s="12"/>
+      <c r="DM53" s="12"/>
+      <c r="DN53" s="12"/>
+      <c r="DO53" s="12"/>
+      <c r="DP53" s="12"/>
+      <c r="DQ53" s="12"/>
+      <c r="DR53" s="12"/>
+      <c r="DS53" s="12"/>
+      <c r="DT53" s="12"/>
+      <c r="DU53" s="12"/>
+      <c r="DV53" s="12"/>
+      <c r="DW53" s="12"/>
+      <c r="DX53" s="12"/>
+      <c r="DY53" s="12"/>
+      <c r="DZ53" s="12"/>
+      <c r="EA53" s="12"/>
+      <c r="EB53" s="12"/>
+      <c r="EC53" s="12"/>
+      <c r="ED53" s="12"/>
+      <c r="EE53" s="12"/>
+      <c r="EF53" s="12"/>
+      <c r="EG53" s="12"/>
+    </row>
+    <row r="54" spans="1:137" x14ac:dyDescent="0.25">
+      <c r="A54" s="9"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="12"/>
+      <c r="R54" s="12"/>
+      <c r="S54" s="12"/>
+      <c r="T54" s="12"/>
+      <c r="U54" s="12"/>
+      <c r="V54" s="12"/>
+      <c r="W54" s="12"/>
+      <c r="X54" s="12"/>
+      <c r="Y54" s="12"/>
+      <c r="Z54" s="12"/>
+      <c r="AA54" s="12"/>
+      <c r="AB54" s="12"/>
+      <c r="AC54" s="12"/>
+      <c r="AD54" s="12"/>
+      <c r="AE54" s="12"/>
+      <c r="AF54" s="12"/>
+      <c r="AG54" s="12"/>
+      <c r="AH54" s="12"/>
+      <c r="AI54" s="12"/>
+      <c r="AJ54" s="12"/>
+      <c r="AK54" s="12"/>
+      <c r="AL54" s="12"/>
+      <c r="AM54" s="12"/>
+      <c r="AN54" s="12"/>
+      <c r="AO54" s="12"/>
+      <c r="AP54" s="12"/>
+      <c r="AQ54" s="12"/>
+      <c r="AR54" s="12"/>
+      <c r="AS54" s="12"/>
+      <c r="AT54" s="12"/>
+      <c r="AU54" s="12"/>
+      <c r="AV54" s="12"/>
+      <c r="AW54" s="12"/>
+      <c r="AX54" s="12"/>
+      <c r="AY54" s="12"/>
+      <c r="AZ54" s="12"/>
+      <c r="BA54" s="12"/>
+      <c r="BB54" s="12"/>
+      <c r="BC54" s="12"/>
+      <c r="BD54" s="12"/>
+      <c r="BE54" s="12"/>
+      <c r="BF54" s="12"/>
+      <c r="BG54" s="12"/>
+      <c r="BH54" s="12"/>
+      <c r="BI54" s="12"/>
+      <c r="BJ54" s="12"/>
+      <c r="BK54" s="12"/>
+      <c r="BL54" s="12"/>
+      <c r="BM54" s="12"/>
+      <c r="BN54" s="12"/>
+      <c r="BO54" s="12"/>
+      <c r="BP54" s="12"/>
+      <c r="BQ54" s="12"/>
+      <c r="BR54" s="12"/>
+      <c r="BS54" s="12"/>
+      <c r="BT54" s="12"/>
+      <c r="BU54" s="12"/>
+      <c r="BV54" s="12"/>
+      <c r="BW54" s="12"/>
+      <c r="BX54" s="12"/>
+      <c r="BY54" s="12"/>
+      <c r="BZ54" s="12"/>
+      <c r="CA54" s="12"/>
+      <c r="CB54" s="12"/>
+      <c r="CC54" s="12"/>
+      <c r="CD54" s="12"/>
+      <c r="CE54" s="12"/>
+      <c r="CF54" s="12"/>
+      <c r="CG54" s="12"/>
+      <c r="CH54" s="12"/>
+      <c r="CI54" s="12"/>
+      <c r="CJ54" s="12"/>
+      <c r="CK54" s="12"/>
+      <c r="CL54" s="12"/>
+      <c r="CM54" s="12"/>
+      <c r="CN54" s="12"/>
+      <c r="CO54" s="12"/>
+      <c r="CP54" s="12"/>
+      <c r="CQ54" s="12"/>
+      <c r="CR54" s="12"/>
+      <c r="CS54" s="12"/>
+      <c r="CT54" s="12"/>
+      <c r="CU54" s="12"/>
+      <c r="CV54" s="12"/>
+      <c r="CW54" s="12"/>
+      <c r="CX54" s="12"/>
+      <c r="CY54" s="12"/>
+      <c r="CZ54" s="12"/>
+      <c r="DA54" s="12"/>
+      <c r="DB54" s="12"/>
+      <c r="DC54" s="12"/>
+      <c r="DD54" s="12"/>
+      <c r="DE54" s="12"/>
+      <c r="DF54" s="12"/>
+      <c r="DG54" s="12"/>
+      <c r="DH54" s="12"/>
+      <c r="DI54" s="12"/>
+      <c r="DJ54" s="12"/>
+      <c r="DK54" s="12"/>
+      <c r="DL54" s="12"/>
+      <c r="DM54" s="12"/>
+      <c r="DN54" s="12"/>
+      <c r="DO54" s="12"/>
+      <c r="DP54" s="12"/>
+      <c r="DQ54" s="12"/>
+      <c r="DR54" s="12"/>
+      <c r="DS54" s="12"/>
+      <c r="DT54" s="12"/>
+      <c r="DU54" s="12"/>
+      <c r="DV54" s="12"/>
+      <c r="DW54" s="12"/>
+      <c r="DX54" s="12"/>
+      <c r="DY54" s="12"/>
+      <c r="DZ54" s="12"/>
+      <c r="EA54" s="12"/>
+      <c r="EB54" s="12"/>
+      <c r="EC54" s="12"/>
+      <c r="ED54" s="12"/>
+      <c r="EE54" s="12"/>
+      <c r="EF54" s="12"/>
+      <c r="EG54" s="12"/>
+    </row>
+    <row r="55" spans="1:137" x14ac:dyDescent="0.25">
+      <c r="A55" s="9"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="12"/>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="12"/>
+      <c r="R55" s="12"/>
+      <c r="S55" s="12"/>
+      <c r="T55" s="12"/>
+      <c r="U55" s="12"/>
+      <c r="V55" s="12"/>
+      <c r="W55" s="12"/>
+      <c r="X55" s="12"/>
+      <c r="Y55" s="12"/>
+      <c r="Z55" s="12"/>
+      <c r="AA55" s="12"/>
+      <c r="AB55" s="12"/>
+      <c r="AC55" s="12"/>
+      <c r="AD55" s="12"/>
+      <c r="AE55" s="12"/>
+      <c r="AF55" s="12"/>
+      <c r="AG55" s="12"/>
+      <c r="AH55" s="12"/>
+      <c r="AI55" s="12"/>
+      <c r="AJ55" s="12"/>
+      <c r="AK55" s="12"/>
+      <c r="AL55" s="12"/>
+      <c r="AM55" s="12"/>
+      <c r="AN55" s="12"/>
+      <c r="AO55" s="12"/>
+      <c r="AP55" s="12"/>
+      <c r="AQ55" s="12"/>
+      <c r="AR55" s="12"/>
+      <c r="AS55" s="12"/>
+      <c r="AT55" s="12"/>
+      <c r="AU55" s="12"/>
+      <c r="AV55" s="12"/>
+      <c r="AW55" s="12"/>
+      <c r="AX55" s="12"/>
+      <c r="AY55" s="12"/>
+      <c r="AZ55" s="12"/>
+      <c r="BA55" s="12"/>
+      <c r="BB55" s="12"/>
+      <c r="BC55" s="12"/>
+      <c r="BD55" s="12"/>
+      <c r="BE55" s="12"/>
+      <c r="BF55" s="12"/>
+      <c r="BG55" s="12"/>
+      <c r="BH55" s="12"/>
+      <c r="BI55" s="12"/>
+      <c r="BJ55" s="12"/>
+      <c r="BK55" s="12"/>
+      <c r="BL55" s="12"/>
+      <c r="BM55" s="12"/>
+      <c r="BN55" s="12"/>
+      <c r="BO55" s="12"/>
+      <c r="BP55" s="12"/>
+      <c r="BQ55" s="12"/>
+      <c r="BR55" s="12"/>
+      <c r="BS55" s="12"/>
+      <c r="BT55" s="12"/>
+      <c r="BU55" s="12"/>
+      <c r="BV55" s="12"/>
+      <c r="BW55" s="12"/>
+      <c r="BX55" s="12"/>
+      <c r="BY55" s="12"/>
+      <c r="BZ55" s="12"/>
+      <c r="CA55" s="12"/>
+      <c r="CB55" s="12"/>
+      <c r="CC55" s="12"/>
+      <c r="CD55" s="12"/>
+      <c r="CE55" s="12"/>
+      <c r="CF55" s="12"/>
+      <c r="CG55" s="12"/>
+      <c r="CH55" s="12"/>
+      <c r="CI55" s="12"/>
+      <c r="CJ55" s="12"/>
+      <c r="CK55" s="12"/>
+      <c r="CL55" s="12"/>
+      <c r="CM55" s="12"/>
+      <c r="CN55" s="12"/>
+      <c r="CO55" s="12"/>
+      <c r="CP55" s="12"/>
+      <c r="CQ55" s="12"/>
+      <c r="CR55" s="12"/>
+      <c r="CS55" s="12"/>
+      <c r="CT55" s="12"/>
+      <c r="CU55" s="12"/>
+      <c r="CV55" s="12"/>
+      <c r="CW55" s="12"/>
+      <c r="CX55" s="12"/>
+      <c r="CY55" s="12"/>
+      <c r="CZ55" s="12"/>
+      <c r="DA55" s="12"/>
+      <c r="DB55" s="12"/>
+      <c r="DC55" s="12"/>
+      <c r="DD55" s="12"/>
+      <c r="DE55" s="12"/>
+      <c r="DF55" s="12"/>
+      <c r="DG55" s="12"/>
+      <c r="DH55" s="12"/>
+      <c r="DI55" s="12"/>
+      <c r="DJ55" s="12"/>
+      <c r="DK55" s="12"/>
+      <c r="DL55" s="12"/>
+      <c r="DM55" s="12"/>
+      <c r="DN55" s="12"/>
+      <c r="DO55" s="12"/>
+      <c r="DP55" s="12"/>
+      <c r="DQ55" s="12"/>
+      <c r="DR55" s="12"/>
+      <c r="DS55" s="12"/>
+      <c r="DT55" s="12"/>
+      <c r="DU55" s="12"/>
+      <c r="DV55" s="12"/>
+      <c r="DW55" s="12"/>
+      <c r="DX55" s="12"/>
+      <c r="DY55" s="12"/>
+      <c r="DZ55" s="12"/>
+      <c r="EA55" s="12"/>
+      <c r="EB55" s="12"/>
+      <c r="EC55" s="12"/>
+      <c r="ED55" s="12"/>
+      <c r="EE55" s="12"/>
+      <c r="EF55" s="12"/>
+      <c r="EG55" s="12"/>
+    </row>
+    <row r="56" spans="1:137" x14ac:dyDescent="0.25">
+      <c r="A56" s="9"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="12"/>
+      <c r="O56" s="12"/>
+      <c r="P56" s="12"/>
+      <c r="Q56" s="12"/>
+      <c r="R56" s="12"/>
+      <c r="S56" s="12"/>
+      <c r="T56" s="12"/>
+      <c r="U56" s="12"/>
+      <c r="V56" s="12"/>
+      <c r="W56" s="12"/>
+      <c r="X56" s="12"/>
+      <c r="Y56" s="12"/>
+      <c r="Z56" s="12"/>
+      <c r="AA56" s="12"/>
+      <c r="AB56" s="12"/>
+      <c r="AC56" s="12"/>
+      <c r="AD56" s="12"/>
+      <c r="AE56" s="12"/>
+      <c r="AF56" s="12"/>
+      <c r="AG56" s="12"/>
+      <c r="AH56" s="12"/>
+      <c r="AI56" s="12"/>
+      <c r="AJ56" s="12"/>
+      <c r="AK56" s="12"/>
+      <c r="AL56" s="12"/>
+      <c r="AM56" s="12"/>
+      <c r="AN56" s="12"/>
+      <c r="AO56" s="12"/>
+      <c r="AP56" s="12"/>
+      <c r="AQ56" s="12"/>
+      <c r="AR56" s="12"/>
+      <c r="AS56" s="12"/>
+      <c r="AT56" s="12"/>
+      <c r="AU56" s="12"/>
+      <c r="AV56" s="12"/>
+      <c r="AW56" s="12"/>
+      <c r="AX56" s="12"/>
+      <c r="AY56" s="12"/>
+      <c r="AZ56" s="12"/>
+      <c r="BA56" s="12"/>
+      <c r="BB56" s="12"/>
+      <c r="BC56" s="12"/>
+      <c r="BD56" s="12"/>
+      <c r="BE56" s="12"/>
+      <c r="BF56" s="12"/>
+      <c r="BG56" s="12"/>
+      <c r="BH56" s="12"/>
+      <c r="BI56" s="12"/>
+      <c r="BJ56" s="12"/>
+      <c r="BK56" s="12"/>
+      <c r="BL56" s="12"/>
+      <c r="BM56" s="12"/>
+      <c r="BN56" s="12"/>
+      <c r="BO56" s="12"/>
+      <c r="BP56" s="12"/>
+      <c r="BQ56" s="12"/>
+      <c r="BR56" s="12"/>
+      <c r="BS56" s="12"/>
+      <c r="BT56" s="12"/>
+      <c r="BU56" s="12"/>
+      <c r="BV56" s="12"/>
+      <c r="BW56" s="12"/>
+      <c r="BX56" s="12"/>
+      <c r="BY56" s="12"/>
+      <c r="BZ56" s="12"/>
+      <c r="CA56" s="12"/>
+      <c r="CB56" s="12"/>
+      <c r="CC56" s="12"/>
+      <c r="CD56" s="12"/>
+      <c r="CE56" s="12"/>
+      <c r="CF56" s="12"/>
+      <c r="CG56" s="12"/>
+      <c r="CH56" s="12"/>
+      <c r="CI56" s="12"/>
+      <c r="CJ56" s="12"/>
+      <c r="CK56" s="12"/>
+      <c r="CL56" s="12"/>
+      <c r="CM56" s="12"/>
+      <c r="CN56" s="12"/>
+      <c r="CO56" s="12"/>
+      <c r="CP56" s="12"/>
+      <c r="CQ56" s="12"/>
+      <c r="CR56" s="12"/>
+      <c r="CS56" s="12"/>
+      <c r="CT56" s="12"/>
+      <c r="CU56" s="12"/>
+      <c r="CV56" s="12"/>
+      <c r="CW56" s="12"/>
+      <c r="CX56" s="12"/>
+      <c r="CY56" s="12"/>
+      <c r="CZ56" s="12"/>
+      <c r="DA56" s="12"/>
+      <c r="DB56" s="12"/>
+      <c r="DC56" s="12"/>
+      <c r="DD56" s="12"/>
+      <c r="DE56" s="12"/>
+      <c r="DF56" s="12"/>
+      <c r="DG56" s="12"/>
+      <c r="DH56" s="12"/>
+      <c r="DI56" s="12"/>
+      <c r="DJ56" s="12"/>
+      <c r="DK56" s="12"/>
+      <c r="DL56" s="12"/>
+      <c r="DM56" s="12"/>
+      <c r="DN56" s="12"/>
+      <c r="DO56" s="12"/>
+      <c r="DP56" s="12"/>
+      <c r="DQ56" s="12"/>
+      <c r="DR56" s="12"/>
+      <c r="DS56" s="12"/>
+      <c r="DT56" s="12"/>
+      <c r="DU56" s="12"/>
+      <c r="DV56" s="12"/>
+      <c r="DW56" s="12"/>
+      <c r="DX56" s="12"/>
+      <c r="DY56" s="12"/>
+      <c r="DZ56" s="12"/>
+      <c r="EA56" s="12"/>
+      <c r="EB56" s="12"/>
+      <c r="EC56" s="12"/>
+      <c r="ED56" s="12"/>
+      <c r="EE56" s="12"/>
+      <c r="EF56" s="12"/>
+      <c r="EG56" s="12"/>
+    </row>
+    <row r="57" spans="1:137" x14ac:dyDescent="0.25">
+      <c r="A57" s="9"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="12"/>
+      <c r="O57" s="12"/>
+      <c r="P57" s="12"/>
+      <c r="Q57" s="12"/>
+      <c r="R57" s="12"/>
+      <c r="S57" s="12"/>
+      <c r="T57" s="12"/>
+      <c r="U57" s="12"/>
+      <c r="V57" s="12"/>
+      <c r="W57" s="12"/>
+      <c r="X57" s="12"/>
+      <c r="Y57" s="12"/>
+      <c r="Z57" s="12"/>
+      <c r="AA57" s="12"/>
+      <c r="AB57" s="12"/>
+      <c r="AC57" s="12"/>
+      <c r="AD57" s="12"/>
+      <c r="AE57" s="12"/>
+      <c r="AF57" s="12"/>
+      <c r="AG57" s="12"/>
+      <c r="AH57" s="12"/>
+      <c r="AI57" s="12"/>
+      <c r="AJ57" s="12"/>
+      <c r="AK57" s="12"/>
+      <c r="AL57" s="12"/>
+      <c r="AM57" s="12"/>
+      <c r="AN57" s="12"/>
+      <c r="AO57" s="12"/>
+      <c r="AP57" s="12"/>
+      <c r="AQ57" s="12"/>
+      <c r="AR57" s="12"/>
+      <c r="AS57" s="12"/>
+      <c r="AT57" s="12"/>
+      <c r="AU57" s="12"/>
+      <c r="AV57" s="12"/>
+      <c r="AW57" s="12"/>
+      <c r="AX57" s="12"/>
+      <c r="AY57" s="12"/>
+      <c r="AZ57" s="12"/>
+      <c r="BA57" s="12"/>
+      <c r="BB57" s="12"/>
+      <c r="BC57" s="12"/>
+      <c r="BD57" s="12"/>
+      <c r="BE57" s="12"/>
+      <c r="BF57" s="12"/>
+      <c r="BG57" s="12"/>
+      <c r="BH57" s="12"/>
+      <c r="BI57" s="12"/>
+      <c r="BJ57" s="12"/>
+      <c r="BK57" s="12"/>
+      <c r="BL57" s="12"/>
+      <c r="BM57" s="12"/>
+      <c r="BN57" s="12"/>
+      <c r="BO57" s="12"/>
+      <c r="BP57" s="12"/>
+      <c r="BQ57" s="12"/>
+      <c r="BR57" s="12"/>
+      <c r="BS57" s="12"/>
+      <c r="BT57" s="12"/>
+      <c r="BU57" s="12"/>
+      <c r="BV57" s="12"/>
+      <c r="BW57" s="12"/>
+      <c r="BX57" s="12"/>
+      <c r="BY57" s="12"/>
+      <c r="BZ57" s="12"/>
+      <c r="CA57" s="12"/>
+      <c r="CB57" s="12"/>
+      <c r="CC57" s="12"/>
+      <c r="CD57" s="12"/>
+      <c r="CE57" s="12"/>
+      <c r="CF57" s="12"/>
+      <c r="CG57" s="12"/>
+      <c r="CH57" s="12"/>
+      <c r="CI57" s="12"/>
+      <c r="CJ57" s="12"/>
+      <c r="CK57" s="12"/>
+      <c r="CL57" s="12"/>
+      <c r="CM57" s="12"/>
+      <c r="CN57" s="12"/>
+      <c r="CO57" s="12"/>
+      <c r="CP57" s="12"/>
+      <c r="CQ57" s="12"/>
+      <c r="CR57" s="12"/>
+      <c r="CS57" s="12"/>
+      <c r="CT57" s="12"/>
+      <c r="CU57" s="12"/>
+      <c r="CV57" s="12"/>
+      <c r="CW57" s="12"/>
+      <c r="CX57" s="12"/>
+      <c r="CY57" s="12"/>
+      <c r="CZ57" s="12"/>
+      <c r="DA57" s="12"/>
+      <c r="DB57" s="12"/>
+      <c r="DC57" s="12"/>
+      <c r="DD57" s="12"/>
+      <c r="DE57" s="12"/>
+      <c r="DF57" s="12"/>
+      <c r="DG57" s="12"/>
+      <c r="DH57" s="12"/>
+      <c r="DI57" s="12"/>
+      <c r="DJ57" s="12"/>
+      <c r="DK57" s="12"/>
+      <c r="DL57" s="12"/>
+      <c r="DM57" s="12"/>
+      <c r="DN57" s="12"/>
+      <c r="DO57" s="12"/>
+      <c r="DP57" s="12"/>
+      <c r="DQ57" s="12"/>
+      <c r="DR57" s="12"/>
+      <c r="DS57" s="12"/>
+      <c r="DT57" s="12"/>
+      <c r="DU57" s="12"/>
+      <c r="DV57" s="12"/>
+      <c r="DW57" s="12"/>
+      <c r="DX57" s="12"/>
+      <c r="DY57" s="12"/>
+      <c r="DZ57" s="12"/>
+      <c r="EA57" s="12"/>
+      <c r="EB57" s="12"/>
+      <c r="EC57" s="12"/>
+      <c r="ED57" s="12"/>
+      <c r="EE57" s="12"/>
+      <c r="EF57" s="12"/>
+      <c r="EG57" s="12"/>
+    </row>
+    <row r="58" spans="1:137" x14ac:dyDescent="0.25">
+      <c r="A58" s="9"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="12"/>
+      <c r="O58" s="12"/>
+      <c r="P58" s="12"/>
+      <c r="Q58" s="12"/>
+      <c r="R58" s="12"/>
+      <c r="S58" s="12"/>
+      <c r="T58" s="12"/>
+      <c r="U58" s="12"/>
+      <c r="V58" s="12"/>
+      <c r="W58" s="12"/>
+      <c r="X58" s="12"/>
+      <c r="Y58" s="12"/>
+      <c r="Z58" s="12"/>
+      <c r="AA58" s="12"/>
+      <c r="AB58" s="12"/>
+      <c r="AC58" s="12"/>
+      <c r="AD58" s="12"/>
+      <c r="AE58" s="12"/>
+      <c r="AF58" s="12"/>
+      <c r="AG58" s="12"/>
+      <c r="AH58" s="12"/>
+      <c r="AI58" s="12"/>
+      <c r="AJ58" s="12"/>
+      <c r="AK58" s="12"/>
+      <c r="AL58" s="12"/>
+      <c r="AM58" s="12"/>
+      <c r="AN58" s="12"/>
+      <c r="AO58" s="12"/>
+      <c r="AP58" s="12"/>
+      <c r="AQ58" s="12"/>
+      <c r="AR58" s="12"/>
+      <c r="AS58" s="12"/>
+      <c r="AT58" s="12"/>
+      <c r="AU58" s="12"/>
+      <c r="AV58" s="12"/>
+      <c r="AW58" s="12"/>
+      <c r="AX58" s="12"/>
+      <c r="AY58" s="12"/>
+      <c r="AZ58" s="12"/>
+      <c r="BA58" s="12"/>
+      <c r="BB58" s="12"/>
+      <c r="BC58" s="12"/>
+      <c r="BD58" s="12"/>
+      <c r="BE58" s="12"/>
+      <c r="BF58" s="12"/>
+      <c r="BG58" s="12"/>
+      <c r="BH58" s="12"/>
+      <c r="BI58" s="12"/>
+      <c r="BJ58" s="12"/>
+      <c r="BK58" s="12"/>
+      <c r="BL58" s="12"/>
+      <c r="BM58" s="12"/>
+      <c r="BN58" s="12"/>
+      <c r="BO58" s="12"/>
+      <c r="BP58" s="12"/>
+      <c r="BQ58" s="12"/>
+      <c r="BR58" s="12"/>
+      <c r="BS58" s="12"/>
+      <c r="BT58" s="12"/>
+      <c r="BU58" s="12"/>
+      <c r="BV58" s="12"/>
+      <c r="BW58" s="12"/>
+      <c r="BX58" s="12"/>
+      <c r="BY58" s="12"/>
+      <c r="BZ58" s="12"/>
+      <c r="CA58" s="12"/>
+      <c r="CB58" s="12"/>
+      <c r="CC58" s="12"/>
+      <c r="CD58" s="12"/>
+      <c r="CE58" s="12"/>
+      <c r="CF58" s="12"/>
+      <c r="CG58" s="12"/>
+      <c r="CH58" s="12"/>
+      <c r="CI58" s="12"/>
+      <c r="CJ58" s="12"/>
+      <c r="CK58" s="12"/>
+      <c r="CL58" s="12"/>
+      <c r="CM58" s="12"/>
+      <c r="CN58" s="12"/>
+      <c r="CO58" s="12"/>
+      <c r="CP58" s="12"/>
+      <c r="CQ58" s="12"/>
+      <c r="CR58" s="12"/>
+      <c r="CS58" s="12"/>
+      <c r="CT58" s="12"/>
+      <c r="CU58" s="12"/>
+      <c r="CV58" s="12"/>
+      <c r="CW58" s="12"/>
+      <c r="CX58" s="12"/>
+      <c r="CY58" s="12"/>
+      <c r="CZ58" s="12"/>
+      <c r="DA58" s="12"/>
+      <c r="DB58" s="12"/>
+      <c r="DC58" s="12"/>
+      <c r="DD58" s="12"/>
+      <c r="DE58" s="12"/>
+      <c r="DF58" s="12"/>
+      <c r="DG58" s="12"/>
+      <c r="DH58" s="12"/>
+      <c r="DI58" s="12"/>
+      <c r="DJ58" s="12"/>
+      <c r="DK58" s="12"/>
+      <c r="DL58" s="12"/>
+      <c r="DM58" s="12"/>
+      <c r="DN58" s="12"/>
+      <c r="DO58" s="12"/>
+      <c r="DP58" s="12"/>
+      <c r="DQ58" s="12"/>
+      <c r="DR58" s="12"/>
+      <c r="DS58" s="12"/>
+      <c r="DT58" s="12"/>
+      <c r="DU58" s="12"/>
+      <c r="DV58" s="12"/>
+      <c r="DW58" s="12"/>
+      <c r="DX58" s="12"/>
+      <c r="DY58" s="12"/>
+      <c r="DZ58" s="12"/>
+      <c r="EA58" s="12"/>
+      <c r="EB58" s="12"/>
+      <c r="EC58" s="12"/>
+      <c r="ED58" s="12"/>
+      <c r="EE58" s="12"/>
+      <c r="EF58" s="12"/>
+      <c r="EG58" s="12"/>
+    </row>
+    <row r="59" spans="1:137" x14ac:dyDescent="0.25">
+      <c r="A59" s="9"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="12"/>
+      <c r="N59" s="12"/>
+      <c r="O59" s="12"/>
+      <c r="P59" s="12"/>
+      <c r="Q59" s="12"/>
+      <c r="R59" s="12"/>
+      <c r="S59" s="12"/>
+      <c r="T59" s="12"/>
+      <c r="U59" s="12"/>
+      <c r="V59" s="12"/>
+      <c r="W59" s="12"/>
+      <c r="X59" s="12"/>
+      <c r="Y59" s="12"/>
+      <c r="Z59" s="12"/>
+      <c r="AA59" s="12"/>
+      <c r="AB59" s="12"/>
+      <c r="AC59" s="12"/>
+      <c r="AD59" s="12"/>
+      <c r="AE59" s="12"/>
+      <c r="AF59" s="12"/>
+      <c r="AG59" s="12"/>
+      <c r="AH59" s="12"/>
+      <c r="AI59" s="12"/>
+      <c r="AJ59" s="12"/>
+      <c r="AK59" s="12"/>
+      <c r="AL59" s="12"/>
+      <c r="AM59" s="12"/>
+      <c r="AN59" s="12"/>
+      <c r="AO59" s="12"/>
+      <c r="AP59" s="12"/>
+      <c r="AQ59" s="12"/>
+      <c r="AR59" s="12"/>
+      <c r="AS59" s="12"/>
+      <c r="AT59" s="12"/>
+      <c r="AU59" s="12"/>
+      <c r="AV59" s="12"/>
+      <c r="AW59" s="12"/>
+      <c r="AX59" s="12"/>
+      <c r="AY59" s="12"/>
+      <c r="AZ59" s="12"/>
+      <c r="BA59" s="12"/>
+      <c r="BB59" s="12"/>
+      <c r="BC59" s="12"/>
+      <c r="BD59" s="12"/>
+      <c r="BE59" s="12"/>
+      <c r="BF59" s="12"/>
+      <c r="BG59" s="12"/>
+      <c r="BH59" s="12"/>
+      <c r="BI59" s="12"/>
+      <c r="BJ59" s="12"/>
+      <c r="BK59" s="12"/>
+      <c r="BL59" s="12"/>
+      <c r="BM59" s="12"/>
+      <c r="BN59" s="12"/>
+      <c r="BO59" s="12"/>
+      <c r="BP59" s="12"/>
+      <c r="BQ59" s="12"/>
+      <c r="BR59" s="12"/>
+      <c r="BS59" s="12"/>
+      <c r="BT59" s="12"/>
+      <c r="BU59" s="12"/>
+      <c r="BV59" s="12"/>
+      <c r="BW59" s="12"/>
+      <c r="BX59" s="12"/>
+      <c r="BY59" s="12"/>
+      <c r="BZ59" s="12"/>
+      <c r="CA59" s="12"/>
+      <c r="CB59" s="12"/>
+      <c r="CC59" s="12"/>
+      <c r="CD59" s="12"/>
+      <c r="CE59" s="12"/>
+      <c r="CF59" s="12"/>
+      <c r="CG59" s="12"/>
+      <c r="CH59" s="12"/>
+      <c r="CI59" s="12"/>
+      <c r="CJ59" s="12"/>
+      <c r="CK59" s="12"/>
+      <c r="CL59" s="12"/>
+      <c r="CM59" s="12"/>
+      <c r="CN59" s="12"/>
+      <c r="CO59" s="12"/>
+      <c r="CP59" s="12"/>
+      <c r="CQ59" s="12"/>
+      <c r="CR59" s="12"/>
+      <c r="CS59" s="12"/>
+      <c r="CT59" s="12"/>
+      <c r="CU59" s="12"/>
+      <c r="CV59" s="12"/>
+      <c r="CW59" s="12"/>
+      <c r="CX59" s="12"/>
+      <c r="CY59" s="12"/>
+      <c r="CZ59" s="12"/>
+      <c r="DA59" s="12"/>
+      <c r="DB59" s="12"/>
+      <c r="DC59" s="12"/>
+      <c r="DD59" s="12"/>
+      <c r="DE59" s="12"/>
+      <c r="DF59" s="12"/>
+      <c r="DG59" s="12"/>
+      <c r="DH59" s="12"/>
+      <c r="DI59" s="12"/>
+      <c r="DJ59" s="12"/>
+      <c r="DK59" s="12"/>
+      <c r="DL59" s="12"/>
+      <c r="DM59" s="12"/>
+      <c r="DN59" s="12"/>
+      <c r="DO59" s="12"/>
+      <c r="DP59" s="12"/>
+      <c r="DQ59" s="12"/>
+      <c r="DR59" s="12"/>
+      <c r="DS59" s="12"/>
+      <c r="DT59" s="12"/>
+      <c r="DU59" s="12"/>
+      <c r="DV59" s="12"/>
+      <c r="DW59" s="12"/>
+      <c r="DX59" s="12"/>
+      <c r="DY59" s="12"/>
+      <c r="DZ59" s="12"/>
+      <c r="EA59" s="12"/>
+      <c r="EB59" s="12"/>
+      <c r="EC59" s="12"/>
+      <c r="ED59" s="12"/>
+      <c r="EE59" s="12"/>
+      <c r="EF59" s="12"/>
+      <c r="EG59" s="12"/>
+    </row>
+    <row r="60" spans="1:137" x14ac:dyDescent="0.25">
+      <c r="A60" s="9"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="12"/>
+      <c r="O60" s="12"/>
+      <c r="P60" s="12"/>
+      <c r="Q60" s="12"/>
+      <c r="R60" s="12"/>
+      <c r="S60" s="12"/>
+      <c r="T60" s="12"/>
+      <c r="U60" s="12"/>
+      <c r="V60" s="12"/>
+      <c r="W60" s="12"/>
+      <c r="X60" s="12"/>
+      <c r="Y60" s="12"/>
+      <c r="Z60" s="12"/>
+      <c r="AA60" s="12"/>
+      <c r="AB60" s="12"/>
+      <c r="AC60" s="12"/>
+      <c r="AD60" s="12"/>
+      <c r="AE60" s="12"/>
+      <c r="AF60" s="12"/>
+      <c r="AG60" s="12"/>
+      <c r="AH60" s="12"/>
+      <c r="AI60" s="12"/>
+      <c r="AJ60" s="12"/>
+      <c r="AK60" s="12"/>
+      <c r="AL60" s="12"/>
+      <c r="AM60" s="12"/>
+      <c r="AN60" s="12"/>
+      <c r="AO60" s="12"/>
+      <c r="AP60" s="12"/>
+      <c r="AQ60" s="12"/>
+      <c r="AR60" s="12"/>
+      <c r="AS60" s="12"/>
+      <c r="AT60" s="12"/>
+      <c r="AU60" s="12"/>
+      <c r="AV60" s="12"/>
+      <c r="AW60" s="12"/>
+      <c r="AX60" s="12"/>
+      <c r="AY60" s="12"/>
+      <c r="AZ60" s="12"/>
+      <c r="BA60" s="12"/>
+      <c r="BB60" s="12"/>
+      <c r="BC60" s="12"/>
+      <c r="BD60" s="12"/>
+      <c r="BE60" s="12"/>
+      <c r="BF60" s="12"/>
+      <c r="BG60" s="12"/>
+      <c r="BH60" s="12"/>
+      <c r="BI60" s="12"/>
+      <c r="BJ60" s="12"/>
+      <c r="BK60" s="12"/>
+      <c r="BL60" s="12"/>
+      <c r="BM60" s="12"/>
+      <c r="BN60" s="12"/>
+      <c r="BO60" s="12"/>
+      <c r="BP60" s="12"/>
+      <c r="BQ60" s="12"/>
+      <c r="BR60" s="12"/>
+      <c r="BS60" s="12"/>
+      <c r="BT60" s="12"/>
+      <c r="BU60" s="12"/>
+      <c r="BV60" s="12"/>
+      <c r="BW60" s="12"/>
+      <c r="BX60" s="12"/>
+      <c r="BY60" s="12"/>
+      <c r="BZ60" s="12"/>
+      <c r="CA60" s="12"/>
+      <c r="CB60" s="12"/>
+      <c r="CC60" s="12"/>
+      <c r="CD60" s="12"/>
+      <c r="CE60" s="12"/>
+      <c r="CF60" s="12"/>
+      <c r="CG60" s="12"/>
+      <c r="CH60" s="12"/>
+      <c r="CI60" s="12"/>
+      <c r="CJ60" s="12"/>
+      <c r="CK60" s="12"/>
+      <c r="CL60" s="12"/>
+      <c r="CM60" s="12"/>
+      <c r="CN60" s="12"/>
+      <c r="CO60" s="12"/>
+      <c r="CP60" s="12"/>
+      <c r="CQ60" s="12"/>
+      <c r="CR60" s="12"/>
+      <c r="CS60" s="12"/>
+      <c r="CT60" s="12"/>
+      <c r="CU60" s="12"/>
+      <c r="CV60" s="12"/>
+      <c r="CW60" s="12"/>
+      <c r="CX60" s="12"/>
+      <c r="CY60" s="12"/>
+      <c r="CZ60" s="12"/>
+      <c r="DA60" s="12"/>
+      <c r="DB60" s="12"/>
+      <c r="DC60" s="12"/>
+      <c r="DD60" s="12"/>
+      <c r="DE60" s="12"/>
+      <c r="DF60" s="12"/>
+      <c r="DG60" s="12"/>
+      <c r="DH60" s="12"/>
+      <c r="DI60" s="12"/>
+      <c r="DJ60" s="12"/>
+      <c r="DK60" s="12"/>
+      <c r="DL60" s="12"/>
+      <c r="DM60" s="12"/>
+      <c r="DN60" s="12"/>
+      <c r="DO60" s="12"/>
+      <c r="DP60" s="12"/>
+      <c r="DQ60" s="12"/>
+      <c r="DR60" s="12"/>
+      <c r="DS60" s="12"/>
+      <c r="DT60" s="12"/>
+      <c r="DU60" s="12"/>
+      <c r="DV60" s="12"/>
+      <c r="DW60" s="12"/>
+      <c r="DX60" s="12"/>
+      <c r="DY60" s="12"/>
+      <c r="DZ60" s="12"/>
+      <c r="EA60" s="12"/>
+      <c r="EB60" s="12"/>
+      <c r="EC60" s="12"/>
+      <c r="ED60" s="12"/>
+      <c r="EE60" s="12"/>
+      <c r="EF60" s="12"/>
+      <c r="EG60" s="12"/>
+    </row>
+    <row r="61" spans="1:137" x14ac:dyDescent="0.25">
+      <c r="A61" s="9"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="12"/>
+      <c r="N61" s="12"/>
+      <c r="O61" s="12"/>
+      <c r="P61" s="12"/>
+      <c r="Q61" s="12"/>
+      <c r="R61" s="12"/>
+      <c r="S61" s="12"/>
+      <c r="T61" s="12"/>
+      <c r="U61" s="12"/>
+      <c r="V61" s="12"/>
+      <c r="W61" s="12"/>
+      <c r="X61" s="12"/>
+      <c r="Y61" s="12"/>
+      <c r="Z61" s="12"/>
+      <c r="AA61" s="12"/>
+      <c r="AB61" s="12"/>
+      <c r="AC61" s="12"/>
+      <c r="AD61" s="12"/>
+      <c r="AE61" s="12"/>
+      <c r="AF61" s="12"/>
+      <c r="AG61" s="12"/>
+      <c r="AH61" s="12"/>
+      <c r="AI61" s="12"/>
+      <c r="AJ61" s="12"/>
+      <c r="AK61" s="12"/>
+      <c r="AL61" s="12"/>
+      <c r="AM61" s="12"/>
+      <c r="AN61" s="12"/>
+      <c r="AO61" s="12"/>
+      <c r="AP61" s="12"/>
+      <c r="AQ61" s="12"/>
+      <c r="AR61" s="12"/>
+      <c r="AS61" s="12"/>
+      <c r="AT61" s="12"/>
+      <c r="AU61" s="12"/>
+      <c r="AV61" s="12"/>
+      <c r="AW61" s="12"/>
+      <c r="AX61" s="12"/>
+      <c r="AY61" s="12"/>
+      <c r="AZ61" s="12"/>
+      <c r="BA61" s="12"/>
+      <c r="BB61" s="12"/>
+      <c r="BC61" s="12"/>
+      <c r="BD61" s="12"/>
+      <c r="BE61" s="12"/>
+      <c r="BF61" s="12"/>
+      <c r="BG61" s="12"/>
+      <c r="BH61" s="12"/>
+      <c r="BI61" s="12"/>
+      <c r="BJ61" s="12"/>
+      <c r="BK61" s="12"/>
+      <c r="BL61" s="12"/>
+      <c r="BM61" s="12"/>
+      <c r="BN61" s="12"/>
+      <c r="BO61" s="12"/>
+      <c r="BP61" s="12"/>
+      <c r="BQ61" s="12"/>
+      <c r="BR61" s="12"/>
+      <c r="BS61" s="12"/>
+      <c r="BT61" s="12"/>
+      <c r="BU61" s="12"/>
+      <c r="BV61" s="12"/>
+      <c r="BW61" s="12"/>
+      <c r="BX61" s="12"/>
+      <c r="BY61" s="12"/>
+      <c r="BZ61" s="12"/>
+      <c r="CA61" s="12"/>
+      <c r="CB61" s="12"/>
+      <c r="CC61" s="12"/>
+      <c r="CD61" s="12"/>
+      <c r="CE61" s="12"/>
+      <c r="CF61" s="12"/>
+      <c r="CG61" s="12"/>
+      <c r="CH61" s="12"/>
+      <c r="CI61" s="12"/>
+      <c r="CJ61" s="12"/>
+      <c r="CK61" s="12"/>
+      <c r="CL61" s="12"/>
+      <c r="CM61" s="12"/>
+      <c r="CN61" s="12"/>
+      <c r="CO61" s="12"/>
+      <c r="CP61" s="12"/>
+      <c r="CQ61" s="12"/>
+      <c r="CR61" s="12"/>
+      <c r="CS61" s="12"/>
+      <c r="CT61" s="12"/>
+      <c r="CU61" s="12"/>
+      <c r="CV61" s="12"/>
+      <c r="CW61" s="12"/>
+      <c r="CX61" s="12"/>
+      <c r="CY61" s="12"/>
+      <c r="CZ61" s="12"/>
+      <c r="DA61" s="12"/>
+      <c r="DB61" s="12"/>
+      <c r="DC61" s="12"/>
+      <c r="DD61" s="12"/>
+      <c r="DE61" s="12"/>
+      <c r="DF61" s="12"/>
+      <c r="DG61" s="12"/>
+      <c r="DH61" s="12"/>
+      <c r="DI61" s="12"/>
+      <c r="DJ61" s="12"/>
+      <c r="DK61" s="12"/>
+      <c r="DL61" s="12"/>
+      <c r="DM61" s="12"/>
+      <c r="DN61" s="12"/>
+      <c r="DO61" s="12"/>
+      <c r="DP61" s="12"/>
+      <c r="DQ61" s="12"/>
+      <c r="DR61" s="12"/>
+      <c r="DS61" s="12"/>
+      <c r="DT61" s="12"/>
+      <c r="DU61" s="12"/>
+      <c r="DV61" s="12"/>
+      <c r="DW61" s="12"/>
+      <c r="DX61" s="12"/>
+      <c r="DY61" s="12"/>
+      <c r="DZ61" s="12"/>
+      <c r="EA61" s="12"/>
+      <c r="EB61" s="12"/>
+      <c r="EC61" s="12"/>
+      <c r="ED61" s="12"/>
+      <c r="EE61" s="12"/>
+      <c r="EF61" s="12"/>
+      <c r="EG61" s="12"/>
+    </row>
+    <row r="62" spans="1:137" x14ac:dyDescent="0.25">
+      <c r="A62" s="9"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="12"/>
+      <c r="N62" s="12"/>
+      <c r="O62" s="12"/>
+      <c r="P62" s="12"/>
+      <c r="Q62" s="12"/>
+      <c r="R62" s="12"/>
+      <c r="S62" s="12"/>
+      <c r="T62" s="12"/>
+      <c r="U62" s="12"/>
+      <c r="V62" s="12"/>
+      <c r="W62" s="12"/>
+      <c r="X62" s="12"/>
+      <c r="Y62" s="12"/>
+      <c r="Z62" s="12"/>
+      <c r="AA62" s="12"/>
+      <c r="AB62" s="12"/>
+      <c r="AC62" s="12"/>
+      <c r="AD62" s="12"/>
+      <c r="AE62" s="12"/>
+      <c r="AF62" s="12"/>
+      <c r="AG62" s="12"/>
+      <c r="AH62" s="12"/>
+      <c r="AI62" s="12"/>
+      <c r="AJ62" s="12"/>
+      <c r="AK62" s="12"/>
+      <c r="AL62" s="12"/>
+      <c r="AM62" s="12"/>
+      <c r="AN62" s="12"/>
+      <c r="AO62" s="12"/>
+      <c r="AP62" s="12"/>
+      <c r="AQ62" s="12"/>
+      <c r="AR62" s="12"/>
+      <c r="AS62" s="12"/>
+      <c r="AT62" s="12"/>
+      <c r="AU62" s="12"/>
+      <c r="AV62" s="12"/>
+      <c r="AW62" s="12"/>
+      <c r="AX62" s="12"/>
+      <c r="AY62" s="12"/>
+      <c r="AZ62" s="12"/>
+      <c r="BA62" s="12"/>
+      <c r="BB62" s="12"/>
+      <c r="BC62" s="12"/>
+      <c r="BD62" s="12"/>
+      <c r="BE62" s="12"/>
+      <c r="BF62" s="12"/>
+      <c r="BG62" s="12"/>
+      <c r="BH62" s="12"/>
+      <c r="BI62" s="12"/>
+      <c r="BJ62" s="12"/>
+      <c r="BK62" s="12"/>
+      <c r="BL62" s="12"/>
+      <c r="BM62" s="12"/>
+      <c r="BN62" s="12"/>
+      <c r="BO62" s="12"/>
+      <c r="BP62" s="12"/>
+      <c r="BQ62" s="12"/>
+      <c r="BR62" s="12"/>
+      <c r="BS62" s="12"/>
+      <c r="BT62" s="12"/>
+      <c r="BU62" s="12"/>
+      <c r="BV62" s="12"/>
+      <c r="BW62" s="12"/>
+      <c r="BX62" s="12"/>
+      <c r="BY62" s="12"/>
+      <c r="BZ62" s="12"/>
+      <c r="CA62" s="12"/>
+      <c r="CB62" s="12"/>
+      <c r="CC62" s="12"/>
+      <c r="CD62" s="12"/>
+      <c r="CE62" s="12"/>
+      <c r="CF62" s="12"/>
+      <c r="CG62" s="12"/>
+      <c r="CH62" s="12"/>
+      <c r="CI62" s="12"/>
+      <c r="CJ62" s="12"/>
+      <c r="CK62" s="12"/>
+      <c r="CL62" s="12"/>
+      <c r="CM62" s="12"/>
+      <c r="CN62" s="12"/>
+      <c r="CO62" s="12"/>
+      <c r="CP62" s="12"/>
+      <c r="CQ62" s="12"/>
+      <c r="CR62" s="12"/>
+      <c r="CS62" s="12"/>
+      <c r="CT62" s="12"/>
+      <c r="CU62" s="12"/>
+      <c r="CV62" s="12"/>
+      <c r="CW62" s="12"/>
+      <c r="CX62" s="12"/>
+      <c r="CY62" s="12"/>
+      <c r="CZ62" s="12"/>
+      <c r="DA62" s="12"/>
+      <c r="DB62" s="12"/>
+      <c r="DC62" s="12"/>
+      <c r="DD62" s="12"/>
+      <c r="DE62" s="12"/>
+      <c r="DF62" s="12"/>
+      <c r="DG62" s="12"/>
+      <c r="DH62" s="12"/>
+      <c r="DI62" s="12"/>
+      <c r="DJ62" s="12"/>
+      <c r="DK62" s="12"/>
+      <c r="DL62" s="12"/>
+      <c r="DM62" s="12"/>
+      <c r="DN62" s="12"/>
+      <c r="DO62" s="12"/>
+      <c r="DP62" s="12"/>
+      <c r="DQ62" s="12"/>
+      <c r="DR62" s="12"/>
+      <c r="DS62" s="12"/>
+      <c r="DT62" s="12"/>
+      <c r="DU62" s="12"/>
+      <c r="DV62" s="12"/>
+      <c r="DW62" s="12"/>
+      <c r="DX62" s="12"/>
+      <c r="DY62" s="12"/>
+      <c r="DZ62" s="12"/>
+      <c r="EA62" s="12"/>
+      <c r="EB62" s="12"/>
+      <c r="EC62" s="12"/>
+      <c r="ED62" s="12"/>
+      <c r="EE62" s="12"/>
+      <c r="EF62" s="12"/>
+      <c r="EG62" s="12"/>
+    </row>
+    <row r="63" spans="1:137" x14ac:dyDescent="0.25">
+      <c r="A63" s="9"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="12"/>
+      <c r="O63" s="12"/>
+      <c r="P63" s="12"/>
+      <c r="Q63" s="12"/>
+      <c r="R63" s="12"/>
+      <c r="S63" s="12"/>
+      <c r="T63" s="12"/>
+      <c r="U63" s="12"/>
+      <c r="V63" s="12"/>
+      <c r="W63" s="12"/>
+      <c r="X63" s="12"/>
+      <c r="Y63" s="12"/>
+      <c r="Z63" s="12"/>
+      <c r="AA63" s="12"/>
+      <c r="AB63" s="12"/>
+      <c r="AC63" s="12"/>
+      <c r="AD63" s="12"/>
+      <c r="AE63" s="12"/>
+      <c r="AF63" s="12"/>
+      <c r="AG63" s="12"/>
+      <c r="AH63" s="12"/>
+      <c r="AI63" s="12"/>
+      <c r="AJ63" s="12"/>
+      <c r="AK63" s="12"/>
+      <c r="AL63" s="12"/>
+      <c r="AM63" s="12"/>
+      <c r="AN63" s="12"/>
+      <c r="AO63" s="12"/>
+      <c r="AP63" s="12"/>
+      <c r="AQ63" s="12"/>
+      <c r="AR63" s="12"/>
+      <c r="AS63" s="12"/>
+      <c r="AT63" s="12"/>
+      <c r="AU63" s="12"/>
+      <c r="AV63" s="12"/>
+      <c r="AW63" s="12"/>
+      <c r="AX63" s="12"/>
+      <c r="AY63" s="12"/>
+      <c r="AZ63" s="12"/>
+      <c r="BA63" s="12"/>
+      <c r="BB63" s="12"/>
+      <c r="BC63" s="12"/>
+      <c r="BD63" s="12"/>
+      <c r="BE63" s="12"/>
+      <c r="BF63" s="12"/>
+      <c r="BG63" s="12"/>
+      <c r="BH63" s="12"/>
+      <c r="BI63" s="12"/>
+      <c r="BJ63" s="12"/>
+      <c r="BK63" s="12"/>
+      <c r="BL63" s="12"/>
+      <c r="BM63" s="12"/>
+      <c r="BN63" s="12"/>
+      <c r="BO63" s="12"/>
+      <c r="BP63" s="12"/>
+      <c r="BQ63" s="12"/>
+      <c r="BR63" s="12"/>
+      <c r="BS63" s="12"/>
+      <c r="BT63" s="12"/>
+      <c r="BU63" s="12"/>
+      <c r="BV63" s="12"/>
+      <c r="BW63" s="12"/>
+      <c r="BX63" s="12"/>
+      <c r="BY63" s="12"/>
+      <c r="BZ63" s="12"/>
+      <c r="CA63" s="12"/>
+      <c r="CB63" s="12"/>
+      <c r="CC63" s="12"/>
+      <c r="CD63" s="12"/>
+      <c r="CE63" s="12"/>
+      <c r="CF63" s="12"/>
+      <c r="CG63" s="12"/>
+      <c r="CH63" s="12"/>
+      <c r="CI63" s="12"/>
+      <c r="CJ63" s="12"/>
+      <c r="CK63" s="12"/>
+      <c r="CL63" s="12"/>
+      <c r="CM63" s="12"/>
+      <c r="CN63" s="12"/>
+      <c r="CO63" s="12"/>
+      <c r="CP63" s="12"/>
+      <c r="CQ63" s="12"/>
+      <c r="CR63" s="12"/>
+      <c r="CS63" s="12"/>
+      <c r="CT63" s="12"/>
+      <c r="CU63" s="12"/>
+      <c r="CV63" s="12"/>
+      <c r="CW63" s="12"/>
+      <c r="CX63" s="12"/>
+      <c r="CY63" s="12"/>
+      <c r="CZ63" s="12"/>
+      <c r="DA63" s="12"/>
+      <c r="DB63" s="12"/>
+      <c r="DC63" s="12"/>
+      <c r="DD63" s="12"/>
+      <c r="DE63" s="12"/>
+      <c r="DF63" s="12"/>
+      <c r="DG63" s="12"/>
+      <c r="DH63" s="12"/>
+      <c r="DI63" s="12"/>
+      <c r="DJ63" s="12"/>
+      <c r="DK63" s="12"/>
+      <c r="DL63" s="12"/>
+      <c r="DM63" s="12"/>
+      <c r="DN63" s="12"/>
+      <c r="DO63" s="12"/>
+      <c r="DP63" s="12"/>
+      <c r="DQ63" s="12"/>
+      <c r="DR63" s="12"/>
+      <c r="DS63" s="12"/>
+      <c r="DT63" s="12"/>
+      <c r="DU63" s="12"/>
+      <c r="DV63" s="12"/>
+      <c r="DW63" s="12"/>
+      <c r="DX63" s="12"/>
+      <c r="DY63" s="12"/>
+      <c r="DZ63" s="12"/>
+      <c r="EA63" s="12"/>
+      <c r="EB63" s="12"/>
+      <c r="EC63" s="12"/>
+      <c r="ED63" s="12"/>
+      <c r="EE63" s="12"/>
+      <c r="EF63" s="12"/>
+      <c r="EG63" s="12"/>
+    </row>
+    <row r="64" spans="1:137" x14ac:dyDescent="0.25">
+      <c r="A64" s="9"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="12"/>
+      <c r="O64" s="12"/>
+      <c r="P64" s="12"/>
+      <c r="Q64" s="12"/>
+      <c r="R64" s="12"/>
+      <c r="S64" s="12"/>
+      <c r="T64" s="12"/>
+      <c r="U64" s="12"/>
+      <c r="V64" s="12"/>
+      <c r="W64" s="12"/>
+      <c r="X64" s="12"/>
+      <c r="Y64" s="12"/>
+      <c r="Z64" s="12"/>
+      <c r="AA64" s="12"/>
+      <c r="AB64" s="12"/>
+      <c r="AC64" s="12"/>
+      <c r="AD64" s="12"/>
+      <c r="AE64" s="12"/>
+      <c r="AF64" s="12"/>
+      <c r="AG64" s="12"/>
+      <c r="AH64" s="12"/>
+      <c r="AI64" s="12"/>
+      <c r="AJ64" s="12"/>
+      <c r="AK64" s="12"/>
+      <c r="AL64" s="12"/>
+      <c r="AM64" s="12"/>
+      <c r="AN64" s="12"/>
+      <c r="AO64" s="12"/>
+      <c r="AP64" s="12"/>
+      <c r="AQ64" s="12"/>
+      <c r="AR64" s="12"/>
+      <c r="AS64" s="12"/>
+      <c r="AT64" s="12"/>
+      <c r="AU64" s="12"/>
+      <c r="AV64" s="12"/>
+      <c r="AW64" s="12"/>
+      <c r="AX64" s="12"/>
+      <c r="AY64" s="12"/>
+      <c r="AZ64" s="12"/>
+      <c r="BA64" s="12"/>
+      <c r="BB64" s="12"/>
+      <c r="BC64" s="12"/>
+      <c r="BD64" s="12"/>
+      <c r="BE64" s="12"/>
+      <c r="BF64" s="12"/>
+      <c r="BG64" s="12"/>
+      <c r="BH64" s="12"/>
+      <c r="BI64" s="12"/>
+      <c r="BJ64" s="12"/>
+      <c r="BK64" s="12"/>
+      <c r="BL64" s="12"/>
+      <c r="BM64" s="12"/>
+      <c r="BN64" s="12"/>
+      <c r="BO64" s="12"/>
+      <c r="BP64" s="12"/>
+      <c r="BQ64" s="12"/>
+      <c r="BR64" s="12"/>
+      <c r="BS64" s="12"/>
+      <c r="BT64" s="12"/>
+      <c r="BU64" s="12"/>
+      <c r="BV64" s="12"/>
+      <c r="BW64" s="12"/>
+      <c r="BX64" s="12"/>
+      <c r="BY64" s="12"/>
+      <c r="BZ64" s="12"/>
+      <c r="CA64" s="12"/>
+      <c r="CB64" s="12"/>
+      <c r="CC64" s="12"/>
+      <c r="CD64" s="12"/>
+      <c r="CE64" s="12"/>
+      <c r="CF64" s="12"/>
+      <c r="CG64" s="12"/>
+      <c r="CH64" s="12"/>
+      <c r="CI64" s="12"/>
+      <c r="CJ64" s="12"/>
+      <c r="CK64" s="12"/>
+      <c r="CL64" s="12"/>
+      <c r="CM64" s="12"/>
+      <c r="CN64" s="12"/>
+      <c r="CO64" s="12"/>
+      <c r="CP64" s="12"/>
+      <c r="CQ64" s="12"/>
+      <c r="CR64" s="12"/>
+      <c r="CS64" s="12"/>
+      <c r="CT64" s="12"/>
+      <c r="CU64" s="12"/>
+      <c r="CV64" s="12"/>
+      <c r="CW64" s="12"/>
+      <c r="CX64" s="12"/>
+      <c r="CY64" s="12"/>
+      <c r="CZ64" s="12"/>
+      <c r="DA64" s="12"/>
+      <c r="DB64" s="12"/>
+      <c r="DC64" s="12"/>
+      <c r="DD64" s="12"/>
+      <c r="DE64" s="12"/>
+      <c r="DF64" s="12"/>
+      <c r="DG64" s="12"/>
+      <c r="DH64" s="12"/>
+      <c r="DI64" s="12"/>
+      <c r="DJ64" s="12"/>
+      <c r="DK64" s="12"/>
+      <c r="DL64" s="12"/>
+      <c r="DM64" s="12"/>
+      <c r="DN64" s="12"/>
+      <c r="DO64" s="12"/>
+      <c r="DP64" s="12"/>
+      <c r="DQ64" s="12"/>
+      <c r="DR64" s="12"/>
+      <c r="DS64" s="12"/>
+      <c r="DT64" s="12"/>
+      <c r="DU64" s="12"/>
+      <c r="DV64" s="12"/>
+      <c r="DW64" s="12"/>
+      <c r="DX64" s="12"/>
+      <c r="DY64" s="12"/>
+      <c r="DZ64" s="12"/>
+      <c r="EA64" s="12"/>
+      <c r="EB64" s="12"/>
+      <c r="EC64" s="12"/>
+      <c r="ED64" s="12"/>
+      <c r="EE64" s="12"/>
+      <c r="EF64" s="12"/>
+      <c r="EG64" s="12"/>
+    </row>
+    <row r="65" spans="1:137" x14ac:dyDescent="0.25">
+      <c r="A65" s="9"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
+      <c r="L65" s="12"/>
+      <c r="M65" s="12"/>
+      <c r="N65" s="12"/>
+      <c r="O65" s="12"/>
+      <c r="P65" s="12"/>
+      <c r="Q65" s="12"/>
+      <c r="R65" s="12"/>
+      <c r="S65" s="12"/>
+      <c r="T65" s="12"/>
+      <c r="U65" s="12"/>
+      <c r="V65" s="12"/>
+      <c r="W65" s="12"/>
+      <c r="X65" s="12"/>
+      <c r="Y65" s="12"/>
+      <c r="Z65" s="12"/>
+      <c r="AA65" s="12"/>
+      <c r="AB65" s="12"/>
+      <c r="AC65" s="12"/>
+      <c r="AD65" s="12"/>
+      <c r="AE65" s="12"/>
+      <c r="AF65" s="12"/>
+      <c r="AG65" s="12"/>
+      <c r="AH65" s="12"/>
+      <c r="AI65" s="12"/>
+      <c r="AJ65" s="12"/>
+      <c r="AK65" s="12"/>
+      <c r="AL65" s="12"/>
+      <c r="AM65" s="12"/>
+      <c r="AN65" s="12"/>
+      <c r="AO65" s="12"/>
+      <c r="AP65" s="12"/>
+      <c r="AQ65" s="12"/>
+      <c r="AR65" s="12"/>
+      <c r="AS65" s="12"/>
+      <c r="AT65" s="12"/>
+      <c r="AU65" s="12"/>
+      <c r="AV65" s="12"/>
+      <c r="AW65" s="12"/>
+      <c r="AX65" s="12"/>
+      <c r="AY65" s="12"/>
+      <c r="AZ65" s="12"/>
+      <c r="BA65" s="12"/>
+      <c r="BB65" s="12"/>
+      <c r="BC65" s="12"/>
+      <c r="BD65" s="12"/>
+      <c r="BE65" s="12"/>
+      <c r="BF65" s="12"/>
+      <c r="BG65" s="12"/>
+      <c r="BH65" s="12"/>
+      <c r="BI65" s="12"/>
+      <c r="BJ65" s="12"/>
+      <c r="BK65" s="12"/>
+      <c r="BL65" s="12"/>
+      <c r="BM65" s="12"/>
+      <c r="BN65" s="12"/>
+      <c r="BO65" s="12"/>
+      <c r="BP65" s="12"/>
+      <c r="BQ65" s="12"/>
+      <c r="BR65" s="12"/>
+      <c r="BS65" s="12"/>
+      <c r="BT65" s="12"/>
+      <c r="BU65" s="12"/>
+      <c r="BV65" s="12"/>
+      <c r="BW65" s="12"/>
+      <c r="BX65" s="12"/>
+      <c r="BY65" s="12"/>
+      <c r="BZ65" s="12"/>
+      <c r="CA65" s="12"/>
+      <c r="CB65" s="12"/>
+      <c r="CC65" s="12"/>
+      <c r="CD65" s="12"/>
+      <c r="CE65" s="12"/>
+      <c r="CF65" s="12"/>
+      <c r="CG65" s="12"/>
+      <c r="CH65" s="12"/>
+      <c r="CI65" s="12"/>
+      <c r="CJ65" s="12"/>
+      <c r="CK65" s="12"/>
+      <c r="CL65" s="12"/>
+      <c r="CM65" s="12"/>
+      <c r="CN65" s="12"/>
+      <c r="CO65" s="12"/>
+      <c r="CP65" s="12"/>
+      <c r="CQ65" s="12"/>
+      <c r="CR65" s="12"/>
+      <c r="CS65" s="12"/>
+      <c r="CT65" s="12"/>
+      <c r="CU65" s="12"/>
+      <c r="CV65" s="12"/>
+      <c r="CW65" s="12"/>
+      <c r="CX65" s="12"/>
+      <c r="CY65" s="12"/>
+      <c r="CZ65" s="12"/>
+      <c r="DA65" s="12"/>
+      <c r="DB65" s="12"/>
+      <c r="DC65" s="12"/>
+      <c r="DD65" s="12"/>
+      <c r="DE65" s="12"/>
+      <c r="DF65" s="12"/>
+      <c r="DG65" s="12"/>
+      <c r="DH65" s="12"/>
+      <c r="DI65" s="12"/>
+      <c r="DJ65" s="12"/>
+      <c r="DK65" s="12"/>
+      <c r="DL65" s="12"/>
+      <c r="DM65" s="12"/>
+      <c r="DN65" s="12"/>
+      <c r="DO65" s="12"/>
+      <c r="DP65" s="12"/>
+      <c r="DQ65" s="12"/>
+      <c r="DR65" s="12"/>
+      <c r="DS65" s="12"/>
+      <c r="DT65" s="12"/>
+      <c r="DU65" s="12"/>
+      <c r="DV65" s="12"/>
+      <c r="DW65" s="12"/>
+      <c r="DX65" s="12"/>
+      <c r="DY65" s="12"/>
+      <c r="DZ65" s="12"/>
+      <c r="EA65" s="12"/>
+      <c r="EB65" s="12"/>
+      <c r="EC65" s="12"/>
+      <c r="ED65" s="12"/>
+      <c r="EE65" s="12"/>
+      <c r="EF65" s="12"/>
+      <c r="EG65" s="12"/>
+    </row>
+    <row r="66" spans="1:137" x14ac:dyDescent="0.25">
+      <c r="A66" s="9"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="12"/>
+      <c r="M66" s="12"/>
+      <c r="N66" s="12"/>
+      <c r="O66" s="12"/>
+      <c r="P66" s="12"/>
+      <c r="Q66" s="12"/>
+      <c r="R66" s="12"/>
+      <c r="S66" s="12"/>
+      <c r="T66" s="12"/>
+      <c r="U66" s="12"/>
+      <c r="V66" s="12"/>
+      <c r="W66" s="12"/>
+      <c r="X66" s="12"/>
+      <c r="Y66" s="12"/>
+      <c r="Z66" s="12"/>
+      <c r="AA66" s="12"/>
+      <c r="AB66" s="12"/>
+      <c r="AC66" s="12"/>
+      <c r="AD66" s="12"/>
+      <c r="AE66" s="12"/>
+      <c r="AF66" s="12"/>
+      <c r="AG66" s="12"/>
+      <c r="AH66" s="12"/>
+      <c r="AI66" s="12"/>
+      <c r="AJ66" s="12"/>
+      <c r="AK66" s="12"/>
+      <c r="AL66" s="12"/>
+      <c r="AM66" s="12"/>
+      <c r="AN66" s="12"/>
+      <c r="AO66" s="12"/>
+      <c r="AP66" s="12"/>
+      <c r="AQ66" s="12"/>
+      <c r="AR66" s="12"/>
+      <c r="AS66" s="12"/>
+      <c r="AT66" s="12"/>
+      <c r="AU66" s="12"/>
+      <c r="AV66" s="12"/>
+      <c r="AW66" s="12"/>
+      <c r="AX66" s="12"/>
+      <c r="AY66" s="12"/>
+      <c r="AZ66" s="12"/>
+      <c r="BA66" s="12"/>
+      <c r="BB66" s="12"/>
+      <c r="BC66" s="12"/>
+      <c r="BD66" s="12"/>
+      <c r="BE66" s="12"/>
+      <c r="BF66" s="12"/>
+      <c r="BG66" s="12"/>
+      <c r="BH66" s="12"/>
+      <c r="BI66" s="12"/>
+      <c r="BJ66" s="12"/>
+      <c r="BK66" s="12"/>
+      <c r="BL66" s="12"/>
+      <c r="BM66" s="12"/>
+      <c r="BN66" s="12"/>
+      <c r="BO66" s="12"/>
+      <c r="BP66" s="12"/>
+      <c r="BQ66" s="12"/>
+      <c r="BR66" s="12"/>
+      <c r="BS66" s="12"/>
+      <c r="BT66" s="12"/>
+      <c r="BU66" s="12"/>
+      <c r="BV66" s="12"/>
+      <c r="BW66" s="12"/>
+      <c r="BX66" s="12"/>
+      <c r="BY66" s="12"/>
+      <c r="BZ66" s="12"/>
+      <c r="CA66" s="12"/>
+      <c r="CB66" s="12"/>
+      <c r="CC66" s="12"/>
+      <c r="CD66" s="12"/>
+      <c r="CE66" s="12"/>
+      <c r="CF66" s="12"/>
+      <c r="CG66" s="12"/>
+      <c r="CH66" s="12"/>
+      <c r="CI66" s="12"/>
+      <c r="CJ66" s="12"/>
+      <c r="CK66" s="12"/>
+      <c r="CL66" s="12"/>
+      <c r="CM66" s="12"/>
+      <c r="CN66" s="12"/>
+      <c r="CO66" s="12"/>
+      <c r="CP66" s="12"/>
+      <c r="CQ66" s="12"/>
+      <c r="CR66" s="12"/>
+      <c r="CS66" s="12"/>
+      <c r="CT66" s="12"/>
+      <c r="CU66" s="12"/>
+      <c r="CV66" s="12"/>
+      <c r="CW66" s="12"/>
+      <c r="CX66" s="12"/>
+      <c r="CY66" s="12"/>
+      <c r="CZ66" s="12"/>
+      <c r="DA66" s="12"/>
+      <c r="DB66" s="12"/>
+      <c r="DC66" s="12"/>
+      <c r="DD66" s="12"/>
+      <c r="DE66" s="12"/>
+      <c r="DF66" s="12"/>
+      <c r="DG66" s="12"/>
+      <c r="DH66" s="12"/>
+      <c r="DI66" s="12"/>
+      <c r="DJ66" s="12"/>
+      <c r="DK66" s="12"/>
+      <c r="DL66" s="12"/>
+      <c r="DM66" s="12"/>
+      <c r="DN66" s="12"/>
+      <c r="DO66" s="12"/>
+      <c r="DP66" s="12"/>
+      <c r="DQ66" s="12"/>
+      <c r="DR66" s="12"/>
+      <c r="DS66" s="12"/>
+      <c r="DT66" s="12"/>
+      <c r="DU66" s="12"/>
+      <c r="DV66" s="12"/>
+      <c r="DW66" s="12"/>
+      <c r="DX66" s="12"/>
+      <c r="DY66" s="12"/>
+      <c r="DZ66" s="12"/>
+      <c r="EA66" s="12"/>
+      <c r="EB66" s="12"/>
+      <c r="EC66" s="12"/>
+      <c r="ED66" s="12"/>
+      <c r="EE66" s="12"/>
+      <c r="EF66" s="12"/>
+      <c r="EG66" s="12"/>
+    </row>
+    <row r="67" spans="1:137" x14ac:dyDescent="0.25">
+      <c r="A67" s="9"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
+      <c r="L67" s="12"/>
+      <c r="M67" s="12"/>
+      <c r="N67" s="12"/>
+      <c r="O67" s="12"/>
+      <c r="P67" s="12"/>
+      <c r="Q67" s="12"/>
+      <c r="R67" s="12"/>
+      <c r="S67" s="12"/>
+      <c r="T67" s="12"/>
+      <c r="U67" s="12"/>
+      <c r="V67" s="12"/>
+      <c r="W67" s="12"/>
+      <c r="X67" s="12"/>
+      <c r="Y67" s="12"/>
+      <c r="Z67" s="12"/>
+      <c r="AA67" s="12"/>
+      <c r="AB67" s="12"/>
+      <c r="AC67" s="12"/>
+      <c r="AD67" s="12"/>
+      <c r="AE67" s="12"/>
+      <c r="AF67" s="12"/>
+      <c r="AG67" s="12"/>
+      <c r="AH67" s="12"/>
+      <c r="AI67" s="12"/>
+      <c r="AJ67" s="12"/>
+      <c r="AK67" s="12"/>
+      <c r="AL67" s="12"/>
+      <c r="AM67" s="12"/>
+      <c r="AN67" s="12"/>
+      <c r="AO67" s="12"/>
+      <c r="AP67" s="12"/>
+      <c r="AQ67" s="12"/>
+      <c r="AR67" s="12"/>
+      <c r="AS67" s="12"/>
+      <c r="AT67" s="12"/>
+      <c r="AU67" s="12"/>
+      <c r="AV67" s="12"/>
+      <c r="AW67" s="12"/>
+      <c r="AX67" s="12"/>
+      <c r="AY67" s="12"/>
+      <c r="AZ67" s="12"/>
+      <c r="BA67" s="12"/>
+      <c r="BB67" s="12"/>
+      <c r="BC67" s="12"/>
+      <c r="BD67" s="12"/>
+      <c r="BE67" s="12"/>
+      <c r="BF67" s="12"/>
+      <c r="BG67" s="12"/>
+      <c r="BH67" s="12"/>
+      <c r="BI67" s="12"/>
+      <c r="BJ67" s="12"/>
+      <c r="BK67" s="12"/>
+      <c r="BL67" s="12"/>
+      <c r="BM67" s="12"/>
+      <c r="BN67" s="12"/>
+      <c r="BO67" s="12"/>
+      <c r="BP67" s="12"/>
+      <c r="BQ67" s="12"/>
+      <c r="BR67" s="12"/>
+      <c r="BS67" s="12"/>
+      <c r="BT67" s="12"/>
+      <c r="BU67" s="12"/>
+      <c r="BV67" s="12"/>
+      <c r="BW67" s="12"/>
+      <c r="BX67" s="12"/>
+      <c r="BY67" s="12"/>
+      <c r="BZ67" s="12"/>
+      <c r="CA67" s="12"/>
+      <c r="CB67" s="12"/>
+      <c r="CC67" s="12"/>
+      <c r="CD67" s="12"/>
+      <c r="CE67" s="12"/>
+      <c r="CF67" s="12"/>
+      <c r="CG67" s="12"/>
+      <c r="CH67" s="12"/>
+      <c r="CI67" s="12"/>
+      <c r="CJ67" s="12"/>
+      <c r="CK67" s="12"/>
+      <c r="CL67" s="12"/>
+      <c r="CM67" s="12"/>
+      <c r="CN67" s="12"/>
+      <c r="CO67" s="12"/>
+      <c r="CP67" s="12"/>
+      <c r="CQ67" s="12"/>
+      <c r="CR67" s="12"/>
+      <c r="CS67" s="12"/>
+      <c r="CT67" s="12"/>
+      <c r="CU67" s="12"/>
+      <c r="CV67" s="12"/>
+      <c r="CW67" s="12"/>
+      <c r="CX67" s="12"/>
+      <c r="CY67" s="12"/>
+      <c r="CZ67" s="12"/>
+      <c r="DA67" s="12"/>
+      <c r="DB67" s="12"/>
+      <c r="DC67" s="12"/>
+      <c r="DD67" s="12"/>
+      <c r="DE67" s="12"/>
+      <c r="DF67" s="12"/>
+      <c r="DG67" s="12"/>
+      <c r="DH67" s="12"/>
+      <c r="DI67" s="12"/>
+      <c r="DJ67" s="12"/>
+      <c r="DK67" s="12"/>
+      <c r="DL67" s="12"/>
+      <c r="DM67" s="12"/>
+      <c r="DN67" s="12"/>
+      <c r="DO67" s="12"/>
+      <c r="DP67" s="12"/>
+      <c r="DQ67" s="12"/>
+      <c r="DR67" s="12"/>
+      <c r="DS67" s="12"/>
+      <c r="DT67" s="12"/>
+      <c r="DU67" s="12"/>
+      <c r="DV67" s="12"/>
+      <c r="DW67" s="12"/>
+      <c r="DX67" s="12"/>
+      <c r="DY67" s="12"/>
+      <c r="DZ67" s="12"/>
+      <c r="EA67" s="12"/>
+      <c r="EB67" s="12"/>
+      <c r="EC67" s="12"/>
+      <c r="ED67" s="12"/>
+      <c r="EE67" s="12"/>
+      <c r="EF67" s="12"/>
+      <c r="EG67" s="12"/>
+    </row>
+    <row r="68" spans="1:137" x14ac:dyDescent="0.25">
+      <c r="A68" s="9"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="12"/>
+      <c r="M68" s="12"/>
+      <c r="N68" s="12"/>
+      <c r="O68" s="12"/>
+      <c r="P68" s="12"/>
+      <c r="Q68" s="12"/>
+      <c r="R68" s="12"/>
+      <c r="S68" s="12"/>
+      <c r="T68" s="12"/>
+      <c r="U68" s="12"/>
+      <c r="V68" s="12"/>
+      <c r="W68" s="12"/>
+      <c r="X68" s="12"/>
+      <c r="Y68" s="12"/>
+      <c r="Z68" s="12"/>
+      <c r="AA68" s="12"/>
+      <c r="AB68" s="12"/>
+      <c r="AC68" s="12"/>
+      <c r="AD68" s="12"/>
+      <c r="AE68" s="12"/>
+      <c r="AF68" s="12"/>
+      <c r="AG68" s="12"/>
+      <c r="AH68" s="12"/>
+      <c r="AI68" s="12"/>
+      <c r="AJ68" s="12"/>
+      <c r="AK68" s="12"/>
+      <c r="AL68" s="12"/>
+      <c r="AM68" s="12"/>
+      <c r="AN68" s="12"/>
+      <c r="AO68" s="12"/>
+      <c r="AP68" s="12"/>
+      <c r="AQ68" s="12"/>
+      <c r="AR68" s="12"/>
+      <c r="AS68" s="12"/>
+      <c r="AT68" s="12"/>
+      <c r="AU68" s="12"/>
+      <c r="AV68" s="12"/>
+      <c r="AW68" s="12"/>
+      <c r="AX68" s="12"/>
+      <c r="AY68" s="12"/>
+      <c r="AZ68" s="12"/>
+      <c r="BA68" s="12"/>
+      <c r="BB68" s="12"/>
+      <c r="BC68" s="12"/>
+      <c r="BD68" s="12"/>
+      <c r="BE68" s="12"/>
+      <c r="BF68" s="12"/>
+      <c r="BG68" s="12"/>
+      <c r="BH68" s="12"/>
+      <c r="BI68" s="12"/>
+      <c r="BJ68" s="12"/>
+      <c r="BK68" s="12"/>
+      <c r="BL68" s="12"/>
+      <c r="BM68" s="12"/>
+      <c r="BN68" s="12"/>
+      <c r="BO68" s="12"/>
+      <c r="BP68" s="12"/>
+      <c r="BQ68" s="12"/>
+      <c r="BR68" s="12"/>
+      <c r="BS68" s="12"/>
+      <c r="BT68" s="12"/>
+      <c r="BU68" s="12"/>
+      <c r="BV68" s="12"/>
+      <c r="BW68" s="12"/>
+      <c r="BX68" s="12"/>
+      <c r="BY68" s="12"/>
+      <c r="BZ68" s="12"/>
+      <c r="CA68" s="12"/>
+      <c r="CB68" s="12"/>
+      <c r="CC68" s="12"/>
+      <c r="CD68" s="12"/>
+      <c r="CE68" s="12"/>
+      <c r="CF68" s="12"/>
+      <c r="CG68" s="12"/>
+      <c r="CH68" s="12"/>
+      <c r="CI68" s="12"/>
+      <c r="CJ68" s="12"/>
+      <c r="CK68" s="12"/>
+      <c r="CL68" s="12"/>
+      <c r="CM68" s="12"/>
+      <c r="CN68" s="12"/>
+      <c r="CO68" s="12"/>
+      <c r="CP68" s="12"/>
+      <c r="CQ68" s="12"/>
+      <c r="CR68" s="12"/>
+      <c r="CS68" s="12"/>
+      <c r="CT68" s="12"/>
+      <c r="CU68" s="12"/>
+      <c r="CV68" s="12"/>
+      <c r="CW68" s="12"/>
+      <c r="CX68" s="12"/>
+      <c r="CY68" s="12"/>
+      <c r="CZ68" s="12"/>
+      <c r="DA68" s="12"/>
+      <c r="DB68" s="12"/>
+      <c r="DC68" s="12"/>
+      <c r="DD68" s="12"/>
+      <c r="DE68" s="12"/>
+      <c r="DF68" s="12"/>
+      <c r="DG68" s="12"/>
+      <c r="DH68" s="12"/>
+      <c r="DI68" s="12"/>
+      <c r="DJ68" s="12"/>
+      <c r="DK68" s="12"/>
+      <c r="DL68" s="12"/>
+      <c r="DM68" s="12"/>
+      <c r="DN68" s="12"/>
+      <c r="DO68" s="12"/>
+      <c r="DP68" s="12"/>
+      <c r="DQ68" s="12"/>
+      <c r="DR68" s="12"/>
+      <c r="DS68" s="12"/>
+      <c r="DT68" s="12"/>
+      <c r="DU68" s="12"/>
+      <c r="DV68" s="12"/>
+      <c r="DW68" s="12"/>
+      <c r="DX68" s="12"/>
+      <c r="DY68" s="12"/>
+      <c r="DZ68" s="12"/>
+      <c r="EA68" s="12"/>
+      <c r="EB68" s="12"/>
+      <c r="EC68" s="12"/>
+      <c r="ED68" s="12"/>
+      <c r="EE68" s="12"/>
+      <c r="EF68" s="12"/>
+      <c r="EG68" s="12"/>
+    </row>
+    <row r="69" spans="1:137" x14ac:dyDescent="0.25">
+      <c r="A69" s="9"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="12"/>
+      <c r="L69" s="12"/>
+      <c r="M69" s="12"/>
+      <c r="N69" s="12"/>
+      <c r="O69" s="12"/>
+      <c r="P69" s="12"/>
+      <c r="Q69" s="12"/>
+      <c r="R69" s="12"/>
+      <c r="S69" s="12"/>
+      <c r="T69" s="12"/>
+      <c r="U69" s="12"/>
+      <c r="V69" s="12"/>
+      <c r="W69" s="12"/>
+      <c r="X69" s="12"/>
+      <c r="Y69" s="12"/>
+      <c r="Z69" s="12"/>
+      <c r="AA69" s="12"/>
+      <c r="AB69" s="12"/>
+      <c r="AC69" s="12"/>
+      <c r="AD69" s="12"/>
+      <c r="AE69" s="12"/>
+      <c r="AF69" s="12"/>
+      <c r="AG69" s="12"/>
+      <c r="AH69" s="12"/>
+      <c r="AI69" s="12"/>
+      <c r="AJ69" s="12"/>
+      <c r="AK69" s="12"/>
+      <c r="AL69" s="12"/>
+      <c r="AM69" s="12"/>
+      <c r="AN69" s="12"/>
+      <c r="AO69" s="12"/>
+      <c r="AP69" s="12"/>
+      <c r="AQ69" s="12"/>
+      <c r="AR69" s="12"/>
+      <c r="AS69" s="12"/>
+      <c r="AT69" s="12"/>
+      <c r="AU69" s="12"/>
+      <c r="AV69" s="12"/>
+      <c r="AW69" s="12"/>
+      <c r="AX69" s="12"/>
+      <c r="AY69" s="12"/>
+      <c r="AZ69" s="12"/>
+      <c r="BA69" s="12"/>
+      <c r="BB69" s="12"/>
+      <c r="BC69" s="12"/>
+      <c r="BD69" s="12"/>
+      <c r="BE69" s="12"/>
+      <c r="BF69" s="12"/>
+      <c r="BG69" s="12"/>
+      <c r="BH69" s="12"/>
+      <c r="BI69" s="12"/>
+      <c r="BJ69" s="12"/>
+      <c r="BK69" s="12"/>
+      <c r="BL69" s="12"/>
+      <c r="BM69" s="12"/>
+      <c r="BN69" s="12"/>
+      <c r="BO69" s="12"/>
+      <c r="BP69" s="12"/>
+      <c r="BQ69" s="12"/>
+      <c r="BR69" s="12"/>
+      <c r="BS69" s="12"/>
+      <c r="BT69" s="12"/>
+      <c r="BU69" s="12"/>
+      <c r="BV69" s="12"/>
+      <c r="BW69" s="12"/>
+      <c r="BX69" s="12"/>
+      <c r="BY69" s="12"/>
+      <c r="BZ69" s="12"/>
+      <c r="CA69" s="12"/>
+      <c r="CB69" s="12"/>
+      <c r="CC69" s="12"/>
+      <c r="CD69" s="12"/>
+      <c r="CE69" s="12"/>
+      <c r="CF69" s="12"/>
+      <c r="CG69" s="12"/>
+      <c r="CH69" s="12"/>
+      <c r="CI69" s="12"/>
+      <c r="CJ69" s="12"/>
+      <c r="CK69" s="12"/>
+      <c r="CL69" s="12"/>
+      <c r="CM69" s="12"/>
+      <c r="CN69" s="12"/>
+      <c r="CO69" s="12"/>
+      <c r="CP69" s="12"/>
+      <c r="CQ69" s="12"/>
+      <c r="CR69" s="12"/>
+      <c r="CS69" s="12"/>
+      <c r="CT69" s="12"/>
+      <c r="CU69" s="12"/>
+      <c r="CV69" s="12"/>
+      <c r="CW69" s="12"/>
+      <c r="CX69" s="12"/>
+      <c r="CY69" s="12"/>
+      <c r="CZ69" s="12"/>
+      <c r="DA69" s="12"/>
+      <c r="DB69" s="12"/>
+      <c r="DC69" s="12"/>
+      <c r="DD69" s="12"/>
+      <c r="DE69" s="12"/>
+      <c r="DF69" s="12"/>
+      <c r="DG69" s="12"/>
+      <c r="DH69" s="12"/>
+      <c r="DI69" s="12"/>
+      <c r="DJ69" s="12"/>
+      <c r="DK69" s="12"/>
+      <c r="DL69" s="12"/>
+      <c r="DM69" s="12"/>
+      <c r="DN69" s="12"/>
+      <c r="DO69" s="12"/>
+      <c r="DP69" s="12"/>
+      <c r="DQ69" s="12"/>
+      <c r="DR69" s="12"/>
+      <c r="DS69" s="12"/>
+      <c r="DT69" s="12"/>
+      <c r="DU69" s="12"/>
+      <c r="DV69" s="12"/>
+      <c r="DW69" s="12"/>
+      <c r="DX69" s="12"/>
+      <c r="DY69" s="12"/>
+      <c r="DZ69" s="12"/>
+      <c r="EA69" s="12"/>
+      <c r="EB69" s="12"/>
+      <c r="EC69" s="12"/>
+      <c r="ED69" s="12"/>
+      <c r="EE69" s="12"/>
+      <c r="EF69" s="12"/>
+      <c r="EG69" s="12"/>
+    </row>
+    <row r="70" spans="1:137" x14ac:dyDescent="0.25">
+      <c r="A70" s="9"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
+      <c r="L70" s="12"/>
+      <c r="M70" s="12"/>
+      <c r="N70" s="12"/>
+      <c r="O70" s="12"/>
+      <c r="P70" s="12"/>
+      <c r="Q70" s="12"/>
+      <c r="R70" s="12"/>
+      <c r="S70" s="12"/>
+      <c r="T70" s="12"/>
+      <c r="U70" s="12"/>
+      <c r="V70" s="12"/>
+      <c r="W70" s="12"/>
+      <c r="X70" s="12"/>
+      <c r="Y70" s="12"/>
+      <c r="Z70" s="12"/>
+      <c r="AA70" s="12"/>
+      <c r="AB70" s="12"/>
+      <c r="AC70" s="12"/>
+      <c r="AD70" s="12"/>
+      <c r="AE70" s="12"/>
+      <c r="AF70" s="12"/>
+      <c r="AG70" s="12"/>
+      <c r="AH70" s="12"/>
+      <c r="AI70" s="12"/>
+      <c r="AJ70" s="12"/>
+      <c r="AK70" s="12"/>
+      <c r="AL70" s="12"/>
+      <c r="AM70" s="12"/>
+      <c r="AN70" s="12"/>
+      <c r="AO70" s="12"/>
+      <c r="AP70" s="12"/>
+      <c r="AQ70" s="12"/>
+      <c r="AR70" s="12"/>
+      <c r="AS70" s="12"/>
+      <c r="AT70" s="12"/>
+      <c r="AU70" s="12"/>
+      <c r="AV70" s="12"/>
+      <c r="AW70" s="12"/>
+      <c r="AX70" s="12"/>
+      <c r="AY70" s="12"/>
+      <c r="AZ70" s="12"/>
+      <c r="BA70" s="12"/>
+      <c r="BB70" s="12"/>
+      <c r="BC70" s="12"/>
+      <c r="BD70" s="12"/>
+      <c r="BE70" s="12"/>
+      <c r="BF70" s="12"/>
+      <c r="BG70" s="12"/>
+      <c r="BH70" s="12"/>
+      <c r="BI70" s="12"/>
+      <c r="BJ70" s="12"/>
+      <c r="BK70" s="12"/>
+      <c r="BL70" s="12"/>
+      <c r="BM70" s="12"/>
+      <c r="BN70" s="12"/>
+      <c r="BO70" s="12"/>
+      <c r="BP70" s="12"/>
+      <c r="BQ70" s="12"/>
+      <c r="BR70" s="12"/>
+      <c r="BS70" s="12"/>
+      <c r="BT70" s="12"/>
+      <c r="BU70" s="12"/>
+      <c r="BV70" s="12"/>
+      <c r="BW70" s="12"/>
+      <c r="BX70" s="12"/>
+      <c r="BY70" s="12"/>
+      <c r="BZ70" s="12"/>
+      <c r="CA70" s="12"/>
+      <c r="CB70" s="12"/>
+      <c r="CC70" s="12"/>
+      <c r="CD70" s="12"/>
+      <c r="CE70" s="12"/>
+      <c r="CF70" s="12"/>
+      <c r="CG70" s="12"/>
+      <c r="CH70" s="12"/>
+      <c r="CI70" s="12"/>
+      <c r="CJ70" s="12"/>
+      <c r="CK70" s="12"/>
+      <c r="CL70" s="12"/>
+      <c r="CM70" s="12"/>
+      <c r="CN70" s="12"/>
+      <c r="CO70" s="12"/>
+      <c r="CP70" s="12"/>
+      <c r="CQ70" s="12"/>
+      <c r="CR70" s="12"/>
+      <c r="CS70" s="12"/>
+      <c r="CT70" s="12"/>
+      <c r="CU70" s="12"/>
+      <c r="CV70" s="12"/>
+      <c r="CW70" s="12"/>
+      <c r="CX70" s="12"/>
+      <c r="CY70" s="12"/>
+      <c r="CZ70" s="12"/>
+      <c r="DA70" s="12"/>
+      <c r="DB70" s="12"/>
+      <c r="DC70" s="12"/>
+      <c r="DD70" s="12"/>
+      <c r="DE70" s="12"/>
+      <c r="DF70" s="12"/>
+      <c r="DG70" s="12"/>
+      <c r="DH70" s="12"/>
+      <c r="DI70" s="12"/>
+      <c r="DJ70" s="12"/>
+      <c r="DK70" s="12"/>
+      <c r="DL70" s="12"/>
+      <c r="DM70" s="12"/>
+      <c r="DN70" s="12"/>
+      <c r="DO70" s="12"/>
+      <c r="DP70" s="12"/>
+      <c r="DQ70" s="12"/>
+      <c r="DR70" s="12"/>
+      <c r="DS70" s="12"/>
+      <c r="DT70" s="12"/>
+      <c r="DU70" s="12"/>
+      <c r="DV70" s="12"/>
+      <c r="DW70" s="12"/>
+      <c r="DX70" s="12"/>
+      <c r="DY70" s="12"/>
+      <c r="DZ70" s="12"/>
+      <c r="EA70" s="12"/>
+      <c r="EB70" s="12"/>
+      <c r="EC70" s="12"/>
+      <c r="ED70" s="12"/>
+      <c r="EE70" s="12"/>
+      <c r="EF70" s="12"/>
+      <c r="EG70" s="12"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D5:EG37">
-    <cfRule type="expression" dxfId="40" priority="40">
+  <conditionalFormatting sqref="D5:EG30 D32:EG32 D34:EG40 D41:CL44 CP41:EG44 CM42:CO44 D45:EG70">
+    <cfRule type="expression" dxfId="43" priority="62">
       <formula>D$5=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="41">
+    <cfRule type="expression" dxfId="42" priority="63">
       <formula>D$5=$C$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:AH4">
-    <cfRule type="expression" dxfId="38" priority="39">
+    <cfRule type="expression" dxfId="41" priority="61">
       <formula>D$5=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24:CL25 CP24:EG25 D7:EG23 D26:EG31">
-    <cfRule type="expression" dxfId="37" priority="47">
+  <conditionalFormatting sqref="D7:EG23 D26:EG30 D23:CL29 CP23:EG29 D32:CL32 CP32:EG32 D34:CL70 CP34:EG70">
+    <cfRule type="expression" dxfId="40" priority="69">
       <formula>AND(D$5&gt;=$B7,D$5&lt;=$C7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:AY6">
-    <cfRule type="expression" dxfId="36" priority="33">
+    <cfRule type="expression" dxfId="39" priority="55">
       <formula>AND(D$5&gt;=$B6,D$5&lt;=$C6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA6:EG6">
-    <cfRule type="expression" dxfId="35" priority="32">
+    <cfRule type="expression" dxfId="38" priority="54">
       <formula>AND(BA$5&gt;=$B6,BA$5&lt;=$C6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:EG37 D30:CI30 CQ30:EG30">
-    <cfRule type="expression" dxfId="34" priority="50">
+  <conditionalFormatting sqref="D30:CI30 CQ30:EG30">
+    <cfRule type="expression" dxfId="37" priority="72">
       <formula>AND(D$5&gt;=#REF!,D$5&lt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21:EG23 D24:CL24 BA20:EG25 BA26:CI30 CQ26:EG30">
-    <cfRule type="expression" dxfId="33" priority="54">
+  <conditionalFormatting sqref="D21:EG23 BA26:CI30 CQ26:EG30 D23:CL29 BA20:EG29 D32:EG32 D34:EG40 D41:CL44 CP41:EG44 CM42:CO44 D45:EG70">
+    <cfRule type="expression" dxfId="36" priority="76">
       <formula>AND(D$5&gt;=#REF!,D$5&lt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CM22:CO22">
-    <cfRule type="expression" dxfId="32" priority="108">
+    <cfRule type="expression" dxfId="35" priority="130">
       <formula>AND(CM$5&gt;=$B28,CM$5&lt;=$C28)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:EG34">
-    <cfRule type="expression" dxfId="31" priority="128">
-      <formula>AND(D$5&gt;=#REF!,D$5&lt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D27:CI27 CQ27:EG27">
-    <cfRule type="expression" dxfId="30" priority="130">
+    <cfRule type="expression" dxfId="34" priority="152">
       <formula>AND(D$5&gt;=#REF!,D$5&lt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:CI26 CQ26:EG26 CM25:CO25">
-    <cfRule type="expression" dxfId="29" priority="134">
+    <cfRule type="expression" dxfId="33" priority="156">
       <formula>AND(D$5&gt;=#REF!,D$5&lt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CM23:CO23">
-    <cfRule type="expression" dxfId="28" priority="175">
+    <cfRule type="expression" dxfId="32" priority="197">
       <formula>AND(CM$5&gt;=$B30,CM$5&lt;=$C30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:EG20">
-    <cfRule type="expression" dxfId="27" priority="179">
+    <cfRule type="expression" dxfId="31" priority="201">
       <formula>AND(D$5&gt;=$B30,D$5&lt;=$C30)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CM24:CO25">
-    <cfRule type="expression" dxfId="26" priority="185">
-      <formula>AND(CM$5&gt;=$B25,CM$5&lt;=$C25)</formula>
+  <conditionalFormatting sqref="CM23:CO29 CM35:CO40 CM42:CO43 CM45:CO70">
+    <cfRule type="expression" dxfId="30" priority="207">
+      <formula>AND(CM$5&gt;=$B24,CM$5&lt;=$C24)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CJ26:CP30">
-    <cfRule type="expression" dxfId="25" priority="13">
+    <cfRule type="expression" dxfId="29" priority="35">
       <formula>AND(CJ$5&gt;=#REF!,CJ$5&lt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32:EG34 D35:CL35 BA36:CL36 CM35:EG36 BA37:CI37 CQ37:EG37">
-    <cfRule type="expression" dxfId="24" priority="3">
+  <conditionalFormatting sqref="D25:CL25 CP25:EG25">
+    <cfRule type="expression" dxfId="28" priority="296">
+      <formula>AND(D$5&gt;=$B32,D$5&lt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CM23:CO24 CM27:CO29 CM32:CO32 CM35:CO40 CM42:CO43 CM45:CO70">
+    <cfRule type="expression" dxfId="27" priority="299">
+      <formula>AND(CM$5&gt;=$B31,CM$5&lt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CJ30:CP30">
+    <cfRule type="expression" dxfId="26" priority="324">
+      <formula>AND(CJ$5&gt;=$B37,CJ$5&lt;=$C35)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CJ29:CP29">
+    <cfRule type="expression" dxfId="25" priority="329">
+      <formula>AND(CJ$5&gt;=$B37,CJ$5&lt;=$C35)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CJ26:CP26">
+    <cfRule type="expression" dxfId="24" priority="331">
+      <formula>AND(CJ$5&gt;=$B37,CJ$5&lt;=$C35)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28:CI28 CQ28:EG28">
+    <cfRule type="expression" dxfId="23" priority="320">
+      <formula>AND(D$5&gt;=$B34,D$5&lt;=$C32)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31:EG31">
+    <cfRule type="expression" dxfId="22" priority="20">
+      <formula>D$5=TODAY()</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="21">
+      <formula>D$5=$C$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31:EG31">
+    <cfRule type="expression" dxfId="20" priority="22">
+      <formula>AND(D$5&gt;=$B31,D$5&lt;=$C31)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CM25:CO25">
+    <cfRule type="expression" dxfId="19" priority="335">
+      <formula>AND(CM$5&gt;=$B34,CM$5&lt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CM26:CO26">
+    <cfRule type="expression" dxfId="18" priority="336">
+      <formula>AND(CM$5&gt;=#REF!,CM$5&lt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CM25:CO25">
+    <cfRule type="expression" dxfId="17" priority="337">
+      <formula>AND(CM$5&gt;=$B34,CM$5&lt;=$C32)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29:CI29 CQ29:EG29">
+    <cfRule type="expression" dxfId="16" priority="338">
       <formula>AND(D$5&gt;=#REF!,D$5&lt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37:CI37 CQ37:EG37 CM36:CO36">
-    <cfRule type="expression" dxfId="23" priority="5">
+  <conditionalFormatting sqref="D30:CI30 CQ30:EG30">
+    <cfRule type="expression" dxfId="15" priority="340">
       <formula>AND(D$5&gt;=#REF!,D$5&lt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CJ37:CP37">
-    <cfRule type="expression" dxfId="22" priority="2">
-      <formula>AND(CJ$5&gt;=#REF!,CJ$5&lt;=#REF!)</formula>
+  <conditionalFormatting sqref="CJ28:CP28">
+    <cfRule type="expression" dxfId="14" priority="344">
+      <formula>AND(CJ$5&gt;=$B36,CJ$5&lt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32:EG37">
-    <cfRule type="expression" dxfId="21" priority="1">
+  <conditionalFormatting sqref="CM34:CO34">
+    <cfRule type="expression" dxfId="13" priority="357">
+      <formula>AND(CM$5&gt;=#REF!,CM$5&lt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CM32:CO32">
+    <cfRule type="expression" dxfId="12" priority="358">
+      <formula>AND(CM$5&gt;=$B34,CM$5&lt;=$C34)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CM34:CO34">
+    <cfRule type="expression" dxfId="11" priority="360">
+      <formula>AND(CM$5&gt;=$B41,CM$5&lt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33:EG33">
+    <cfRule type="expression" dxfId="10" priority="6">
+      <formula>D$5=TODAY()</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="7">
+      <formula>D$5=$C$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33:EG33">
+    <cfRule type="expression" dxfId="8" priority="8">
+      <formula>AND(D$5&gt;=$B33,D$5&lt;=$C33)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33:EG33">
+    <cfRule type="expression" dxfId="7" priority="9">
       <formula>AND(D$5&gt;=#REF!,D$5&lt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33:EG33">
-    <cfRule type="expression" dxfId="20" priority="263">
-      <formula>AND(D$5&gt;=$B33,D$5&lt;=$C32)</formula>
+  <conditionalFormatting sqref="CM44:CO44">
+    <cfRule type="expression" dxfId="6" priority="374">
+      <formula>AND(CM$5&gt;=$B42,CM$5&lt;=$C42)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32:EG32">
-    <cfRule type="expression" dxfId="19" priority="264">
-      <formula>AND(D$5&gt;=$B32,D$5&lt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35:EG35">
-    <cfRule type="expression" dxfId="18" priority="266">
-      <formula>AND(D$5&gt;=$B33,D$5&lt;=$C32)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28:CI28 CQ28:EG28">
-    <cfRule type="expression" dxfId="17" priority="267">
-      <formula>AND(D$5&gt;=$B33,D$5&lt;=$C32)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33:EG33">
-    <cfRule type="expression" dxfId="16" priority="270">
-      <formula>AND(D$5&gt;=$B32,D$5&lt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25:CL25 CP25:EG25">
-    <cfRule type="expression" dxfId="15" priority="274">
-      <formula>AND(D$5&gt;=$B32,D$5&lt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CM24:CO24">
-    <cfRule type="expression" dxfId="14" priority="277">
-      <formula>AND(CM$5&gt;=$B32,CM$5&lt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CM25:CO25">
-    <cfRule type="expression" dxfId="13" priority="278">
-      <formula>AND(CM$5&gt;=$B33,CM$5&lt;=$C32)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35:EG37">
-    <cfRule type="expression" dxfId="12" priority="287">
-      <formula>AND(D$5&gt;=$B35,D$5&lt;=$C33)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34:EG34">
-    <cfRule type="expression" dxfId="11" priority="288">
-      <formula>AND(D$5&gt;=$B34,D$5&lt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37:EG37">
-    <cfRule type="expression" dxfId="10" priority="291">
-      <formula>AND(D$5&gt;=$B35,D$5&lt;=$C33)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36:EG36">
-    <cfRule type="expression" dxfId="9" priority="292">
-      <formula>AND(D$5&gt;=$B34,D$5&lt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29:CI29 CQ29:EG29">
-    <cfRule type="expression" dxfId="8" priority="295">
-      <formula>AND(D$5&gt;=$B34,D$5&lt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32:EG37">
-    <cfRule type="expression" dxfId="7" priority="298">
-      <formula>AND(D$5&gt;=$B37,D$5&lt;=$C35)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31:EG32">
-    <cfRule type="expression" dxfId="6" priority="299">
-      <formula>AND(D$5&gt;=$B35,D$5&lt;=$C33)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30:CI30 CQ30:EG30">
-    <cfRule type="expression" dxfId="5" priority="300">
-      <formula>AND(D$5&gt;=$B34,D$5&lt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CJ30:CP30 D36:CL36 CP36:EG36 CM34:CO34">
-    <cfRule type="expression" dxfId="4" priority="302">
-      <formula>AND(D$5&gt;=$B37,D$5&lt;=$C35)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CJ28:CP29 CM35:CO36">
-    <cfRule type="expression" dxfId="3" priority="307">
-      <formula>AND(CJ$5&gt;=$B36,CJ$5&lt;=$C34)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CJ26:CP26 CJ37:CP37">
-    <cfRule type="expression" dxfId="2" priority="309">
-      <formula>AND(CJ$5&gt;=$B37,CJ$5&lt;=$C35)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CM33:CO33">
-    <cfRule type="expression" dxfId="1" priority="311">
-      <formula>AND(CM$5&gt;=$B39,CM$5&lt;=$C37)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CM35:CO36">
-    <cfRule type="expression" dxfId="0" priority="312">
-      <formula>AND(CM$5&gt;=$B36,CM$5&lt;=$C34)</formula>
+  <conditionalFormatting sqref="CM44:CO44">
+    <cfRule type="expression" dxfId="5" priority="376">
+      <formula>AND(CM$5&gt;=$B49,CM$5&lt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Arbeitsdokumente/Projektplan GANTT.xlsx
+++ b/Arbeitsdokumente/Projektplan GANTT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan Samardzic\Documents\GitHub\PS_InfoEng\Arbeitsdokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3A7E3F5A-DA28-489C-88EB-FDF9FF6D2763}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CD0CFD2E-16C3-4B6F-8FA4-9F3378CC28F0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="47">
   <si>
     <t>Projektbeginn:</t>
   </si>
@@ -136,6 +136,36 @@
   </si>
   <si>
     <t>Abstimmung mit Projektpartner inkl. Finales Feedback</t>
+  </si>
+  <si>
+    <t>3.Meilenstein</t>
+  </si>
+  <si>
+    <t>Auswertungsstrategie erstellen</t>
+  </si>
+  <si>
+    <t>Finalen Fragebogen in Microsoft Forms überleiten</t>
+  </si>
+  <si>
+    <t>Poster &amp; Management Paper erstellen</t>
+  </si>
+  <si>
+    <t>Finale Abstimmung mit Projektpartner &amp; JKU</t>
+  </si>
+  <si>
+    <t>PHASE 4</t>
+  </si>
+  <si>
+    <t>Vorbereitung für das Event</t>
+  </si>
+  <si>
+    <t>Abgabe der schriftlichen Projektarbeit</t>
+  </si>
+  <si>
+    <t>Interview mit Probeunternehmen leiten &amp; Feedback einarbeiten</t>
+  </si>
+  <si>
+    <t>Finalisieren der schriftlichen Projektarbeit &amp; korrekturlesen</t>
   </si>
 </sst>
 </file>
@@ -402,7 +432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -444,63 +474,14 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="44">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="7"/>
-        </left>
-        <right style="thin">
-          <color theme="7"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="39">
     <dxf>
       <fill>
         <patternFill>
@@ -1140,17 +1121,18 @@
   </sheetPr>
   <dimension ref="A1:EG70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="CV36" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="DE33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C46" sqref="C46"/>
+      <selection pane="bottomRight" activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.85546875" customWidth="1"/>
-    <col min="2" max="3" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="64.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="2" customWidth="1"/>
     <col min="4" max="34" width="5.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7481,9 +7463,15 @@
       <c r="EG45" s="12"/>
     </row>
     <row r="46" spans="1:137" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
+      <c r="A46" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="10">
+        <v>43473</v>
+      </c>
+      <c r="C46" s="10">
+        <v>43473</v>
+      </c>
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
@@ -7620,9 +7608,15 @@
       <c r="EG46" s="12"/>
     </row>
     <row r="47" spans="1:137" x14ac:dyDescent="0.25">
-      <c r="A47" s="9"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
+      <c r="A47" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="10">
+        <v>43480</v>
+      </c>
+      <c r="C47" s="10">
+        <v>43480</v>
+      </c>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
@@ -7759,9 +7753,15 @@
       <c r="EG47" s="12"/>
     </row>
     <row r="48" spans="1:137" x14ac:dyDescent="0.25">
-      <c r="A48" s="9"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
+      <c r="A48" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="10">
+        <v>43476</v>
+      </c>
+      <c r="C48" s="10">
+        <v>43476</v>
+      </c>
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
@@ -7898,9 +7898,15 @@
       <c r="EG48" s="12"/>
     </row>
     <row r="49" spans="1:137" x14ac:dyDescent="0.25">
-      <c r="A49" s="9"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
+      <c r="A49" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49" s="10">
+        <v>43481</v>
+      </c>
+      <c r="C49" s="10">
+        <v>43481</v>
+      </c>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
@@ -8036,10 +8042,16 @@
       <c r="EF49" s="12"/>
       <c r="EG49" s="12"/>
     </row>
-    <row r="50" spans="1:137" x14ac:dyDescent="0.25">
-      <c r="A50" s="9"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
+    <row r="50" spans="1:137" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" s="21">
+        <v>43482</v>
+      </c>
+      <c r="C50" s="22">
+        <v>43500</v>
+      </c>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
@@ -8176,9 +8188,15 @@
       <c r="EG50" s="12"/>
     </row>
     <row r="51" spans="1:137" x14ac:dyDescent="0.25">
-      <c r="A51" s="9"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
+      <c r="A51" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" s="10">
+        <v>43481</v>
+      </c>
+      <c r="C51" s="10">
+        <v>43482</v>
+      </c>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
@@ -8315,9 +8333,15 @@
       <c r="EG51" s="12"/>
     </row>
     <row r="52" spans="1:137" x14ac:dyDescent="0.25">
-      <c r="A52" s="9"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
+      <c r="A52" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B52" s="10">
+        <v>43482</v>
+      </c>
+      <c r="C52" s="10">
+        <v>43496</v>
+      </c>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
       <c r="F52" s="12"/>
@@ -8454,9 +8478,15 @@
       <c r="EG52" s="12"/>
     </row>
     <row r="53" spans="1:137" x14ac:dyDescent="0.25">
-      <c r="A53" s="9"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
+      <c r="A53" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B53" s="10">
+        <v>43490</v>
+      </c>
+      <c r="C53" s="10">
+        <v>43496</v>
+      </c>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
       <c r="F53" s="12"/>
@@ -8593,9 +8623,15 @@
       <c r="EG53" s="12"/>
     </row>
     <row r="54" spans="1:137" x14ac:dyDescent="0.25">
-      <c r="A54" s="9"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
+      <c r="A54" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B54" s="10">
+        <v>43486</v>
+      </c>
+      <c r="C54" s="10">
+        <v>43500</v>
+      </c>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
       <c r="F54" s="12"/>
@@ -8732,9 +8768,15 @@
       <c r="EG54" s="12"/>
     </row>
     <row r="55" spans="1:137" x14ac:dyDescent="0.25">
-      <c r="A55" s="9"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
+      <c r="A55" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B55" s="10">
+        <v>43486</v>
+      </c>
+      <c r="C55" s="10">
+        <v>43501</v>
+      </c>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
       <c r="F55" s="12"/>
@@ -8871,9 +8913,15 @@
       <c r="EG55" s="12"/>
     </row>
     <row r="56" spans="1:137" x14ac:dyDescent="0.25">
-      <c r="A56" s="9"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
+      <c r="A56" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B56" s="10">
+        <v>43501</v>
+      </c>
+      <c r="C56" s="10">
+        <v>43508</v>
+      </c>
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
       <c r="F56" s="12"/>
@@ -9010,9 +9058,15 @@
       <c r="EG56" s="12"/>
     </row>
     <row r="57" spans="1:137" x14ac:dyDescent="0.25">
-      <c r="A57" s="9"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
+      <c r="A57" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B57" s="10">
+        <v>43490</v>
+      </c>
+      <c r="C57" s="10">
+        <v>43509</v>
+      </c>
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
       <c r="F57" s="12"/>
@@ -9149,9 +9203,15 @@
       <c r="EG57" s="12"/>
     </row>
     <row r="58" spans="1:137" x14ac:dyDescent="0.25">
-      <c r="A58" s="9"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
+      <c r="A58" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B58" s="10">
+        <v>43509</v>
+      </c>
+      <c r="C58" s="10">
+        <v>43509</v>
+      </c>
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
       <c r="F58" s="12"/>
@@ -10957,191 +11017,191 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D5:EG30 D32:EG32 D34:EG40 D41:CL44 CP41:EG44 CM42:CO44 D45:EG70">
-    <cfRule type="expression" dxfId="43" priority="62">
+    <cfRule type="expression" dxfId="38" priority="62">
       <formula>D$5=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="63">
+    <cfRule type="expression" dxfId="37" priority="63">
       <formula>D$5=$C$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:AH4">
-    <cfRule type="expression" dxfId="41" priority="61">
+    <cfRule type="expression" dxfId="36" priority="61">
       <formula>D$5=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:EG23 D26:EG30 D23:CL29 CP23:EG29 D32:CL32 CP32:EG32 D34:CL70 CP34:EG70">
-    <cfRule type="expression" dxfId="40" priority="69">
+    <cfRule type="expression" dxfId="35" priority="69">
       <formula>AND(D$5&gt;=$B7,D$5&lt;=$C7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:AY6">
-    <cfRule type="expression" dxfId="39" priority="55">
+    <cfRule type="expression" dxfId="34" priority="55">
       <formula>AND(D$5&gt;=$B6,D$5&lt;=$C6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA6:EG6">
-    <cfRule type="expression" dxfId="38" priority="54">
+    <cfRule type="expression" dxfId="33" priority="54">
       <formula>AND(BA$5&gt;=$B6,BA$5&lt;=$C6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30:CI30 CQ30:EG30">
-    <cfRule type="expression" dxfId="37" priority="72">
+    <cfRule type="expression" dxfId="32" priority="72">
       <formula>AND(D$5&gt;=#REF!,D$5&lt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:EG23 BA26:CI30 CQ26:EG30 D23:CL29 BA20:EG29 D32:EG32 D34:EG40 D41:CL44 CP41:EG44 CM42:CO44 D45:EG70">
-    <cfRule type="expression" dxfId="36" priority="76">
+    <cfRule type="expression" dxfId="31" priority="76">
       <formula>AND(D$5&gt;=#REF!,D$5&lt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CM22:CO22">
-    <cfRule type="expression" dxfId="35" priority="130">
+    <cfRule type="expression" dxfId="30" priority="130">
       <formula>AND(CM$5&gt;=$B28,CM$5&lt;=$C28)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:CI27 CQ27:EG27">
-    <cfRule type="expression" dxfId="34" priority="152">
+    <cfRule type="expression" dxfId="29" priority="152">
       <formula>AND(D$5&gt;=#REF!,D$5&lt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:CI26 CQ26:EG26 CM25:CO25">
-    <cfRule type="expression" dxfId="33" priority="156">
+    <cfRule type="expression" dxfId="28" priority="156">
       <formula>AND(D$5&gt;=#REF!,D$5&lt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CM23:CO23">
-    <cfRule type="expression" dxfId="32" priority="197">
+    <cfRule type="expression" dxfId="27" priority="197">
       <formula>AND(CM$5&gt;=$B30,CM$5&lt;=$C30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:EG20">
-    <cfRule type="expression" dxfId="31" priority="201">
+    <cfRule type="expression" dxfId="26" priority="201">
       <formula>AND(D$5&gt;=$B30,D$5&lt;=$C30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CM23:CO29 CM35:CO40 CM42:CO43 CM45:CO70">
-    <cfRule type="expression" dxfId="30" priority="207">
+    <cfRule type="expression" dxfId="25" priority="207">
       <formula>AND(CM$5&gt;=$B24,CM$5&lt;=$C24)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CJ26:CP30">
-    <cfRule type="expression" dxfId="29" priority="35">
+    <cfRule type="expression" dxfId="24" priority="35">
       <formula>AND(CJ$5&gt;=#REF!,CJ$5&lt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:CL25 CP25:EG25">
-    <cfRule type="expression" dxfId="28" priority="296">
+    <cfRule type="expression" dxfId="23" priority="296">
       <formula>AND(D$5&gt;=$B32,D$5&lt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CM23:CO24 CM27:CO29 CM32:CO32 CM35:CO40 CM42:CO43 CM45:CO70">
-    <cfRule type="expression" dxfId="27" priority="299">
+    <cfRule type="expression" dxfId="22" priority="299">
       <formula>AND(CM$5&gt;=$B31,CM$5&lt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CJ30:CP30">
-    <cfRule type="expression" dxfId="26" priority="324">
+    <cfRule type="expression" dxfId="21" priority="324">
       <formula>AND(CJ$5&gt;=$B37,CJ$5&lt;=$C35)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CJ29:CP29">
-    <cfRule type="expression" dxfId="25" priority="329">
+    <cfRule type="expression" dxfId="20" priority="329">
       <formula>AND(CJ$5&gt;=$B37,CJ$5&lt;=$C35)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CJ26:CP26">
-    <cfRule type="expression" dxfId="24" priority="331">
+    <cfRule type="expression" dxfId="19" priority="331">
       <formula>AND(CJ$5&gt;=$B37,CJ$5&lt;=$C35)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:CI28 CQ28:EG28">
-    <cfRule type="expression" dxfId="23" priority="320">
+    <cfRule type="expression" dxfId="18" priority="320">
       <formula>AND(D$5&gt;=$B34,D$5&lt;=$C32)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:EG31">
-    <cfRule type="expression" dxfId="22" priority="20">
+    <cfRule type="expression" dxfId="17" priority="20">
       <formula>D$5=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="21">
+    <cfRule type="expression" dxfId="16" priority="21">
       <formula>D$5=$C$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:EG31">
-    <cfRule type="expression" dxfId="20" priority="22">
+    <cfRule type="expression" dxfId="15" priority="22">
       <formula>AND(D$5&gt;=$B31,D$5&lt;=$C31)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CM25:CO25">
-    <cfRule type="expression" dxfId="19" priority="335">
+    <cfRule type="expression" dxfId="14" priority="335">
       <formula>AND(CM$5&gt;=$B34,CM$5&lt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CM26:CO26">
-    <cfRule type="expression" dxfId="18" priority="336">
+    <cfRule type="expression" dxfId="13" priority="336">
       <formula>AND(CM$5&gt;=#REF!,CM$5&lt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CM25:CO25">
-    <cfRule type="expression" dxfId="17" priority="337">
+    <cfRule type="expression" dxfId="12" priority="337">
       <formula>AND(CM$5&gt;=$B34,CM$5&lt;=$C32)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:CI29 CQ29:EG29">
-    <cfRule type="expression" dxfId="16" priority="338">
+    <cfRule type="expression" dxfId="11" priority="338">
       <formula>AND(D$5&gt;=#REF!,D$5&lt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30:CI30 CQ30:EG30">
-    <cfRule type="expression" dxfId="15" priority="340">
+    <cfRule type="expression" dxfId="10" priority="340">
       <formula>AND(D$5&gt;=#REF!,D$5&lt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CJ28:CP28">
-    <cfRule type="expression" dxfId="14" priority="344">
+    <cfRule type="expression" dxfId="9" priority="344">
       <formula>AND(CJ$5&gt;=$B36,CJ$5&lt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CM34:CO34">
-    <cfRule type="expression" dxfId="13" priority="357">
+    <cfRule type="expression" dxfId="8" priority="357">
       <formula>AND(CM$5&gt;=#REF!,CM$5&lt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CM32:CO32">
-    <cfRule type="expression" dxfId="12" priority="358">
+    <cfRule type="expression" dxfId="7" priority="358">
       <formula>AND(CM$5&gt;=$B34,CM$5&lt;=$C34)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CM34:CO34">
-    <cfRule type="expression" dxfId="11" priority="360">
+    <cfRule type="expression" dxfId="6" priority="360">
       <formula>AND(CM$5&gt;=$B41,CM$5&lt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33:EG33">
-    <cfRule type="expression" dxfId="10" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>D$5=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="7">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>D$5=$C$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33:EG33">
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="3" priority="8">
       <formula>AND(D$5&gt;=$B33,D$5&lt;=$C33)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33:EG33">
-    <cfRule type="expression" dxfId="7" priority="9">
+    <cfRule type="expression" dxfId="2" priority="9">
       <formula>AND(D$5&gt;=#REF!,D$5&lt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CM44:CO44">
-    <cfRule type="expression" dxfId="6" priority="374">
+    <cfRule type="expression" dxfId="1" priority="374">
       <formula>AND(CM$5&gt;=$B42,CM$5&lt;=$C42)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CM44:CO44">
-    <cfRule type="expression" dxfId="5" priority="376">
+    <cfRule type="expression" dxfId="0" priority="376">
       <formula>AND(CM$5&gt;=$B49,CM$5&lt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Arbeitsdokumente/Projektplan GANTT.xlsx
+++ b/Arbeitsdokumente/Projektplan GANTT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan Samardzic\Documents\GitHub\PS_InfoEng\Arbeitsdokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CD0CFD2E-16C3-4B6F-8FA4-9F3378CC28F0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{83213826-E09F-4768-8E0F-AA70A642DA5F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1122,7 +1122,7 @@
   <dimension ref="A1:EG70"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="DE33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="DE37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="A58" sqref="A58"/>

--- a/Arbeitsdokumente/Projektplan GANTT.xlsx
+++ b/Arbeitsdokumente/Projektplan GANTT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan Samardzic\Documents\GitHub\PS_InfoEng\Arbeitsdokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{83213826-E09F-4768-8E0F-AA70A642DA5F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC1E746-2057-4910-AA2A-C4AE85D2BF38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="46">
   <si>
     <t>Projektbeginn:</t>
   </si>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>Abstimmung Projektpartner (Erhebungstool-Microsoft Forms)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Weekly-Scrum</t>
   </si>
   <si>
     <t>Abstimmung mit Projektpartner (Auswahl der Fragen)</t>
@@ -1122,10 +1119,10 @@
   <dimension ref="A1:EG70"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="DE37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="DE36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A58" sqref="A58"/>
+      <selection pane="bottomRight" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1667,7 +1664,7 @@
     </row>
     <row r="6" spans="1:137" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="10">
         <v>43376</v>
@@ -3987,7 +3984,7 @@
     </row>
     <row r="22" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="10">
         <v>43403</v>
@@ -4422,7 +4419,7 @@
     </row>
     <row r="25" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="10">
         <v>43416</v>
@@ -4567,7 +4564,7 @@
     </row>
     <row r="26" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B26" s="10">
         <v>43417</v>
@@ -4712,7 +4709,7 @@
     </row>
     <row r="27" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="10">
         <v>43418</v>
@@ -4857,7 +4854,7 @@
     </row>
     <row r="28" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28" s="10">
         <v>43423</v>
@@ -5292,7 +5289,7 @@
     </row>
     <row r="31" spans="1:137" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31" s="21">
         <v>43425</v>
@@ -5582,7 +5579,7 @@
     </row>
     <row r="33" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B33" s="3">
         <v>43426</v>
@@ -5872,7 +5869,7 @@
     </row>
     <row r="35" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B35" s="10">
         <v>43438</v>
@@ -6017,7 +6014,7 @@
     </row>
     <row r="36" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B36" s="10">
         <v>43439</v>
@@ -6162,7 +6159,7 @@
     </row>
     <row r="37" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B37" s="10">
         <v>43439</v>
@@ -6307,7 +6304,7 @@
     </row>
     <row r="38" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B38" s="10">
         <v>43439</v>
@@ -6597,7 +6594,7 @@
     </row>
     <row r="40" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B40" s="10">
         <v>43446</v>
@@ -6742,7 +6739,7 @@
     </row>
     <row r="41" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B41" s="10">
         <v>43447</v>
@@ -6884,7 +6881,7 @@
     </row>
     <row r="42" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B42" s="10">
         <v>43453</v>
@@ -7029,7 +7026,7 @@
     </row>
     <row r="43" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B43" s="10">
         <v>43454</v>
@@ -7174,7 +7171,7 @@
     </row>
     <row r="44" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B44" s="10">
         <v>43429</v>
@@ -7319,7 +7316,7 @@
     </row>
     <row r="45" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B45" s="10">
         <v>43472</v>
@@ -7899,7 +7896,7 @@
     </row>
     <row r="49" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B49" s="10">
         <v>43481</v>
@@ -8044,7 +8041,7 @@
     </row>
     <row r="50" spans="1:137" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B50" s="21">
         <v>43482</v>
@@ -8189,7 +8186,7 @@
     </row>
     <row r="51" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B51" s="10">
         <v>43481</v>
@@ -8334,7 +8331,7 @@
     </row>
     <row r="52" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A52" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B52" s="10">
         <v>43482</v>
@@ -8479,7 +8476,7 @@
     </row>
     <row r="53" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B53" s="10">
         <v>43490</v>
@@ -8624,7 +8621,7 @@
     </row>
     <row r="54" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B54" s="10">
         <v>43486</v>
@@ -8769,7 +8766,7 @@
     </row>
     <row r="55" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B55" s="10">
         <v>43486</v>
@@ -8914,7 +8911,7 @@
     </row>
     <row r="56" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B56" s="10">
         <v>43501</v>
@@ -9059,7 +9056,7 @@
     </row>
     <row r="57" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B57" s="10">
         <v>43490</v>
@@ -9204,7 +9201,7 @@
     </row>
     <row r="58" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B58" s="10">
         <v>43509</v>

--- a/Arbeitsdokumente/Projektplan GANTT.xlsx
+++ b/Arbeitsdokumente/Projektplan GANTT.xlsx
@@ -8,24 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan Samardzic\Documents\GitHub\PS_InfoEng\Arbeitsdokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC1E746-2057-4910-AA2A-C4AE85D2BF38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0ABB814-6710-4469-91D5-D183E0C55B6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="46">
   <si>
     <t>Projektbeginn:</t>
   </si>
@@ -478,7 +483,14 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="40">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1116,13 +1128,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:EG70"/>
+  <dimension ref="A1:EG71"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="DE36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="DS39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A27" sqref="A27"/>
+      <selection pane="bottomRight" activeCell="DW64" sqref="DW64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8766,13 +8778,13 @@
     </row>
     <row r="55" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B55" s="10">
-        <v>43486</v>
+        <v>43500</v>
       </c>
       <c r="C55" s="10">
-        <v>43501</v>
+        <v>43507</v>
       </c>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
@@ -8911,13 +8923,13 @@
     </row>
     <row r="56" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B56" s="10">
+        <v>43486</v>
+      </c>
+      <c r="C56" s="10">
         <v>43501</v>
-      </c>
-      <c r="C56" s="10">
-        <v>43508</v>
       </c>
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
@@ -9056,13 +9068,13 @@
     </row>
     <row r="57" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B57" s="10">
-        <v>43490</v>
+        <v>43501</v>
       </c>
       <c r="C57" s="10">
-        <v>43509</v>
+        <v>43508</v>
       </c>
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
@@ -9201,13 +9213,13 @@
     </row>
     <row r="58" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B58" s="10">
-        <v>43509</v>
+        <v>43490</v>
       </c>
       <c r="C58" s="10">
-        <v>43509</v>
+        <v>43508</v>
       </c>
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
@@ -9345,9 +9357,15 @@
       <c r="EG58" s="12"/>
     </row>
     <row r="59" spans="1:137" x14ac:dyDescent="0.25">
-      <c r="A59" s="9"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
+      <c r="A59" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B59" s="10">
+        <v>43508</v>
+      </c>
+      <c r="C59" s="10">
+        <v>43508</v>
+      </c>
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
       <c r="F59" s="12"/>
@@ -11012,194 +11030,338 @@
       <c r="EF70" s="12"/>
       <c r="EG70" s="12"/>
     </row>
+    <row r="71" spans="1:137" x14ac:dyDescent="0.25">
+      <c r="A71" s="9"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="12"/>
+      <c r="L71" s="12"/>
+      <c r="M71" s="12"/>
+      <c r="N71" s="12"/>
+      <c r="O71" s="12"/>
+      <c r="P71" s="12"/>
+      <c r="Q71" s="12"/>
+      <c r="R71" s="12"/>
+      <c r="S71" s="12"/>
+      <c r="T71" s="12"/>
+      <c r="U71" s="12"/>
+      <c r="V71" s="12"/>
+      <c r="W71" s="12"/>
+      <c r="X71" s="12"/>
+      <c r="Y71" s="12"/>
+      <c r="Z71" s="12"/>
+      <c r="AA71" s="12"/>
+      <c r="AB71" s="12"/>
+      <c r="AC71" s="12"/>
+      <c r="AD71" s="12"/>
+      <c r="AE71" s="12"/>
+      <c r="AF71" s="12"/>
+      <c r="AG71" s="12"/>
+      <c r="AH71" s="12"/>
+      <c r="AI71" s="12"/>
+      <c r="AJ71" s="12"/>
+      <c r="AK71" s="12"/>
+      <c r="AL71" s="12"/>
+      <c r="AM71" s="12"/>
+      <c r="AN71" s="12"/>
+      <c r="AO71" s="12"/>
+      <c r="AP71" s="12"/>
+      <c r="AQ71" s="12"/>
+      <c r="AR71" s="12"/>
+      <c r="AS71" s="12"/>
+      <c r="AT71" s="12"/>
+      <c r="AU71" s="12"/>
+      <c r="AV71" s="12"/>
+      <c r="AW71" s="12"/>
+      <c r="AX71" s="12"/>
+      <c r="AY71" s="12"/>
+      <c r="AZ71" s="12"/>
+      <c r="BA71" s="12"/>
+      <c r="BB71" s="12"/>
+      <c r="BC71" s="12"/>
+      <c r="BD71" s="12"/>
+      <c r="BE71" s="12"/>
+      <c r="BF71" s="12"/>
+      <c r="BG71" s="12"/>
+      <c r="BH71" s="12"/>
+      <c r="BI71" s="12"/>
+      <c r="BJ71" s="12"/>
+      <c r="BK71" s="12"/>
+      <c r="BL71" s="12"/>
+      <c r="BM71" s="12"/>
+      <c r="BN71" s="12"/>
+      <c r="BO71" s="12"/>
+      <c r="BP71" s="12"/>
+      <c r="BQ71" s="12"/>
+      <c r="BR71" s="12"/>
+      <c r="BS71" s="12"/>
+      <c r="BT71" s="12"/>
+      <c r="BU71" s="12"/>
+      <c r="BV71" s="12"/>
+      <c r="BW71" s="12"/>
+      <c r="BX71" s="12"/>
+      <c r="BY71" s="12"/>
+      <c r="BZ71" s="12"/>
+      <c r="CA71" s="12"/>
+      <c r="CB71" s="12"/>
+      <c r="CC71" s="12"/>
+      <c r="CD71" s="12"/>
+      <c r="CE71" s="12"/>
+      <c r="CF71" s="12"/>
+      <c r="CG71" s="12"/>
+      <c r="CH71" s="12"/>
+      <c r="CI71" s="12"/>
+      <c r="CJ71" s="12"/>
+      <c r="CK71" s="12"/>
+      <c r="CL71" s="12"/>
+      <c r="CM71" s="12"/>
+      <c r="CN71" s="12"/>
+      <c r="CO71" s="12"/>
+      <c r="CP71" s="12"/>
+      <c r="CQ71" s="12"/>
+      <c r="CR71" s="12"/>
+      <c r="CS71" s="12"/>
+      <c r="CT71" s="12"/>
+      <c r="CU71" s="12"/>
+      <c r="CV71" s="12"/>
+      <c r="CW71" s="12"/>
+      <c r="CX71" s="12"/>
+      <c r="CY71" s="12"/>
+      <c r="CZ71" s="12"/>
+      <c r="DA71" s="12"/>
+      <c r="DB71" s="12"/>
+      <c r="DC71" s="12"/>
+      <c r="DD71" s="12"/>
+      <c r="DE71" s="12"/>
+      <c r="DF71" s="12"/>
+      <c r="DG71" s="12"/>
+      <c r="DH71" s="12"/>
+      <c r="DI71" s="12"/>
+      <c r="DJ71" s="12"/>
+      <c r="DK71" s="12"/>
+      <c r="DL71" s="12"/>
+      <c r="DM71" s="12"/>
+      <c r="DN71" s="12"/>
+      <c r="DO71" s="12"/>
+      <c r="DP71" s="12"/>
+      <c r="DQ71" s="12"/>
+      <c r="DR71" s="12"/>
+      <c r="DS71" s="12"/>
+      <c r="DT71" s="12"/>
+      <c r="DU71" s="12"/>
+      <c r="DV71" s="12"/>
+      <c r="DW71" s="12"/>
+      <c r="DX71" s="12"/>
+      <c r="DY71" s="12"/>
+      <c r="DZ71" s="12"/>
+      <c r="EA71" s="12"/>
+      <c r="EB71" s="12"/>
+      <c r="EC71" s="12"/>
+      <c r="ED71" s="12"/>
+      <c r="EE71" s="12"/>
+      <c r="EF71" s="12"/>
+      <c r="EG71" s="12"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D5:EG30 D32:EG32 D34:EG40 D41:CL44 CP41:EG44 CM42:CO44 D45:EG70">
-    <cfRule type="expression" dxfId="38" priority="62">
+  <conditionalFormatting sqref="D5:EG30 D32:EG32 D34:EG40 D41:CL44 CP41:EG44 CM42:CO44 D45:EG71">
+    <cfRule type="expression" dxfId="39" priority="62">
       <formula>D$5=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="63">
+    <cfRule type="expression" dxfId="38" priority="63">
       <formula>D$5=$C$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:AH4">
-    <cfRule type="expression" dxfId="36" priority="61">
+    <cfRule type="expression" dxfId="37" priority="61">
       <formula>D$5=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7:EG23 D26:EG30 D23:CL29 CP23:EG29 D32:CL32 CP32:EG32 D34:CL70 CP34:EG70">
-    <cfRule type="expression" dxfId="35" priority="69">
+  <conditionalFormatting sqref="D7:EG23 D26:EG30 D23:CL29 CP23:EG29 D32:CL32 CP32:EG32 D34:CL71 CP34:EG71">
+    <cfRule type="expression" dxfId="36" priority="69">
       <formula>AND(D$5&gt;=$B7,D$5&lt;=$C7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:AY6">
-    <cfRule type="expression" dxfId="34" priority="55">
+    <cfRule type="expression" dxfId="35" priority="55">
       <formula>AND(D$5&gt;=$B6,D$5&lt;=$C6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA6:EG6">
-    <cfRule type="expression" dxfId="33" priority="54">
+    <cfRule type="expression" dxfId="34" priority="54">
       <formula>AND(BA$5&gt;=$B6,BA$5&lt;=$C6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30:CI30 CQ30:EG30">
-    <cfRule type="expression" dxfId="32" priority="72">
+    <cfRule type="expression" dxfId="33" priority="72">
       <formula>AND(D$5&gt;=#REF!,D$5&lt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21:EG23 BA26:CI30 CQ26:EG30 D23:CL29 BA20:EG29 D32:EG32 D34:EG40 D41:CL44 CP41:EG44 CM42:CO44 D45:EG70">
-    <cfRule type="expression" dxfId="31" priority="76">
+  <conditionalFormatting sqref="D21:EG23 BA26:CI30 CQ26:EG30 D23:CL29 BA20:EG29 D32:EG32 D34:EG40 D41:CL44 CP41:EG44 CM42:CO44 D45:EG71">
+    <cfRule type="expression" dxfId="32" priority="76">
       <formula>AND(D$5&gt;=#REF!,D$5&lt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CM22:CO22">
-    <cfRule type="expression" dxfId="30" priority="130">
+    <cfRule type="expression" dxfId="31" priority="130">
       <formula>AND(CM$5&gt;=$B28,CM$5&lt;=$C28)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:CI27 CQ27:EG27">
-    <cfRule type="expression" dxfId="29" priority="152">
+    <cfRule type="expression" dxfId="30" priority="152">
       <formula>AND(D$5&gt;=#REF!,D$5&lt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:CI26 CQ26:EG26 CM25:CO25">
-    <cfRule type="expression" dxfId="28" priority="156">
+    <cfRule type="expression" dxfId="29" priority="156">
       <formula>AND(D$5&gt;=#REF!,D$5&lt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CM23:CO23">
-    <cfRule type="expression" dxfId="27" priority="197">
+    <cfRule type="expression" dxfId="28" priority="197">
       <formula>AND(CM$5&gt;=$B30,CM$5&lt;=$C30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:EG20">
-    <cfRule type="expression" dxfId="26" priority="201">
+    <cfRule type="expression" dxfId="27" priority="201">
       <formula>AND(D$5&gt;=$B30,D$5&lt;=$C30)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CM23:CO29 CM35:CO40 CM42:CO43 CM45:CO70">
-    <cfRule type="expression" dxfId="25" priority="207">
+  <conditionalFormatting sqref="CM23:CO29 CM35:CO40 CM42:CO43 CM45:CO52 CM55:CO71">
+    <cfRule type="expression" dxfId="26" priority="207">
       <formula>AND(CM$5&gt;=$B24,CM$5&lt;=$C24)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CJ26:CP30">
-    <cfRule type="expression" dxfId="24" priority="35">
+    <cfRule type="expression" dxfId="25" priority="35">
       <formula>AND(CJ$5&gt;=#REF!,CJ$5&lt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:CL25 CP25:EG25">
-    <cfRule type="expression" dxfId="23" priority="296">
+    <cfRule type="expression" dxfId="24" priority="296">
       <formula>AND(D$5&gt;=$B32,D$5&lt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CM23:CO24 CM27:CO29 CM32:CO32 CM35:CO40 CM42:CO43 CM45:CO70">
-    <cfRule type="expression" dxfId="22" priority="299">
+  <conditionalFormatting sqref="CM23:CO24 CM27:CO29 CM32:CO32 CM35:CO40 CM42:CO43 CM45:CO45 CM55:CO71">
+    <cfRule type="expression" dxfId="23" priority="299">
       <formula>AND(CM$5&gt;=$B31,CM$5&lt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CJ30:CP30">
-    <cfRule type="expression" dxfId="21" priority="324">
+    <cfRule type="expression" dxfId="22" priority="324">
       <formula>AND(CJ$5&gt;=$B37,CJ$5&lt;=$C35)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CJ29:CP29">
-    <cfRule type="expression" dxfId="20" priority="329">
+    <cfRule type="expression" dxfId="21" priority="329">
       <formula>AND(CJ$5&gt;=$B37,CJ$5&lt;=$C35)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CJ26:CP26">
-    <cfRule type="expression" dxfId="19" priority="331">
+    <cfRule type="expression" dxfId="20" priority="331">
       <formula>AND(CJ$5&gt;=$B37,CJ$5&lt;=$C35)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:CI28 CQ28:EG28">
-    <cfRule type="expression" dxfId="18" priority="320">
+    <cfRule type="expression" dxfId="19" priority="320">
       <formula>AND(D$5&gt;=$B34,D$5&lt;=$C32)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:EG31">
-    <cfRule type="expression" dxfId="17" priority="20">
+    <cfRule type="expression" dxfId="18" priority="20">
       <formula>D$5=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="21">
+    <cfRule type="expression" dxfId="17" priority="21">
       <formula>D$5=$C$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:EG31">
-    <cfRule type="expression" dxfId="15" priority="22">
+    <cfRule type="expression" dxfId="16" priority="22">
       <formula>AND(D$5&gt;=$B31,D$5&lt;=$C31)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CM25:CO25">
-    <cfRule type="expression" dxfId="14" priority="335">
+    <cfRule type="expression" dxfId="15" priority="335">
       <formula>AND(CM$5&gt;=$B34,CM$5&lt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CM26:CO26">
-    <cfRule type="expression" dxfId="13" priority="336">
+    <cfRule type="expression" dxfId="14" priority="336">
       <formula>AND(CM$5&gt;=#REF!,CM$5&lt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CM25:CO25">
-    <cfRule type="expression" dxfId="12" priority="337">
+    <cfRule type="expression" dxfId="13" priority="337">
       <formula>AND(CM$5&gt;=$B34,CM$5&lt;=$C32)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:CI29 CQ29:EG29">
-    <cfRule type="expression" dxfId="11" priority="338">
+    <cfRule type="expression" dxfId="12" priority="338">
       <formula>AND(D$5&gt;=#REF!,D$5&lt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30:CI30 CQ30:EG30">
-    <cfRule type="expression" dxfId="10" priority="340">
+    <cfRule type="expression" dxfId="11" priority="340">
       <formula>AND(D$5&gt;=#REF!,D$5&lt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CJ28:CP28">
-    <cfRule type="expression" dxfId="9" priority="344">
+    <cfRule type="expression" dxfId="10" priority="344">
       <formula>AND(CJ$5&gt;=$B36,CJ$5&lt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CM34:CO34">
-    <cfRule type="expression" dxfId="8" priority="357">
+    <cfRule type="expression" dxfId="9" priority="357">
       <formula>AND(CM$5&gt;=#REF!,CM$5&lt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CM32:CO32">
-    <cfRule type="expression" dxfId="7" priority="358">
+  <conditionalFormatting sqref="CM32:CO32 CM53:CO54">
+    <cfRule type="expression" dxfId="8" priority="358">
       <formula>AND(CM$5&gt;=$B34,CM$5&lt;=$C34)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CM34:CO34">
-    <cfRule type="expression" dxfId="6" priority="360">
+    <cfRule type="expression" dxfId="7" priority="360">
       <formula>AND(CM$5&gt;=$B41,CM$5&lt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33:EG33">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>D$5=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="7">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>D$5=$C$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33:EG33">
-    <cfRule type="expression" dxfId="3" priority="8">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>AND(D$5&gt;=$B33,D$5&lt;=$C33)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33:EG33">
-    <cfRule type="expression" dxfId="2" priority="9">
+    <cfRule type="expression" dxfId="3" priority="9">
       <formula>AND(D$5&gt;=#REF!,D$5&lt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CM44:CO44">
-    <cfRule type="expression" dxfId="1" priority="374">
+    <cfRule type="expression" dxfId="2" priority="374">
       <formula>AND(CM$5&gt;=$B42,CM$5&lt;=$C42)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CM44:CO44">
-    <cfRule type="expression" dxfId="0" priority="376">
+    <cfRule type="expression" dxfId="1" priority="376">
       <formula>AND(CM$5&gt;=$B49,CM$5&lt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CM46:CO54">
+    <cfRule type="expression" dxfId="0" priority="382">
+      <formula>AND(CM$5&gt;=$B55,CM$5&lt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
